--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlissonAlmeid4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="289">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Guilherme Aquino</t>
   </si>
   <si>
-    <t>Washinton</t>
-  </si>
-  <si>
     <t>Daiane</t>
   </si>
   <si>
@@ -647,12 +644,6 @@
     <t>Tatiana</t>
   </si>
   <si>
-    <t>Natan X Daniele</t>
-  </si>
-  <si>
-    <t>Abner X Namorada</t>
-  </si>
-  <si>
     <t>Cicero</t>
   </si>
   <si>
@@ -677,9 +668,6 @@
     <t>Placas</t>
   </si>
   <si>
-    <t>Yan/Lucas</t>
-  </si>
-  <si>
     <t>Noivinhos</t>
   </si>
   <si>
@@ -888,6 +876,21 @@
   </si>
   <si>
     <t>Jessica</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Organizadora</t>
+  </si>
+  <si>
+    <t>Abner X Daniele</t>
+  </si>
+  <si>
+    <t>Natan X Sarah</t>
+  </si>
+  <si>
+    <t>Larissa X Leonardo</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36:J39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,21 +1272,21 @@
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1295,13 +1298,13 @@
         <v>66</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>33</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1324,21 +1327,21 @@
         <v>173</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" s="1">
         <v>260</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1356,27 +1359,30 @@
         <v>174</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="1">
         <v>261</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1400,13 +1406,16 @@
         <v>262</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>78</v>
@@ -1414,7 +1423,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1438,13 +1447,13 @@
         <v>263</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>69</v>
@@ -1452,7 +1461,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1476,18 +1485,18 @@
         <v>264</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
@@ -1519,7 +1528,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -1537,16 +1546,19 @@
         <v>179</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="1">
         <v>266</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C12" s="1">
         <v>8</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>267</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1583,19 +1595,19 @@
         <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G13" s="1">
         <v>181</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I13" s="1">
         <v>268</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1615,13 +1627,13 @@
         <v>182</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="1">
         <v>269</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1641,13 +1653,13 @@
         <v>183</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" s="1">
         <v>270</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1655,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1">
         <v>95</v>
@@ -1667,13 +1679,13 @@
         <v>184</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="1">
         <v>271</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
@@ -1687,19 +1699,19 @@
         <v>96</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="G17" s="1">
         <v>185</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" s="1">
         <v>272</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1707,13 +1719,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1">
         <v>97</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1">
         <v>186</v>
@@ -1725,7 +1737,7 @@
         <v>273</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1745,13 +1757,13 @@
         <v>187</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I19" s="1">
         <v>274</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
@@ -1765,19 +1777,19 @@
         <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="1">
         <v>188</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I20" s="1">
         <v>275</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
@@ -1785,28 +1797,28 @@
         <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" s="1">
         <v>189</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I21" s="1">
         <v>276</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
@@ -1814,13 +1826,13 @@
         <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1">
         <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="1">
         <v>190</v>
@@ -1832,10 +1844,10 @@
         <v>277</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
@@ -1849,19 +1861,19 @@
         <v>102</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1">
         <v>191</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I23" s="1">
         <v>278</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>57</v>
@@ -1878,7 +1890,7 @@
         <v>103</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="1">
         <v>192</v>
@@ -1890,10 +1902,10 @@
         <v>279</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
@@ -1907,7 +1919,7 @@
         <v>104</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="1">
         <v>193</v>
@@ -1919,7 +1931,7 @@
         <v>280</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>58</v>
@@ -1936,19 +1948,19 @@
         <v>105</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1">
         <v>194</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I26" s="1">
         <v>281</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>59</v>
@@ -1971,13 +1983,13 @@
         <v>195</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I27" s="1">
         <v>282</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>60</v>
@@ -1994,19 +2006,19 @@
         <v>107</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="1">
         <v>196</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I28" s="1">
         <v>283</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
@@ -2014,28 +2026,28 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1">
         <v>108</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G29" s="1">
         <v>197</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I29" s="1">
         <v>284</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
@@ -2043,28 +2055,28 @@
         <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1">
         <v>109</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G30" s="1">
         <v>198</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I30" s="1">
         <v>285</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
@@ -2072,28 +2084,28 @@
         <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="1">
         <v>110</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G31" s="1">
         <v>199</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I31" s="1">
         <v>286</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
@@ -2113,16 +2125,16 @@
         <v>200</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I32" s="1">
         <v>287</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
@@ -2142,16 +2154,16 @@
         <v>201</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I33" s="1">
         <v>288</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
@@ -2165,22 +2177,22 @@
         <v>113</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G34" s="1">
         <v>202</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I34" s="1">
         <v>289</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
@@ -2194,22 +2206,22 @@
         <v>114</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G35" s="1">
         <v>203</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I35" s="1">
         <v>290</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
@@ -2223,7 +2235,7 @@
         <v>115</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="1">
         <v>204</v>
@@ -2235,10 +2247,10 @@
         <v>291</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
@@ -2252,22 +2264,22 @@
         <v>116</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37" s="1">
         <v>205</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I37" s="1">
         <v>292</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
@@ -2287,16 +2299,16 @@
         <v>206</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38" s="1">
         <v>293</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
@@ -2310,19 +2322,19 @@
         <v>118</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" s="1">
         <v>207</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="1">
         <v>294</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
@@ -2336,13 +2348,13 @@
         <v>119</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G40" s="1">
         <v>208</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I40" s="1">
         <v>295</v>
@@ -2353,19 +2365,19 @@
         <v>37</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1">
         <v>120</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G41" s="1">
         <v>209</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I41" s="1">
         <v>296</v>
@@ -2388,7 +2400,7 @@
         <v>210</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" s="1">
         <v>297</v>
@@ -2405,7 +2417,7 @@
         <v>122</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G43" s="1">
         <v>211</v>
@@ -2434,7 +2446,7 @@
         <v>212</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I44" s="1">
         <v>299</v>
@@ -2451,7 +2463,7 @@
         <v>124</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G45" s="1">
         <v>213</v>
@@ -2468,7 +2480,7 @@
         <v>42</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" s="1">
         <v>125</v>
@@ -2497,7 +2509,7 @@
         <v>126</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" s="1">
         <v>215</v>
@@ -2520,7 +2532,7 @@
         <v>127</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G48" s="1">
         <v>216</v>
@@ -2543,13 +2555,13 @@
         <v>128</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" s="1">
         <v>217</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="1">
         <v>304</v>
@@ -2566,13 +2578,13 @@
         <v>129</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50" s="1">
         <v>218</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" s="1">
         <v>305</v>
@@ -2589,13 +2601,13 @@
         <v>130</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G51" s="1">
         <v>219</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I51" s="1">
         <v>306</v>
@@ -2618,7 +2630,7 @@
         <v>220</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I52" s="1">
         <v>307</v>
@@ -2641,7 +2653,7 @@
         <v>221</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I53" s="1">
         <v>308</v>
@@ -2652,7 +2664,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="1">
         <v>133</v>
@@ -2681,13 +2693,13 @@
         <v>134</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G55" s="1">
         <v>223</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I55" s="1">
         <v>310</v>
@@ -2704,7 +2716,7 @@
         <v>135</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G56" s="1">
         <v>224</v>
@@ -2727,13 +2739,13 @@
         <v>136</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G57" s="1">
         <v>225</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I57" s="1">
         <v>312</v>
@@ -2750,13 +2762,13 @@
         <v>137</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" s="1">
         <v>226</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I58" s="1">
         <v>313</v>
@@ -2773,13 +2785,13 @@
         <v>138</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G59" s="1">
         <v>227</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I59" s="1">
         <v>314</v>
@@ -2796,13 +2808,13 @@
         <v>139</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G60" s="1">
         <v>228</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I60" s="1">
         <v>315</v>
@@ -2819,13 +2831,13 @@
         <v>140</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G61" s="1">
         <v>229</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I61" s="1">
         <v>316</v>
@@ -2842,13 +2854,13 @@
         <v>141</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G62" s="1">
         <v>230</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I62" s="1">
         <v>317</v>
@@ -2865,13 +2877,13 @@
         <v>142</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63" s="1">
         <v>231</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I63" s="1">
         <v>318</v>
@@ -2888,13 +2900,13 @@
         <v>143</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64" s="1">
         <v>232</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I64" s="1">
         <v>319</v>
@@ -2911,13 +2923,13 @@
         <v>144</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G65" s="1">
         <v>233</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I65" s="1">
         <v>320</v>
@@ -2928,19 +2940,19 @@
         <v>62</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66" s="1">
         <v>145</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" s="1">
         <v>234</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I66" s="1">
         <v>321</v>
@@ -2957,13 +2969,13 @@
         <v>146</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G67" s="1">
         <v>235</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I67" s="1">
         <v>322</v>
@@ -2980,13 +2992,13 @@
         <v>147</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G68" s="1">
         <v>236</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I68" s="1">
         <v>323</v>
@@ -2997,7 +3009,7 @@
         <v>65</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>148</v>
@@ -3009,7 +3021,7 @@
         <v>237</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I69" s="1">
         <v>324</v>
@@ -3020,19 +3032,19 @@
         <v>66</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E70" s="1">
         <v>149</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G70" s="1">
         <v>238</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I70" s="1">
         <v>325</v>
@@ -3049,13 +3061,13 @@
         <v>150</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1">
         <v>239</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I71" s="1">
         <v>326</v>
@@ -3072,13 +3084,13 @@
         <v>151</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G72" s="1">
         <v>240</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I72" s="1">
         <v>327</v>
@@ -3095,13 +3107,13 @@
         <v>152</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G73" s="1">
         <v>241</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I73" s="1">
         <v>328</v>
@@ -3118,13 +3130,13 @@
         <v>153</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G74" s="1">
         <v>242</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I74" s="1">
         <v>329</v>
@@ -3141,13 +3153,13 @@
         <v>154</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G75" s="1">
         <v>243</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I75" s="1">
         <v>330</v>
@@ -3164,13 +3176,13 @@
         <v>155</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G76" s="1">
         <v>244</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I76" s="1">
         <v>331</v>
@@ -3181,19 +3193,19 @@
         <v>73</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E77" s="1">
         <v>156</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G77" s="1">
         <v>245</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I77" s="1">
         <v>332</v>
@@ -3204,19 +3216,19 @@
         <v>74</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E78" s="1">
         <v>157</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G78" s="1">
         <v>246</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I78" s="1">
         <v>333</v>
@@ -3227,19 +3239,19 @@
         <v>75</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E79" s="1">
         <v>158</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G79" s="1">
         <v>247</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I79" s="1">
         <v>334</v>
@@ -3256,13 +3268,13 @@
         <v>159</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G80" s="1">
         <v>248</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I80" s="1">
         <v>335</v>
@@ -3279,13 +3291,13 @@
         <v>160</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G81" s="1">
         <v>249</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I81" s="1">
         <v>336</v>
@@ -3296,7 +3308,7 @@
         <v>78</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E82" s="1">
         <v>161</v>
@@ -3308,7 +3320,7 @@
         <v>250</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I82" s="1">
         <v>337</v>
@@ -3319,19 +3331,19 @@
         <v>79</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E83" s="1">
         <v>162</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G83" s="1">
         <v>251</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I83" s="1">
         <v>338</v>
@@ -3348,13 +3360,13 @@
         <v>163</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G84" s="1">
         <v>252</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I84" s="1">
         <v>339</v>
@@ -3365,19 +3377,19 @@
         <v>81</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" s="1">
         <v>164</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G85" s="1">
         <v>253</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I85" s="1">
         <v>340</v>
@@ -3388,19 +3400,19 @@
         <v>82</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="1">
         <v>165</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G86" s="1">
         <v>254</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I86" s="1">
         <v>341</v>
@@ -3411,19 +3423,19 @@
         <v>83</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E87" s="1">
         <v>166</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G87" s="1">
         <v>255</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I87" s="1">
         <v>342</v>
@@ -3434,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G88" s="1">
         <v>256</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I88" s="1">
         <v>343</v>
@@ -3451,13 +3463,13 @@
         <v>168</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G89" s="1">
         <v>257</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I89" s="1">
         <v>344</v>
@@ -3474,7 +3486,7 @@
         <v>258</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I90" s="1">
         <v>345</v>
@@ -3485,13 +3497,13 @@
         <v>170</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G91" s="1">
         <v>259</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I91" s="1">
         <v>346</v>
@@ -3513,7 +3525,7 @@
         <v>172</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I93" s="1">
         <v>348</v>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBF474-298D-4491-A8A5-DA18C187150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE608A22-863A-4DC2-B033-FEB7BB9481FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="275">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -468,15 +468,6 @@
     <t>Garçons</t>
   </si>
   <si>
-    <t>Pedrinho</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Fabricio</t>
-  </si>
-  <si>
     <t>Bruno</t>
   </si>
   <si>
@@ -847,6 +838,18 @@
   </si>
   <si>
     <t>Lembrancinha Padrinhos</t>
+  </si>
+  <si>
+    <t>Pedro Henrique</t>
+  </si>
+  <si>
+    <t>Gabriel Araujo</t>
+  </si>
+  <si>
+    <t>Fabricio Campos</t>
+  </si>
+  <si>
+    <t>Kayque Silva</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,34 +1279,34 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="9" t="s">
         <v>62</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M3" s="4"/>
       <c r="Q3" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1311,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="6">
@@ -1339,9 +1342,9 @@
         <v>193</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1358,8 +1361,8 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>269</v>
+      <c r="B5" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="6"/>
@@ -1379,18 +1382,18 @@
         <v>194</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>154</v>
+      <c r="B6" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="6">
@@ -1415,27 +1418,27 @@
         <v>195</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>146</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>155</v>
+      <c r="B7" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="6"/>
@@ -1458,10 +1461,10 @@
         <v>196</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>95</v>
@@ -1477,8 +1480,8 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>156</v>
+      <c r="B8" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="6"/>
@@ -1505,13 +1508,13 @@
         <v>197</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>65</v>
@@ -1521,8 +1524,8 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>157</v>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="6">
@@ -1547,13 +1550,13 @@
         <v>198</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1561,7 +1564,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E10" s="6">
         <v>4</v>
@@ -1585,10 +1588,10 @@
         <v>199</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>74</v>
+        <v>174</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1596,7 +1599,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="4">
@@ -1618,7 +1621,7 @@
         <v>200</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1626,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E12" s="6">
         <v>5</v>
@@ -1645,14 +1648,14 @@
         <v>92</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="4">
         <v>201</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1680,7 +1683,7 @@
         <v>202</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1749,7 +1752,7 @@
         <v>96</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L16" s="6">
         <v>61</v>
@@ -1862,8 +1865,8 @@
       <c r="N20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>272</v>
+      <c r="Q20" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.25">
@@ -1890,7 +1893,7 @@
         <v>64</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.25">
@@ -2065,7 +2068,7 @@
         <v>108</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="4">
@@ -2089,7 +2092,7 @@
         <v>109</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="4">
@@ -2113,7 +2116,7 @@
         <v>110</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L30" s="6">
         <v>64</v>
@@ -2122,7 +2125,7 @@
         <v>219</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.25">
@@ -2146,7 +2149,7 @@
         <v>220</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.25">
@@ -2198,7 +2201,7 @@
         <v>222</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.25">
@@ -2252,7 +2255,7 @@
         <v>224</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="5:14" x14ac:dyDescent="0.25">
@@ -2276,7 +2279,7 @@
         <v>225</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.25">
@@ -2300,7 +2303,7 @@
         <v>226</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.25">
@@ -2354,7 +2357,7 @@
         <v>228</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="5:14" x14ac:dyDescent="0.25">
@@ -2373,14 +2376,14 @@
         <v>120</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="4">
         <v>229</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="5:14" x14ac:dyDescent="0.25">
@@ -2404,7 +2407,7 @@
         <v>230</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="5:14" x14ac:dyDescent="0.25">
@@ -2430,7 +2433,7 @@
         <v>231</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="5:14" x14ac:dyDescent="0.25">
@@ -2458,7 +2461,7 @@
         <v>232</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.25">
@@ -2482,7 +2485,7 @@
         <v>233</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.25">
@@ -2508,7 +2511,7 @@
         <v>234</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
@@ -2527,14 +2530,14 @@
         <v>126</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="4">
         <v>235</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.25">
@@ -2560,7 +2563,7 @@
         <v>236</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
@@ -2586,7 +2589,7 @@
         <v>237</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.25">
@@ -2603,7 +2606,7 @@
         <v>129</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L49" s="6">
         <v>69</v>
@@ -2636,7 +2639,7 @@
         <v>239</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
@@ -2664,7 +2667,7 @@
         <v>240</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.25">
@@ -2688,7 +2691,7 @@
         <v>241</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.25">
@@ -2714,7 +2717,7 @@
         <v>242</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.25">
@@ -2738,7 +2741,7 @@
         <v>243</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.25">
@@ -2762,7 +2765,7 @@
         <v>244</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.25">
@@ -2788,7 +2791,7 @@
         <v>245</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.25">
@@ -2816,7 +2819,7 @@
         <v>246</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.25">
@@ -2840,7 +2843,7 @@
         <v>247</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.25">
@@ -2866,7 +2869,7 @@
         <v>248</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="5:14" x14ac:dyDescent="0.25">
@@ -2894,7 +2897,7 @@
         <v>249</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.25">
@@ -2920,7 +2923,7 @@
         <v>250</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.25">
@@ -2944,7 +2947,7 @@
         <v>251</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="5:14" x14ac:dyDescent="0.25">
@@ -2970,7 +2973,7 @@
         <v>252</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.25">
@@ -2987,7 +2990,7 @@
         <v>144</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L64" s="6">
         <v>73</v>
@@ -3024,7 +3027,7 @@
         <v>254</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.25">
@@ -3048,7 +3051,7 @@
         <v>255</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.25">
@@ -3072,7 +3075,7 @@
         <v>256</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.25">
@@ -3096,7 +3099,7 @@
         <v>257</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.25">
@@ -3122,7 +3125,7 @@
         <v>258</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.25">
@@ -3148,7 +3151,7 @@
         <v>259</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="5:14" x14ac:dyDescent="0.25">
@@ -3174,7 +3177,7 @@
         <v>260</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="5:14" x14ac:dyDescent="0.25">
@@ -3202,7 +3205,7 @@
         <v>261</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="5:14" x14ac:dyDescent="0.25">
@@ -3219,14 +3222,14 @@
         <v>153</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" s="4">
         <v>262</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="5:14" x14ac:dyDescent="0.25">
@@ -3250,7 +3253,7 @@
         <v>263</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="5:14" x14ac:dyDescent="0.25">
@@ -3302,7 +3305,7 @@
         <v>265</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="5:14" x14ac:dyDescent="0.25">
@@ -3328,7 +3331,7 @@
         <v>266</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="5:14" x14ac:dyDescent="0.25">
@@ -3354,7 +3357,7 @@
         <v>267</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="5:14" x14ac:dyDescent="0.25">
@@ -3378,7 +3381,7 @@
         <v>268</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="5:14" x14ac:dyDescent="0.25">
@@ -3404,7 +3407,7 @@
         <v>269</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
@@ -3430,7 +3433,7 @@
         <v>270</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="5:14" x14ac:dyDescent="0.25">
@@ -3458,7 +3461,7 @@
         <v>271</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="5:14" x14ac:dyDescent="0.25">
@@ -3482,7 +3485,7 @@
         <v>272</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="5:14" x14ac:dyDescent="0.25">
@@ -3508,7 +3511,7 @@
         <v>273</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="5:14" x14ac:dyDescent="0.25">
@@ -3532,7 +3535,7 @@
         <v>274</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="5:14" x14ac:dyDescent="0.25">
@@ -3541,7 +3544,7 @@
         <v>82</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="6">
@@ -3558,7 +3561,7 @@
         <v>275</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="5:14" x14ac:dyDescent="0.25">
@@ -3567,7 +3570,7 @@
         <v>83</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="6"/>
@@ -3584,7 +3587,7 @@
         <v>276</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="5:14" x14ac:dyDescent="0.25">
@@ -3595,14 +3598,14 @@
         <v>168</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="4">
         <v>277</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="5:14" x14ac:dyDescent="0.25">
@@ -3611,14 +3614,14 @@
         <v>169</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L89" s="6"/>
       <c r="M89" s="4">
         <v>278</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="5:14" x14ac:dyDescent="0.25">
@@ -3634,7 +3637,7 @@
         <v>279</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="5:14" x14ac:dyDescent="0.25">
@@ -3652,7 +3655,7 @@
         <v>280</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="5:14" x14ac:dyDescent="0.25">
@@ -3663,14 +3666,14 @@
         <v>172</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="4">
         <v>281</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.25">
@@ -3686,7 +3689,7 @@
         <v>282</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.25">
@@ -3695,14 +3698,14 @@
         <v>174</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="4">
         <v>283</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.25">
@@ -3713,7 +3716,7 @@
         <v>175</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L95" s="6">
         <v>81</v>
@@ -3722,7 +3725,7 @@
         <v>284</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="5:14" x14ac:dyDescent="0.25">
@@ -3738,7 +3741,7 @@
         <v>285</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="9:14" x14ac:dyDescent="0.25">
@@ -3754,7 +3757,7 @@
         <v>286</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="9:14" x14ac:dyDescent="0.25">
@@ -3772,7 +3775,7 @@
         <v>287</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="9:14" x14ac:dyDescent="0.25">
@@ -3788,7 +3791,7 @@
         <v>288</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="9:14" x14ac:dyDescent="0.25">
@@ -3804,7 +3807,7 @@
         <v>289</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="9:14" x14ac:dyDescent="0.25">
@@ -3815,7 +3818,7 @@
         <v>181</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L101" s="6">
         <v>83</v>
@@ -3824,7 +3827,7 @@
         <v>290</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="9:14" x14ac:dyDescent="0.25">
@@ -3840,7 +3843,7 @@
         <v>291</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="9:14" x14ac:dyDescent="0.25">
@@ -3849,14 +3852,14 @@
         <v>183</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="4">
         <v>292</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="9:14" x14ac:dyDescent="0.25">
@@ -3865,14 +3868,14 @@
         <v>184</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="4">
         <v>293</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="9:14" x14ac:dyDescent="0.25">
@@ -3883,7 +3886,7 @@
         <v>185</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="4">
@@ -3909,7 +3912,7 @@
         <v>187</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L107" s="6"/>
       <c r="M107" s="4">
@@ -3935,7 +3938,7 @@
         <v>189</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="4">
@@ -3948,7 +3951,7 @@
         <v>190</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="4">
@@ -3961,7 +3964,7 @@
         <v>191</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="4">
@@ -3984,8 +3987,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q21" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0" xr:uid="{0AF0D7CC-5A13-4890-AFF0-80028C34D498}"/>
+    <hyperlink ref="Q20" r:id="rId2" xr:uid="{517C4127-C910-4558-962A-AFB951676BAB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE608A22-863A-4DC2-B033-FEB7BB9481FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +25,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alisson</author>
+  </authors>
+  <commentList>
+    <comment ref="O21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alisson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13 Padrinhos
+  4 Pessoas que ajudaram(Ricardo, Leticia, Elizani, Dono do Sitio)
+Suellen:
+24 Ao todo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="281">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -850,13 +888,34 @@
   </si>
   <si>
     <t>Kayque Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 - </t>
+  </si>
+  <si>
+    <t>1º</t>
+  </si>
+  <si>
+    <t>Salgados fritos</t>
+  </si>
+  <si>
+    <t>Assados</t>
+  </si>
+  <si>
+    <t>Doces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +949,34 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -943,11 +1030,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -964,9 +1052,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1244,11 +1336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:T112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,23 +1350,22 @@
     <col min="3" max="4" width="3.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="5.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,117 +1376,114 @@
       <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="P3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="Q3" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="T3" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6">
+      <c r="H4" s="6">
         <v>26</v>
       </c>
-      <c r="J4" s="4">
+      <c r="I4" s="4">
         <v>84</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="6">
+      <c r="K4" s="6">
         <v>58</v>
       </c>
-      <c r="M4" s="4">
+      <c r="L4" s="4">
         <v>193</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="R4" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4">
+      <c r="H5" s="6"/>
+      <c r="I5" s="4">
         <v>85</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4">
+      <c r="K5" s="6"/>
+      <c r="L5" s="4">
         <v>194</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="E6" s="6">
         <v>2</v>
       </c>
@@ -1405,42 +1493,40 @@
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4">
+      <c r="H6" s="6"/>
+      <c r="I6" s="4">
         <v>86</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="4">
+      <c r="K6" s="6"/>
+      <c r="L6" s="4">
         <v>195</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>156</v>
       </c>
+      <c r="P6" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="Q6" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="T6" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4">
         <v>3</v>
@@ -1448,42 +1534,40 @@
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="4">
+      <c r="H7" s="6"/>
+      <c r="I7" s="4">
         <v>87</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="4">
+      <c r="K7" s="6"/>
+      <c r="L7" s="4">
         <v>196</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="R7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4">
         <v>4</v>
@@ -1491,43 +1575,41 @@
       <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6">
+      <c r="H8" s="6">
         <v>27</v>
       </c>
-      <c r="J8" s="4">
+      <c r="I8" s="4">
         <v>88</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="6">
+      <c r="K8" s="6">
         <v>59</v>
       </c>
-      <c r="M8" s="4">
+      <c r="L8" s="4">
         <v>197</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="E9" s="6">
         <v>3</v>
       </c>
@@ -1537,29 +1619,28 @@
       <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4">
+      <c r="H9" s="6"/>
+      <c r="I9" s="4">
         <v>89</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="4">
+      <c r="K9" s="6"/>
+      <c r="L9" s="4">
         <v>198</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1575,26 +1656,25 @@
       <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="4">
+      <c r="H10" s="6"/>
+      <c r="I10" s="4">
         <v>90</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="4">
+      <c r="K10" s="6"/>
+      <c r="L10" s="4">
         <v>199</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1608,23 +1688,22 @@
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4">
+      <c r="H11" s="6"/>
+      <c r="I11" s="4">
         <v>91</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="4">
+      <c r="K11" s="6"/>
+      <c r="L11" s="4">
         <v>200</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1640,25 +1719,24 @@
       <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6">
+      <c r="H12" s="6">
         <v>28</v>
       </c>
-      <c r="J12" s="4">
+      <c r="I12" s="4">
         <v>92</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="4">
+      <c r="K12" s="6"/>
+      <c r="L12" s="4">
         <v>201</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E13" s="6">
         <v>6</v>
       </c>
@@ -1668,25 +1746,24 @@
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4">
+      <c r="H13" s="6"/>
+      <c r="I13" s="4">
         <v>93</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="6">
+      <c r="K13" s="6">
         <v>60</v>
       </c>
-      <c r="M13" s="4">
+      <c r="L13" s="4">
         <v>202</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="4">
         <v>10</v>
@@ -1694,23 +1771,22 @@
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4">
+      <c r="H14" s="6"/>
+      <c r="I14" s="4">
         <v>94</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="4">
+      <c r="K14" s="6"/>
+      <c r="L14" s="4">
         <v>203</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="4">
         <v>11</v>
@@ -1718,25 +1794,24 @@
       <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6">
+      <c r="H15" s="6">
         <v>29</v>
       </c>
-      <c r="J15" s="4">
+      <c r="I15" s="4">
         <v>95</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="4">
+      <c r="K15" s="6"/>
+      <c r="L15" s="4">
         <v>204</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="F16" s="4">
         <v>12</v>
@@ -1744,27 +1819,26 @@
       <c r="G16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6">
+      <c r="H16" s="6">
         <v>30</v>
       </c>
-      <c r="J16" s="4">
+      <c r="I16" s="4">
         <v>96</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L16" s="6">
+      <c r="K16" s="6">
         <v>61</v>
       </c>
-      <c r="M16" s="4">
+      <c r="L16" s="4">
         <v>205</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" s="6">
         <v>7</v>
       </c>
@@ -1774,23 +1848,22 @@
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="4">
+      <c r="H17" s="6"/>
+      <c r="I17" s="4">
         <v>97</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="4">
+      <c r="K17" s="6"/>
+      <c r="L17" s="4">
         <v>206</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="4">
         <v>14</v>
@@ -1798,23 +1871,22 @@
       <c r="G18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="4">
+      <c r="H18" s="6"/>
+      <c r="I18" s="4">
         <v>98</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="4">
+      <c r="K18" s="6"/>
+      <c r="L18" s="4">
         <v>207</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E19" s="6">
         <v>8</v>
       </c>
@@ -1824,25 +1896,24 @@
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="6">
+      <c r="H19" s="6">
         <v>31</v>
       </c>
-      <c r="J19" s="4">
+      <c r="I19" s="4">
         <v>99</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="4">
+      <c r="K19" s="6"/>
+      <c r="L19" s="4">
         <v>208</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E20" s="6"/>
       <c r="F20" s="4">
         <v>16</v>
@@ -1850,26 +1921,28 @@
       <c r="G20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="4">
+      <c r="H20" s="6"/>
+      <c r="I20" s="4">
         <v>100</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="4">
+      <c r="K20" s="6"/>
+      <c r="L20" s="4">
         <v>209</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="O20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P20" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="4">
         <v>17</v>
@@ -1877,26 +1950,28 @@
       <c r="G21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="4">
+      <c r="H21" s="6"/>
+      <c r="I21" s="4">
         <v>101</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="4">
+      <c r="K21" s="6"/>
+      <c r="L21" s="4">
         <v>210</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="O21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P21" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
       <c r="F22" s="4">
         <v>18</v>
@@ -1904,25 +1979,24 @@
       <c r="G22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6">
+      <c r="H22" s="6">
         <v>32</v>
       </c>
-      <c r="J22" s="4">
+      <c r="I22" s="4">
         <v>102</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="4">
+      <c r="K22" s="6"/>
+      <c r="L22" s="4">
         <v>211</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>9</v>
       </c>
@@ -1932,25 +2006,24 @@
       <c r="G23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="4">
+      <c r="H23" s="6"/>
+      <c r="I23" s="4">
         <v>103</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L23" s="6">
+      <c r="K23" s="6">
         <v>62</v>
       </c>
-      <c r="M23" s="4">
+      <c r="L23" s="4">
         <v>212</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
       <c r="F24" s="4">
         <v>20</v>
@@ -1958,23 +2031,22 @@
       <c r="G24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="4">
+      <c r="H24" s="6"/>
+      <c r="I24" s="4">
         <v>104</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="4">
+      <c r="K24" s="6"/>
+      <c r="L24" s="4">
         <v>213</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
       <c r="F25" s="4">
         <v>21</v>
@@ -1982,23 +2054,22 @@
       <c r="G25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="4">
+      <c r="H25" s="6"/>
+      <c r="I25" s="4">
         <v>105</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="4">
+      <c r="K25" s="6"/>
+      <c r="L25" s="4">
         <v>214</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E26" s="6">
         <v>10</v>
       </c>
@@ -2008,23 +2079,22 @@
       <c r="G26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="4">
+      <c r="H26" s="6"/>
+      <c r="I26" s="4">
         <v>106</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="4">
+      <c r="K26" s="6"/>
+      <c r="L26" s="4">
         <v>215</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
       <c r="F27" s="4">
         <v>23</v>
@@ -2032,25 +2102,24 @@
       <c r="G27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="4">
+      <c r="H27" s="6"/>
+      <c r="I27" s="4">
         <v>107</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="6">
+      <c r="K27" s="6">
         <v>63</v>
       </c>
-      <c r="M27" s="4">
+      <c r="L27" s="4">
         <v>216</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
         <v>11</v>
       </c>
@@ -2060,25 +2129,24 @@
       <c r="G28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="6">
+      <c r="H28" s="6">
         <v>34</v>
       </c>
-      <c r="J28" s="4">
+      <c r="I28" s="4">
         <v>108</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="4">
+      <c r="K28" s="6"/>
+      <c r="L28" s="4">
         <v>217</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E29" s="6"/>
       <c r="F29" s="4">
         <v>25</v>
@@ -2086,23 +2154,22 @@
       <c r="G29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="4">
+      <c r="H29" s="6"/>
+      <c r="I29" s="4">
         <v>109</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="4">
+      <c r="K29" s="6"/>
+      <c r="L29" s="4">
         <v>218</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
       <c r="F30" s="4">
         <v>26</v>
@@ -2110,25 +2177,24 @@
       <c r="G30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="4">
+      <c r="H30" s="6"/>
+      <c r="I30" s="4">
         <v>110</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L30" s="6">
+      <c r="K30" s="6">
         <v>64</v>
       </c>
-      <c r="M30" s="4">
+      <c r="L30" s="4">
         <v>219</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
       <c r="F31" s="4">
         <v>27</v>
@@ -2136,23 +2202,22 @@
       <c r="G31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="4">
+      <c r="H31" s="6"/>
+      <c r="I31" s="4">
         <v>111</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="4">
+      <c r="K31" s="6"/>
+      <c r="L31" s="4">
         <v>220</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
       <c r="F32" s="4">
         <v>28</v>
@@ -2160,23 +2225,22 @@
       <c r="G32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="4">
+      <c r="H32" s="6"/>
+      <c r="I32" s="4">
         <v>112</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="4">
+      <c r="K32" s="6"/>
+      <c r="L32" s="4">
         <v>221</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E33" s="6">
         <v>12</v>
       </c>
@@ -2186,25 +2250,24 @@
       <c r="G33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6">
+      <c r="H33" s="6">
         <v>35</v>
       </c>
-      <c r="J33" s="4">
+      <c r="I33" s="4">
         <v>113</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="4">
+      <c r="K33" s="6"/>
+      <c r="L33" s="4">
         <v>222</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
       <c r="F34" s="4">
         <v>30</v>
@@ -2212,23 +2275,22 @@
       <c r="G34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="4">
+      <c r="H34" s="6"/>
+      <c r="I34" s="4">
         <v>114</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="4">
+      <c r="K34" s="6"/>
+      <c r="L34" s="4">
         <v>223</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E35" s="6">
         <v>13</v>
       </c>
@@ -2238,27 +2300,26 @@
       <c r="G35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="6">
+      <c r="H35" s="6">
         <v>36</v>
       </c>
-      <c r="J35" s="4">
+      <c r="I35" s="4">
         <v>115</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="6">
+      <c r="K35" s="6">
         <v>65</v>
       </c>
-      <c r="M35" s="4">
+      <c r="L35" s="4">
         <v>224</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" s="4">
         <v>32</v>
@@ -2266,23 +2327,22 @@
       <c r="G36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="4">
+      <c r="H36" s="6"/>
+      <c r="I36" s="4">
         <v>116</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="4">
+      <c r="K36" s="6"/>
+      <c r="L36" s="4">
         <v>225</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
       <c r="F37" s="4">
         <v>33</v>
@@ -2290,23 +2350,22 @@
       <c r="G37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="4">
+      <c r="H37" s="6"/>
+      <c r="I37" s="4">
         <v>117</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="4">
+      <c r="K37" s="6"/>
+      <c r="L37" s="4">
         <v>226</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
       <c r="F38" s="4">
         <v>34</v>
@@ -2314,27 +2373,26 @@
       <c r="G38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="6">
+      <c r="H38" s="6">
         <v>37</v>
       </c>
-      <c r="J38" s="4">
+      <c r="I38" s="4">
         <v>118</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="6">
+      <c r="K38" s="6">
         <v>66</v>
       </c>
-      <c r="M38" s="4">
+      <c r="L38" s="4">
         <v>227</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E39" s="6">
         <v>14</v>
       </c>
@@ -2344,23 +2402,22 @@
       <c r="G39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="4">
+      <c r="H39" s="6"/>
+      <c r="I39" s="4">
         <v>119</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="4">
+      <c r="K39" s="6"/>
+      <c r="L39" s="4">
         <v>228</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
       <c r="F40" s="4">
         <v>36</v>
@@ -2368,25 +2425,24 @@
       <c r="G40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="6">
+      <c r="H40" s="6">
         <v>38</v>
       </c>
-      <c r="J40" s="4">
+      <c r="I40" s="4">
         <v>120</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="4">
+      <c r="K40" s="6"/>
+      <c r="L40" s="4">
         <v>229</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="4">
         <v>37</v>
@@ -2394,23 +2450,22 @@
       <c r="G41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="4">
+      <c r="H41" s="6"/>
+      <c r="I41" s="4">
         <v>121</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="4">
+      <c r="K41" s="6"/>
+      <c r="L41" s="4">
         <v>230</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
       <c r="F42" s="4">
         <v>38</v>
@@ -2418,25 +2473,24 @@
       <c r="G42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="4">
+      <c r="H42" s="6"/>
+      <c r="I42" s="4">
         <v>122</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="6">
+      <c r="K42" s="6">
         <v>67</v>
       </c>
-      <c r="M42" s="4">
+      <c r="L42" s="4">
         <v>231</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E43" s="6">
         <v>15</v>
       </c>
@@ -2446,25 +2500,24 @@
       <c r="G43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="6">
+      <c r="H43" s="6">
         <v>39</v>
       </c>
-      <c r="J43" s="4">
+      <c r="I43" s="4">
         <v>123</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="4">
+      <c r="K43" s="6"/>
+      <c r="L43" s="4">
         <v>232</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
       <c r="F44" s="4">
         <v>40</v>
@@ -2472,23 +2525,22 @@
       <c r="G44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="4">
+      <c r="H44" s="6"/>
+      <c r="I44" s="4">
         <v>124</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="4">
+      <c r="K44" s="6"/>
+      <c r="L44" s="4">
         <v>233</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
       <c r="F45" s="4">
         <v>41</v>
@@ -2496,25 +2548,24 @@
       <c r="G45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="4">
+      <c r="H45" s="6"/>
+      <c r="I45" s="4">
         <v>125</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="6">
+      <c r="K45" s="6">
         <v>68</v>
       </c>
-      <c r="M45" s="4">
+      <c r="L45" s="4">
         <v>234</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
       <c r="F46" s="4">
         <v>42</v>
@@ -2522,25 +2573,24 @@
       <c r="G46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="6">
+      <c r="H46" s="6">
         <v>40</v>
       </c>
-      <c r="J46" s="4">
+      <c r="I46" s="4">
         <v>126</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="4">
+      <c r="K46" s="6"/>
+      <c r="L46" s="4">
         <v>235</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E47" s="6">
         <v>16</v>
       </c>
@@ -2550,23 +2600,22 @@
       <c r="G47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="4">
+      <c r="H47" s="6"/>
+      <c r="I47" s="4">
         <v>127</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="4">
+      <c r="K47" s="6"/>
+      <c r="L47" s="4">
         <v>236</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E48" s="6"/>
       <c r="F48" s="4">
         <v>44</v>
@@ -2574,25 +2623,24 @@
       <c r="G48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="6">
+      <c r="H48" s="6">
         <v>41</v>
       </c>
-      <c r="J48" s="4">
+      <c r="I48" s="4">
         <v>128</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="4">
+      <c r="K48" s="6"/>
+      <c r="L48" s="4">
         <v>237</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E49" s="6"/>
       <c r="F49" s="4">
         <v>45</v>
@@ -2600,25 +2648,24 @@
       <c r="G49" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="4">
+      <c r="H49" s="6"/>
+      <c r="I49" s="4">
         <v>129</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L49" s="6">
+      <c r="K49" s="6">
         <v>69</v>
       </c>
-      <c r="M49" s="4">
+      <c r="L49" s="4">
         <v>238</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
       <c r="F50" s="4">
         <v>46</v>
@@ -2626,23 +2673,22 @@
       <c r="G50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="4">
+      <c r="H50" s="6"/>
+      <c r="I50" s="4">
         <v>130</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="4">
+      <c r="K50" s="6"/>
+      <c r="L50" s="4">
         <v>239</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E51" s="6">
         <v>17</v>
       </c>
@@ -2652,25 +2698,24 @@
       <c r="G51" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="6">
+      <c r="H51" s="6">
         <v>42</v>
       </c>
-      <c r="J51" s="4">
+      <c r="I51" s="4">
         <v>131</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="4">
+      <c r="K51" s="6"/>
+      <c r="L51" s="4">
         <v>240</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
       <c r="F52" s="4">
         <v>48</v>
@@ -2678,23 +2723,22 @@
       <c r="G52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="4">
+      <c r="H52" s="6"/>
+      <c r="I52" s="4">
         <v>132</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="4">
+      <c r="K52" s="6"/>
+      <c r="L52" s="4">
         <v>241</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="6"/>
       <c r="F53" s="4">
         <v>49</v>
@@ -2702,25 +2746,24 @@
       <c r="G53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="4">
+      <c r="H53" s="6"/>
+      <c r="I53" s="4">
         <v>133</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L53" s="6">
+      <c r="K53" s="6">
         <v>70</v>
       </c>
-      <c r="M53" s="4">
+      <c r="L53" s="4">
         <v>242</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E54" s="6"/>
       <c r="F54" s="4">
         <v>50</v>
@@ -2728,23 +2771,22 @@
       <c r="G54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="4">
+      <c r="H54" s="6"/>
+      <c r="I54" s="4">
         <v>134</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="4">
+      <c r="K54" s="6"/>
+      <c r="L54" s="4">
         <v>243</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
       <c r="F55" s="4">
         <v>51</v>
@@ -2752,23 +2794,22 @@
       <c r="G55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="4">
+      <c r="H55" s="6"/>
+      <c r="I55" s="4">
         <v>135</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="4">
+      <c r="K55" s="6"/>
+      <c r="L55" s="4">
         <v>244</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
       <c r="F56" s="4">
         <v>52</v>
@@ -2776,25 +2817,24 @@
       <c r="G56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="6">
+      <c r="H56" s="6">
         <v>43</v>
       </c>
-      <c r="J56" s="4">
+      <c r="I56" s="4">
         <v>136</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="4">
+      <c r="K56" s="6"/>
+      <c r="L56" s="4">
         <v>245</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="M56" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <v>18</v>
       </c>
@@ -2804,25 +2844,24 @@
       <c r="G57" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="4">
+      <c r="H57" s="6"/>
+      <c r="I57" s="4">
         <v>137</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L57" s="6">
+      <c r="K57" s="6">
         <v>71</v>
       </c>
-      <c r="M57" s="4">
+      <c r="L57" s="4">
         <v>246</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E58" s="6"/>
       <c r="F58" s="4">
         <v>54</v>
@@ -2830,23 +2869,22 @@
       <c r="G58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="4">
+      <c r="H58" s="6"/>
+      <c r="I58" s="4">
         <v>138</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L58" s="6"/>
-      <c r="M58" s="4">
+      <c r="K58" s="6"/>
+      <c r="L58" s="4">
         <v>247</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <v>19</v>
       </c>
@@ -2856,23 +2894,22 @@
       <c r="G59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="4">
+      <c r="H59" s="6"/>
+      <c r="I59" s="4">
         <v>139</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="4">
+      <c r="K59" s="6"/>
+      <c r="L59" s="4">
         <v>248</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
       <c r="F60" s="4">
         <v>56</v>
@@ -2880,27 +2917,26 @@
       <c r="G60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="6">
+      <c r="H60" s="6">
         <v>44</v>
       </c>
-      <c r="J60" s="4">
+      <c r="I60" s="4">
         <v>140</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L60" s="6">
+      <c r="K60" s="6">
         <v>72</v>
       </c>
-      <c r="M60" s="4">
+      <c r="L60" s="4">
         <v>249</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="M60" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
         <v>20</v>
       </c>
@@ -2910,23 +2946,22 @@
       <c r="G61" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="4">
+      <c r="H61" s="6"/>
+      <c r="I61" s="4">
         <v>141</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="4">
+      <c r="K61" s="6"/>
+      <c r="L61" s="4">
         <v>250</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
       <c r="F62" s="4">
         <v>58</v>
@@ -2934,23 +2969,22 @@
       <c r="G62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="4">
+      <c r="H62" s="6"/>
+      <c r="I62" s="4">
         <v>142</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="4">
+      <c r="K62" s="6"/>
+      <c r="L62" s="4">
         <v>251</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <v>21</v>
       </c>
@@ -2960,23 +2994,22 @@
       <c r="G63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="4">
+      <c r="H63" s="6"/>
+      <c r="I63" s="4">
         <v>143</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L63" s="6"/>
-      <c r="M63" s="4">
+      <c r="K63" s="6"/>
+      <c r="L63" s="4">
         <v>252</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E64" s="6"/>
       <c r="F64" s="4">
         <v>60</v>
@@ -2984,25 +3017,24 @@
       <c r="G64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="4">
+      <c r="H64" s="6"/>
+      <c r="I64" s="4">
         <v>144</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L64" s="6">
+      <c r="K64" s="6">
         <v>73</v>
       </c>
-      <c r="M64" s="4">
+      <c r="L64" s="4">
         <v>253</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
       <c r="F65" s="4">
         <v>61</v>
@@ -3010,27 +3042,26 @@
       <c r="G65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="6">
+      <c r="H65" s="6">
         <v>45</v>
       </c>
-      <c r="J65" s="4">
+      <c r="I65" s="4">
         <v>145</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L65" s="6">
+      <c r="K65" s="6">
         <v>74</v>
       </c>
-      <c r="M65" s="4">
+      <c r="L65" s="4">
         <v>254</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
       <c r="F66" s="4">
         <v>62</v>
@@ -3038,23 +3069,22 @@
       <c r="G66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="4">
+      <c r="H66" s="6"/>
+      <c r="I66" s="4">
         <v>146</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L66" s="6"/>
-      <c r="M66" s="4">
+      <c r="K66" s="6"/>
+      <c r="L66" s="4">
         <v>255</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
       <c r="F67" s="4">
         <v>63</v>
@@ -3062,23 +3092,22 @@
       <c r="G67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="4">
+      <c r="H67" s="6"/>
+      <c r="I67" s="4">
         <v>147</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="4">
+      <c r="K67" s="6"/>
+      <c r="L67" s="4">
         <v>256</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E68" s="6"/>
       <c r="F68" s="4">
         <v>64</v>
@@ -3086,23 +3115,22 @@
       <c r="G68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="4">
+      <c r="H68" s="6"/>
+      <c r="I68" s="4">
         <v>148</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L68" s="6"/>
-      <c r="M68" s="4">
+      <c r="K68" s="6"/>
+      <c r="L68" s="4">
         <v>257</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="M68" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E69" s="6"/>
       <c r="F69" s="4">
         <v>65</v>
@@ -3110,25 +3138,24 @@
       <c r="G69" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="6">
+      <c r="H69" s="6">
         <v>46</v>
       </c>
-      <c r="J69" s="4">
+      <c r="I69" s="4">
         <v>149</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L69" s="6"/>
-      <c r="M69" s="4">
+      <c r="K69" s="6"/>
+      <c r="L69" s="4">
         <v>258</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
       <c r="F70" s="4">
         <v>66</v>
@@ -3136,25 +3163,24 @@
       <c r="G70" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="4">
+      <c r="H70" s="6"/>
+      <c r="I70" s="4">
         <v>150</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L70" s="6">
+      <c r="K70" s="6">
         <v>75</v>
       </c>
-      <c r="M70" s="4">
+      <c r="L70" s="4">
         <v>259</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E71" s="6">
         <v>22</v>
       </c>
@@ -3164,23 +3190,22 @@
       <c r="G71" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="4">
+      <c r="H71" s="6"/>
+      <c r="I71" s="4">
         <v>151</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="4">
+      <c r="K71" s="6"/>
+      <c r="L71" s="4">
         <v>260</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E72" s="6">
         <v>23</v>
       </c>
@@ -3190,25 +3215,24 @@
       <c r="G72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="6">
+      <c r="H72" s="6">
         <v>47</v>
       </c>
-      <c r="J72" s="4">
+      <c r="I72" s="4">
         <v>152</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L72" s="6"/>
-      <c r="M72" s="4">
+      <c r="K72" s="6"/>
+      <c r="L72" s="4">
         <v>261</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E73" s="6"/>
       <c r="F73" s="4">
         <v>69</v>
@@ -3216,23 +3240,22 @@
       <c r="G73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="4">
+      <c r="H73" s="6"/>
+      <c r="I73" s="4">
         <v>153</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L73" s="6"/>
-      <c r="M73" s="4">
+      <c r="K73" s="6"/>
+      <c r="L73" s="4">
         <v>262</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E74" s="6"/>
       <c r="F74" s="4">
         <v>70</v>
@@ -3240,23 +3263,22 @@
       <c r="G74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="4">
+      <c r="H74" s="6"/>
+      <c r="I74" s="4">
         <v>154</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L74" s="6"/>
-      <c r="M74" s="4">
+      <c r="K74" s="6"/>
+      <c r="L74" s="4">
         <v>263</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
       <c r="F75" s="4">
         <v>71</v>
@@ -3264,27 +3286,26 @@
       <c r="G75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="6">
+      <c r="H75" s="6">
         <v>48</v>
       </c>
-      <c r="J75" s="4">
+      <c r="I75" s="4">
         <v>155</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L75" s="6">
+      <c r="K75" s="6">
         <v>76</v>
       </c>
-      <c r="M75" s="4">
+      <c r="L75" s="4">
         <v>264</v>
       </c>
-      <c r="N75" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
       <c r="F76" s="4">
         <v>72</v>
@@ -3292,23 +3313,22 @@
       <c r="G76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="4">
+      <c r="H76" s="6"/>
+      <c r="I76" s="4">
         <v>156</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L76" s="6"/>
-      <c r="M76" s="4">
+      <c r="K76" s="6"/>
+      <c r="L76" s="4">
         <v>265</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="M76" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E77" s="6">
         <v>24</v>
       </c>
@@ -3318,23 +3338,22 @@
       <c r="G77" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="4">
+      <c r="H77" s="6"/>
+      <c r="I77" s="4">
         <v>157</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L77" s="6"/>
-      <c r="M77" s="4">
+      <c r="K77" s="6"/>
+      <c r="L77" s="4">
         <v>266</v>
       </c>
-      <c r="N77" s="3" t="s">
+      <c r="M77" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
       <c r="F78" s="4">
         <v>74</v>
@@ -3342,25 +3361,24 @@
       <c r="G78" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="4">
+      <c r="H78" s="6"/>
+      <c r="I78" s="4">
         <v>158</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L78" s="6">
+      <c r="K78" s="6">
         <v>77</v>
       </c>
-      <c r="M78" s="4">
+      <c r="L78" s="4">
         <v>267</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E79" s="6"/>
       <c r="F79" s="4">
         <v>75</v>
@@ -3368,23 +3386,22 @@
       <c r="G79" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="4">
+      <c r="H79" s="6"/>
+      <c r="I79" s="4">
         <v>159</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L79" s="6"/>
-      <c r="M79" s="4">
+      <c r="K79" s="6"/>
+      <c r="L79" s="4">
         <v>268</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
       <c r="F80" s="4">
         <v>76</v>
@@ -3392,25 +3409,24 @@
       <c r="G80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="6">
+      <c r="H80" s="6">
         <v>49</v>
       </c>
-      <c r="J80" s="4">
+      <c r="I80" s="4">
         <v>160</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L80" s="6"/>
-      <c r="M80" s="4">
+      <c r="K80" s="6"/>
+      <c r="L80" s="4">
         <v>269</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
       <c r="F81" s="4">
         <v>77</v>
@@ -3418,25 +3434,24 @@
       <c r="G81" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="4">
+      <c r="H81" s="6"/>
+      <c r="I81" s="4">
         <v>161</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L81" s="6">
+      <c r="K81" s="6">
         <v>78</v>
       </c>
-      <c r="M81" s="4">
+      <c r="L81" s="4">
         <v>270</v>
       </c>
-      <c r="N81" s="3" t="s">
+      <c r="M81" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E82" s="6">
         <v>25</v>
       </c>
@@ -3446,25 +3461,24 @@
       <c r="G82" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="6">
+      <c r="H82" s="6">
         <v>50</v>
       </c>
-      <c r="J82" s="4">
+      <c r="I82" s="4">
         <v>162</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L82" s="6"/>
-      <c r="M82" s="4">
+      <c r="K82" s="6"/>
+      <c r="L82" s="4">
         <v>271</v>
       </c>
-      <c r="N82" s="3" t="s">
+      <c r="M82" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E83" s="6"/>
       <c r="F83" s="4">
         <v>79</v>
@@ -3472,23 +3486,22 @@
       <c r="G83" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="4">
+      <c r="H83" s="6"/>
+      <c r="I83" s="4">
         <v>163</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L83" s="6"/>
-      <c r="M83" s="4">
+      <c r="K83" s="6"/>
+      <c r="L83" s="4">
         <v>272</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E84" s="6"/>
       <c r="F84" s="4">
         <v>80</v>
@@ -3496,25 +3509,24 @@
       <c r="G84" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H84" s="2"/>
-      <c r="I84" s="6">
+      <c r="H84" s="6">
         <v>51</v>
       </c>
-      <c r="J84" s="4">
+      <c r="I84" s="4">
         <v>164</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L84" s="6"/>
-      <c r="M84" s="4">
+      <c r="K84" s="6"/>
+      <c r="L84" s="4">
         <v>273</v>
       </c>
-      <c r="N84" s="3" t="s">
+      <c r="M84" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
       <c r="F85" s="4">
         <v>81</v>
@@ -3522,23 +3534,22 @@
       <c r="G85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H85" s="2"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="4">
+      <c r="H85" s="6"/>
+      <c r="I85" s="4">
         <v>165</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L85" s="6"/>
-      <c r="M85" s="4">
+      <c r="K85" s="6"/>
+      <c r="L85" s="4">
         <v>274</v>
       </c>
-      <c r="N85" s="3" t="s">
+      <c r="M85" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
       <c r="F86" s="4">
         <v>82</v>
@@ -3546,25 +3557,24 @@
       <c r="G86" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="6">
+      <c r="H86" s="6">
         <v>52</v>
       </c>
-      <c r="J86" s="4">
+      <c r="I86" s="4">
         <v>166</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L86" s="6"/>
-      <c r="M86" s="4">
+      <c r="K86" s="6"/>
+      <c r="L86" s="4">
         <v>275</v>
       </c>
-      <c r="N86" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
       <c r="F87" s="4">
         <v>83</v>
@@ -3572,424 +3582,476 @@
       <c r="G87" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="4">
+      <c r="H87" s="6"/>
+      <c r="I87" s="4">
         <v>167</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L87" s="6">
+      <c r="K87" s="6">
         <v>79</v>
       </c>
-      <c r="M87" s="4">
+      <c r="L87" s="4">
         <v>276</v>
       </c>
-      <c r="N87" s="2" t="s">
+      <c r="M87" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I88" s="6">
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H88" s="6">
         <v>53</v>
       </c>
-      <c r="J88" s="4">
+      <c r="I88" s="4">
         <v>168</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="J88" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L88" s="6"/>
-      <c r="M88" s="4">
+      <c r="K88" s="6"/>
+      <c r="L88" s="4">
         <v>277</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I89" s="6"/>
-      <c r="J89" s="4">
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H89" s="6"/>
+      <c r="I89" s="4">
         <v>169</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L89" s="6"/>
-      <c r="M89" s="4">
+      <c r="K89" s="6"/>
+      <c r="L89" s="4">
         <v>278</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="M89" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I90" s="6"/>
-      <c r="J90" s="4">
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H90" s="6"/>
+      <c r="I90" s="4">
         <v>170</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L90" s="6"/>
-      <c r="M90" s="4">
+      <c r="K90" s="6"/>
+      <c r="L90" s="4">
         <v>279</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="M90" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I91" s="6"/>
-      <c r="J91" s="4">
+    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H91" s="6"/>
+      <c r="I91" s="4">
         <v>171</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L91" s="6">
+      <c r="K91" s="6">
         <v>80</v>
       </c>
-      <c r="M91" s="4">
+      <c r="L91" s="4">
         <v>280</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I92" s="6">
+    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H92" s="6">
         <v>54</v>
       </c>
-      <c r="J92" s="4">
+      <c r="I92" s="4">
         <v>172</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L92" s="6"/>
-      <c r="M92" s="4">
+      <c r="K92" s="6"/>
+      <c r="L92" s="4">
         <v>281</v>
       </c>
-      <c r="N92" s="3" t="s">
+      <c r="M92" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I93" s="6"/>
-      <c r="J93" s="4">
+    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H93" s="6"/>
+      <c r="I93" s="4">
         <v>173</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L93" s="6"/>
-      <c r="M93" s="4">
+      <c r="K93" s="6"/>
+      <c r="L93" s="4">
         <v>282</v>
       </c>
-      <c r="N93" s="3" t="s">
+      <c r="M93" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I94" s="6"/>
-      <c r="J94" s="4">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H94" s="6"/>
+      <c r="I94" s="4">
         <v>174</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L94" s="6"/>
-      <c r="M94" s="4">
+      <c r="K94" s="6"/>
+      <c r="L94" s="4">
         <v>283</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I95" s="6">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H95" s="6">
         <v>55</v>
       </c>
-      <c r="J95" s="4">
+      <c r="I95" s="4">
         <v>175</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L95" s="6">
+      <c r="K95" s="6">
         <v>81</v>
       </c>
-      <c r="M95" s="4">
+      <c r="L95" s="4">
         <v>284</v>
       </c>
-      <c r="N95" s="2" t="s">
+      <c r="M95" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I96" s="6"/>
-      <c r="J96" s="4">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H96" s="6"/>
+      <c r="I96" s="4">
         <v>176</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="J96" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L96" s="6"/>
-      <c r="M96" s="4">
+      <c r="K96" s="6"/>
+      <c r="L96" s="4">
         <v>285</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="M96" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I97" s="6"/>
-      <c r="J97" s="4">
+    <row r="97" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H97" s="6"/>
+      <c r="I97" s="4">
         <v>177</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L97" s="6"/>
-      <c r="M97" s="4">
+      <c r="K97" s="6"/>
+      <c r="L97" s="4">
         <v>286</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="M97" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I98" s="6"/>
-      <c r="J98" s="4">
+    <row r="98" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H98" s="6"/>
+      <c r="I98" s="4">
         <v>178</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L98" s="6">
+      <c r="K98" s="6">
         <v>82</v>
       </c>
-      <c r="M98" s="4">
+      <c r="L98" s="4">
         <v>287</v>
       </c>
-      <c r="N98" s="3" t="s">
+      <c r="M98" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I99" s="6"/>
-      <c r="J99" s="4">
+    <row r="99" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H99" s="6"/>
+      <c r="I99" s="4">
         <v>179</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L99" s="6"/>
-      <c r="M99" s="4">
+      <c r="K99" s="6"/>
+      <c r="L99" s="4">
         <v>288</v>
       </c>
-      <c r="N99" s="3" t="s">
+      <c r="M99" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="100" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I100" s="6"/>
-      <c r="J100" s="4">
+    <row r="100" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H100" s="6"/>
+      <c r="I100" s="4">
         <v>180</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L100" s="6"/>
-      <c r="M100" s="4">
+      <c r="K100" s="6"/>
+      <c r="L100" s="4">
         <v>289</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I101" s="6">
+    <row r="101" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H101" s="6">
         <v>56</v>
       </c>
-      <c r="J101" s="4">
+      <c r="I101" s="4">
         <v>181</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L101" s="6">
+      <c r="K101" s="6">
         <v>83</v>
       </c>
-      <c r="M101" s="4">
+      <c r="L101" s="4">
         <v>290</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="M101" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I102" s="6"/>
-      <c r="J102" s="4">
+    <row r="102" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H102" s="6"/>
+      <c r="I102" s="4">
         <v>182</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L102" s="6"/>
-      <c r="M102" s="4">
+      <c r="K102" s="6"/>
+      <c r="L102" s="4">
         <v>291</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="M102" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I103" s="6"/>
-      <c r="J103" s="4">
+    <row r="103" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H103" s="6"/>
+      <c r="I103" s="4">
         <v>183</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L103" s="6"/>
-      <c r="M103" s="4">
+      <c r="K103" s="6"/>
+      <c r="L103" s="4">
         <v>292</v>
       </c>
-      <c r="N103" s="2" t="s">
+      <c r="M103" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="104" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I104" s="6"/>
-      <c r="J104" s="4">
+    <row r="104" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H104" s="6"/>
+      <c r="I104" s="4">
         <v>184</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="L104" s="6"/>
-      <c r="M104" s="4">
+      <c r="K104" s="6"/>
+      <c r="L104" s="4">
         <v>293</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="M104" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I105" s="6">
+    <row r="105" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H105" s="6">
         <v>57</v>
       </c>
-      <c r="J105" s="4">
+      <c r="I105" s="4">
         <v>185</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L105" s="6"/>
-      <c r="M105" s="4">
+      <c r="K105" s="6"/>
+      <c r="L105" s="4">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I106" s="6"/>
-      <c r="J106" s="4">
+    <row r="106" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H106" s="6"/>
+      <c r="I106" s="4">
         <v>186</v>
       </c>
-      <c r="K106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L106" s="6"/>
-      <c r="M106" s="4">
+      <c r="K106" s="6"/>
+      <c r="L106" s="4">
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I107" s="6"/>
-      <c r="J107" s="4">
+    <row r="107" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H107" s="6"/>
+      <c r="I107" s="4">
         <v>187</v>
       </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L107" s="6"/>
-      <c r="M107" s="4">
+      <c r="K107" s="6"/>
+      <c r="L107" s="4">
         <v>296</v>
       </c>
     </row>
-    <row r="108" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I108" s="6"/>
-      <c r="J108" s="4">
+    <row r="108" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H108" s="6"/>
+      <c r="I108" s="4">
         <v>188</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="J108" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L108" s="6"/>
-      <c r="M108" s="4">
+      <c r="K108" s="6"/>
+      <c r="L108" s="4">
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I109" s="6"/>
-      <c r="J109" s="4">
+    <row r="109" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H109" s="6"/>
+      <c r="I109" s="4">
         <v>189</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L109" s="6"/>
-      <c r="M109" s="4">
+      <c r="K109" s="6"/>
+      <c r="L109" s="4">
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I110" s="6"/>
-      <c r="J110" s="4">
+    <row r="110" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H110" s="6"/>
+      <c r="I110" s="4">
         <v>190</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L110" s="6"/>
-      <c r="M110" s="4">
+      <c r="K110" s="6"/>
+      <c r="L110" s="4">
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I111" s="6"/>
-      <c r="J111" s="4">
+    <row r="111" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H111" s="6"/>
+      <c r="I111" s="4">
         <v>191</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="J111" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L111" s="6"/>
-      <c r="M111" s="4">
+      <c r="K111" s="6"/>
+      <c r="L111" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I112" s="6"/>
-      <c r="J112" s="4">
+    <row r="112" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H112" s="6"/>
+      <c r="I112" s="4">
         <v>192</v>
       </c>
-      <c r="K112" s="3" t="s">
+      <c r="J112" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L112" s="6"/>
-      <c r="M112" s="4">
+      <c r="K112" s="6"/>
+      <c r="L112" s="4">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q21" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0" xr:uid="{0AF0D7CC-5A13-4890-AFF0-80028C34D498}"/>
-    <hyperlink ref="Q20" r:id="rId2" xr:uid="{517C4127-C910-4558-962A-AFB951676BAB}"/>
+    <hyperlink ref="P21" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0"/>
+    <hyperlink ref="P20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="12">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="12">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="12">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1339,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1553,7 @@
       <c r="Q7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -4008,7 +4007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="284">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -514,9 +514,6 @@
     <t>Entregar Aliança</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>Rogerio X Dorca</t>
   </si>
   <si>
@@ -655,9 +652,6 @@
     <t>Rogerio X Marcia</t>
   </si>
   <si>
-    <t>Sandra X Randerson</t>
-  </si>
-  <si>
     <t>Dora</t>
   </si>
   <si>
@@ -905,6 +899,21 @@
   </si>
   <si>
     <t>Doces</t>
+  </si>
+  <si>
+    <t>Pais do Noivo</t>
+  </si>
+  <si>
+    <t>Ana e Daniel</t>
+  </si>
+  <si>
+    <t>Sabrina X Randerson</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Daniel Lincon</t>
   </si>
 </sst>
 </file>
@@ -982,7 +991,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1028,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1034,7 +1055,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1054,6 +1075,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1062,6 +1085,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8FFF"/>
+      <color rgb="FF990099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1338,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,51 +1395,48 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="9" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L3" s="4"/>
       <c r="P3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>265</v>
+      <c r="B4" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>18</v>
@@ -1431,28 +1457,22 @@
         <v>193</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="1" t="s">
@@ -1470,18 +1490,15 @@
         <v>194</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
@@ -1504,27 +1521,30 @@
         <v>195</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>146</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="4">
@@ -1545,27 +1565,30 @@
         <v>196</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>74</v>
+      <c r="S7" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="4">
@@ -1590,24 +1613,27 @@
         <v>197</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1630,21 +1656,21 @@
         <v>198</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="E10" s="6">
         <v>4</v>
@@ -1667,18 +1693,18 @@
         <v>199</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>197</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="4">
@@ -1699,15 +1725,21 @@
         <v>200</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>267</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="E12" s="6">
         <v>5</v>
@@ -1725,17 +1757,23 @@
         <v>92</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="4">
         <v>201</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="E13" s="6">
         <v>6</v>
       </c>
@@ -1759,10 +1797,16 @@
         <v>202</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4">
         <v>10</v>
@@ -1786,6 +1830,12 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="4">
         <v>11</v>
@@ -1825,7 +1875,7 @@
         <v>96</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K16" s="6">
         <v>61</v>
@@ -1935,10 +1985,10 @@
         <v>103</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
@@ -1964,10 +2014,10 @@
         <v>64</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
@@ -2135,7 +2185,7 @@
         <v>108</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="4">
@@ -2158,7 +2208,7 @@
         <v>109</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="4">
@@ -2181,7 +2231,7 @@
         <v>110</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K30" s="6">
         <v>64</v>
@@ -2190,7 +2240,7 @@
         <v>219</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
@@ -2213,7 +2263,7 @@
         <v>220</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
@@ -2263,7 +2313,7 @@
         <v>222</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.25">
@@ -2315,7 +2365,7 @@
         <v>224</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.25">
@@ -2338,7 +2388,7 @@
         <v>225</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.25">
@@ -2361,7 +2411,7 @@
         <v>226</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.25">
@@ -2413,7 +2463,7 @@
         <v>228</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.25">
@@ -2431,14 +2481,14 @@
         <v>120</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="4">
         <v>229</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.25">
@@ -2461,7 +2511,7 @@
         <v>230</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.25">
@@ -2486,7 +2536,7 @@
         <v>231</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.25">
@@ -2513,7 +2563,7 @@
         <v>232</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.25">
@@ -2536,7 +2586,7 @@
         <v>233</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.25">
@@ -2561,7 +2611,7 @@
         <v>234</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.25">
@@ -2579,14 +2629,14 @@
         <v>126</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="4">
         <v>235</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.25">
@@ -2611,7 +2661,7 @@
         <v>236</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.25">
@@ -2636,7 +2686,7 @@
         <v>237</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="5:13" x14ac:dyDescent="0.25">
@@ -2652,7 +2702,7 @@
         <v>129</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K49" s="6">
         <v>69</v>
@@ -2684,7 +2734,7 @@
         <v>239</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
@@ -2711,7 +2761,7 @@
         <v>240</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
@@ -2734,7 +2784,7 @@
         <v>241</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
@@ -2759,7 +2809,7 @@
         <v>242</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.25">
@@ -2782,7 +2832,7 @@
         <v>243</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="5:13" x14ac:dyDescent="0.25">
@@ -2805,7 +2855,7 @@
         <v>244</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="5:13" x14ac:dyDescent="0.25">
@@ -2830,7 +2880,7 @@
         <v>245</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="5:13" x14ac:dyDescent="0.25">
@@ -2857,7 +2907,7 @@
         <v>246</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="5:13" x14ac:dyDescent="0.25">
@@ -2880,7 +2930,7 @@
         <v>247</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="5:13" x14ac:dyDescent="0.25">
@@ -2905,7 +2955,7 @@
         <v>248</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="5:13" x14ac:dyDescent="0.25">
@@ -2932,7 +2982,7 @@
         <v>249</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="5:13" x14ac:dyDescent="0.25">
@@ -2957,7 +3007,7 @@
         <v>250</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
@@ -2980,7 +3030,7 @@
         <v>251</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="5:13" x14ac:dyDescent="0.25">
@@ -3005,7 +3055,7 @@
         <v>252</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.25">
@@ -3021,7 +3071,7 @@
         <v>144</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K64" s="6">
         <v>73</v>
@@ -3057,7 +3107,7 @@
         <v>254</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="5:13" x14ac:dyDescent="0.25">
@@ -3080,7 +3130,7 @@
         <v>255</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="5:13" x14ac:dyDescent="0.25">
@@ -3103,7 +3153,7 @@
         <v>256</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="5:13" x14ac:dyDescent="0.25">
@@ -3126,7 +3176,7 @@
         <v>257</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="5:13" x14ac:dyDescent="0.25">
@@ -3151,7 +3201,7 @@
         <v>258</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="5:13" x14ac:dyDescent="0.25">
@@ -3176,7 +3226,7 @@
         <v>259</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="5:13" x14ac:dyDescent="0.25">
@@ -3201,7 +3251,7 @@
         <v>260</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="5:13" x14ac:dyDescent="0.25">
@@ -3228,7 +3278,7 @@
         <v>261</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="5:13" x14ac:dyDescent="0.25">
@@ -3244,14 +3294,14 @@
         <v>153</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="4">
         <v>262</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="5:13" x14ac:dyDescent="0.25">
@@ -3274,7 +3324,7 @@
         <v>263</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="5:13" x14ac:dyDescent="0.25">
@@ -3324,7 +3374,7 @@
         <v>265</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="5:13" x14ac:dyDescent="0.25">
@@ -3349,7 +3399,7 @@
         <v>266</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="5:13" x14ac:dyDescent="0.25">
@@ -3374,7 +3424,7 @@
         <v>267</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="5:13" x14ac:dyDescent="0.25">
@@ -3397,7 +3447,7 @@
         <v>268</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="5:13" x14ac:dyDescent="0.25">
@@ -3422,7 +3472,7 @@
         <v>269</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.25">
@@ -3447,7 +3497,7 @@
         <v>270</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="5:13" x14ac:dyDescent="0.25">
@@ -3474,7 +3524,7 @@
         <v>271</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.25">
@@ -3497,7 +3547,7 @@
         <v>272</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="5:13" x14ac:dyDescent="0.25">
@@ -3522,7 +3572,7 @@
         <v>273</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="5:13" x14ac:dyDescent="0.25">
@@ -3545,7 +3595,7 @@
         <v>274</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="5:13" x14ac:dyDescent="0.25">
@@ -3554,7 +3604,7 @@
         <v>82</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H86" s="6">
         <v>52</v>
@@ -3570,7 +3620,7 @@
         <v>275</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="5:13" x14ac:dyDescent="0.25">
@@ -3579,7 +3629,7 @@
         <v>83</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="4">
@@ -3595,7 +3645,7 @@
         <v>276</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="5:13" x14ac:dyDescent="0.25">
@@ -3606,14 +3656,14 @@
         <v>168</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="4">
         <v>277</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="5:13" x14ac:dyDescent="0.25">
@@ -3622,14 +3672,14 @@
         <v>169</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="4">
         <v>278</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="5:13" x14ac:dyDescent="0.25">
@@ -3645,7 +3695,7 @@
         <v>279</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="5:13" x14ac:dyDescent="0.25">
@@ -3663,7 +3713,7 @@
         <v>280</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="5:13" x14ac:dyDescent="0.25">
@@ -3681,7 +3731,7 @@
         <v>281</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="5:13" x14ac:dyDescent="0.25">
@@ -3697,7 +3747,7 @@
         <v>282</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="5:13" x14ac:dyDescent="0.25">
@@ -3713,7 +3763,7 @@
         <v>283</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="5:13" x14ac:dyDescent="0.25">
@@ -3724,7 +3774,7 @@
         <v>175</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K95" s="6">
         <v>81</v>
@@ -3733,7 +3783,7 @@
         <v>284</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="5:13" x14ac:dyDescent="0.25">
@@ -3749,7 +3799,7 @@
         <v>285</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="8:13" x14ac:dyDescent="0.25">
@@ -3765,7 +3815,7 @@
         <v>286</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="8:13" x14ac:dyDescent="0.25">
@@ -3783,7 +3833,7 @@
         <v>287</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="8:13" x14ac:dyDescent="0.25">
@@ -3799,7 +3849,7 @@
         <v>288</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="8:13" x14ac:dyDescent="0.25">
@@ -3815,7 +3865,7 @@
         <v>289</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="8:13" x14ac:dyDescent="0.25">
@@ -3826,7 +3876,7 @@
         <v>181</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K101" s="6">
         <v>83</v>
@@ -3835,7 +3885,7 @@
         <v>290</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="8:13" x14ac:dyDescent="0.25">
@@ -3851,7 +3901,7 @@
         <v>291</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="8:13" x14ac:dyDescent="0.25">
@@ -3860,14 +3910,14 @@
         <v>183</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="4">
         <v>292</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="8:13" x14ac:dyDescent="0.25">
@@ -3876,14 +3926,14 @@
         <v>184</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="4">
         <v>293</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="8:13" x14ac:dyDescent="0.25">
@@ -3894,7 +3944,7 @@
         <v>185</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K105" s="6"/>
       <c r="L105" s="4">
@@ -3920,7 +3970,7 @@
         <v>187</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="4">
@@ -3946,7 +3996,7 @@
         <v>189</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="4">
@@ -3959,7 +4009,7 @@
         <v>190</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="4">
@@ -3972,7 +4022,7 @@
         <v>191</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K111" s="6"/>
       <c r="L111" s="4">
@@ -4008,7 +4058,7 @@
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B3" sqref="B3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4019,7 +4069,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3" s="12">
         <v>30</v>
@@ -4030,7 +4080,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="12">
         <v>50</v>
@@ -4041,7 +4091,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" s="12">
         <v>35</v>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D487F50D-AAB3-456E-A7C3-080FD014EF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alisson</author>
   </authors>
   <commentList>
-    <comment ref="O21" authorId="0" shapeId="0">
+    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="283">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -884,9 +885,6 @@
   </si>
   <si>
     <t xml:space="preserve">41 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 - </t>
   </si>
   <si>
     <t>1º</t>
@@ -919,7 +917,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1364,11 +1362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:S112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1393,7 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>266</v>
@@ -1430,13 +1428,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>18</v>
@@ -1544,7 +1542,7 @@
         <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="4">
@@ -1588,7 +1586,7 @@
         <v>263</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="4">
@@ -1633,7 +1631,7 @@
         <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1667,10 +1665,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="E10" s="6">
         <v>4</v>
@@ -1728,7 +1726,7 @@
         <v>174</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1739,7 +1737,7 @@
         <v>264</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E12" s="6">
         <v>5</v>
@@ -1984,8 +1982,8 @@
       <c r="M20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>274</v>
+      <c r="O20" s="1">
+        <v>150</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>267</v>
@@ -4044,8 +4042,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P21" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0"/>
-    <hyperlink ref="P20" r:id="rId2"/>
+    <hyperlink ref="P21" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4054,7 +4052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4069,7 +4067,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="12">
         <v>30</v>
@@ -4080,7 +4078,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="12">
         <v>50</v>
@@ -4091,7 +4089,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="12">
         <v>35</v>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D487F50D-AAB3-456E-A7C3-080FD014EF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Alisson</author>
   </authors>
   <commentList>
-    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="O21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="283">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -908,16 +907,16 @@
     <t>Sabrina X Randerson</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Daniel Lincon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tia  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1028,13 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFAFE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8FFF"/>
+        <fgColor rgb="FFAFAFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,7 +1052,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1075,6 +1074,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1085,8 +1087,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFAFAFFF"/>
+      <color rgb="FF3333FF"/>
+      <color rgb="FFFFAFE6"/>
+      <color rgb="FFD60093"/>
+      <color rgb="FF990099"/>
+      <color rgb="FF0066FF"/>
+      <color rgb="FFCC00CC"/>
       <color rgb="FFFF8FFF"/>
-      <color rgb="FF990099"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1362,11 +1370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,10 +1547,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="4">
@@ -1583,10 +1588,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="4">
@@ -1616,10 +1618,10 @@
       <c r="P8" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1628,10 +1630,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1665,10 +1664,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="E10" s="6">
         <v>4</v>
@@ -1702,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="4">
@@ -1725,8 +1721,8 @@
       <c r="M11" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>282</v>
+      <c r="P11" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1734,10 +1730,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="E12" s="6">
         <v>5</v>
@@ -1770,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E13" s="6">
         <v>6</v>
@@ -1803,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4">
@@ -1832,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="4">
@@ -1859,6 +1852,12 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="4">
         <v>12</v>
@@ -1982,7 +1981,7 @@
       <c r="M20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="15">
         <v>150</v>
       </c>
       <c r="P20" s="8" t="s">
@@ -4042,8 +4041,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P21" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P21" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0"/>
+    <hyperlink ref="P20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4052,7 +4051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -24,45 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Alisson</author>
-  </authors>
-  <commentList>
-    <comment ref="O21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alisson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13 Padrinhos
-  4 Pessoas que ajudaram(Ricardo, Leticia, Elizani, Dono do Sitio)
-Suellen:
-24 Ao todo</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="281">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -865,12 +828,6 @@
     <t>Familias</t>
   </si>
   <si>
-    <t>Lembrancinha Convidados</t>
-  </si>
-  <si>
-    <t>Lembrancinha Padrinhos</t>
-  </si>
-  <si>
     <t>Pedro Henrique</t>
   </si>
   <si>
@@ -883,9 +840,6 @@
     <t>Kayque Silva</t>
   </si>
   <si>
-    <t xml:space="preserve">41 - </t>
-  </si>
-  <si>
     <t>1º</t>
   </si>
   <si>
@@ -910,7 +864,10 @@
     <t>Daniel Lincon</t>
   </si>
   <si>
-    <t xml:space="preserve">Tia  </t>
+    <t>Tia  Valeria x Esposo</t>
+  </si>
+  <si>
+    <t>Samuel Lopes</t>
   </si>
 </sst>
 </file>
@@ -920,7 +877,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,19 +923,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1050,7 +994,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1370,11 +1314,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1345,7 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>266</v>
@@ -1436,13 +1380,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>18</v>
@@ -1571,7 +1515,7 @@
         <v>170</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>95</v>
@@ -1616,7 +1560,7 @@
         <v>171</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>179</v>
@@ -1630,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1656,7 +1600,7 @@
         <v>172</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1690,7 +1634,7 @@
         <v>173</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1722,7 +1666,7 @@
         <v>174</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1757,6 +1701,9 @@
       <c r="M12" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="P12" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1825,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="4">
@@ -1981,12 +1928,8 @@
       <c r="M20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="15">
-        <v>150</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>267</v>
-      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
@@ -2010,12 +1953,7 @@
       <c r="M21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>268</v>
-      </c>
+      <c r="P21" s="8"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
@@ -4040,13 +3978,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P21" r:id="rId1" location="suf=0&amp;dcc=0&amp;smc=1&amp;fsfv=0&amp;wch=0&amp;sbc=1&amp;wcld=1&amp;inp=0&amp;pssb=0&amp;dtm1=0&amp;rch=1&amp;dvsbs=1&amp;sei=0&amp;sms=0&amp;dtm2=1&amp;sdps=0&amp;hpa=0&amp;ufa=1&amp;ucrq=1&amp;ps2=1&amp;dqs=1&amp;vpl=1&amp;secpl=0&amp;wppbd=0&amp;wsld=1&amp;utp=0&amp;drzv=1&amp;dsrb=1&amp;uje=0&amp;carf=1&amp;lvbbpm=1&amp;sgta=1&amp;sed=0&amp;cpr=0&amp;wppbm=0&amp;csdm=0&amp;dhbc=0&amp;osrl=0&amp;hsv=1&amp;cscws=0&amp;uso=m&amp;supc=1&amp;dsrt=1&amp;droam=0&amp;psews=0&amp;sseov=0&amp;dvbc=1&amp;dwhc=1&amp;lpfcm=1&amp;sedk=1&amp;osrlt7=0&amp;spc=1&amp;srm=1&amp;staa=0&amp;oppb=0&amp;ses=1&amp;idfs=1&amp;usb=0&amp;pcpe=1&amp;prt=0&amp;pnt=1&amp;df=d&amp;smsm=0&amp;paok=1&amp;hsotb=0&amp;sewb=1&amp;dld=1&amp;auto=1&amp;wpm=0&amp;sum=0&amp;rps=0&amp;cat=1&amp;doar=0&amp;sep=1&amp;eesoi=0&amp;disc=1&amp;sew=0&amp;psedm=0&amp;vsbs=1&amp;deac=0&amp;uaa=0&amp;lvbbob=0&amp;smps=0&amp;accb=0&amp;uar=0"/>
-    <hyperlink ref="P20" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4066,7 +3999,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C3" s="12">
         <v>30</v>
@@ -4077,7 +4010,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C4" s="12">
         <v>50</v>
@@ -4088,7 +4021,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C5" s="12">
         <v>35</v>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27430731-DEE5-4868-AF3A-A7B6C5769C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="283">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -868,12 +869,18 @@
   </si>
   <si>
     <t>Samuel Lopes</t>
+  </si>
+  <si>
+    <t>Ir João</t>
+  </si>
+  <si>
+    <t>Irmã Telma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1314,11 +1321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:S112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="Q101" sqref="Q101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,6 +3892,9 @@
       <c r="L105" s="4">
         <v>294</v>
       </c>
+      <c r="M105" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="106" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H106" s="6"/>
@@ -3898,6 +3908,9 @@
       <c r="L106" s="4">
         <v>295</v>
       </c>
+      <c r="M106" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="107" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H107" s="6"/>
@@ -3910,6 +3923,9 @@
       <c r="K107" s="6"/>
       <c r="L107" s="4">
         <v>296</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="8:13" x14ac:dyDescent="0.25">
@@ -3984,7 +4000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27430731-DEE5-4868-AF3A-A7B6C5769C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F298CF30-FDDA-44D9-8A49-BF8BF6143F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="282">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>Maria</t>
-  </si>
-  <si>
-    <t>Irmão do Gustavo</t>
   </si>
   <si>
     <t>Julio</t>
@@ -939,7 +936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,6 +985,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1003,7 +1006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1028,6 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1325,7 +1329,7 @@
   <dimension ref="A3:S112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+      <selection activeCell="R93" sqref="R93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,34 +1356,34 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="9" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L3" s="4"/>
       <c r="P3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>149</v>
@@ -1387,13 +1391,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>18</v>
@@ -1401,7 +1405,7 @@
       <c r="H4" s="6">
         <v>26</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>84</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1410,11 +1414,11 @@
       <c r="K4" s="6">
         <v>58</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>193</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>96</v>
@@ -1436,21 +1440,21 @@
         <v>5</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>85</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>194</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1460,21 +1464,21 @@
       <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>86</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>195</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1484,13 +1488,13 @@
         <v>146</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1498,31 +1502,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>87</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>196</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>95</v>
@@ -1542,7 +1546,7 @@
         <v>150</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1551,7 +1555,7 @@
       <c r="H8" s="6">
         <v>27</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1560,17 +1564,17 @@
       <c r="K8" s="6">
         <v>59</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>197</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>102</v>
@@ -1581,33 +1585,33 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>5</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>89</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>198</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1620,28 +1624,28 @@
       <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>6</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>90</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="16" t="s">
         <v>69</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>199</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1649,31 +1653,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>91</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>200</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1681,12 +1685,12 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1695,21 +1699,21 @@
       <c r="H12" s="6">
         <v>28</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>92</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>201</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1722,14 +1726,14 @@
       <c r="E13" s="6">
         <v>6</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1738,11 +1742,11 @@
       <c r="K13" s="6">
         <v>60</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>202</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>176</v>
+      <c r="M13" s="16" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1753,24 +1757,24 @@
         <v>151</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>94</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>203</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1779,10 +1783,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -1791,17 +1795,17 @@
       <c r="H15" s="6">
         <v>29</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>95</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>75</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>204</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1810,10 +1814,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1822,16 +1826,16 @@
       <c r="H16" s="6">
         <v>30</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>96</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K16" s="6">
         <v>61</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>205</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -1842,21 +1846,21 @@
       <c r="E17" s="6">
         <v>7</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>97</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>206</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -1865,21 +1869,21 @@
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>98</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>207</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -1890,7 +1894,7 @@
       <c r="E19" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>15</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1899,14 +1903,14 @@
       <c r="H19" s="6">
         <v>31</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>99</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>93</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <v>208</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -1915,21 +1919,21 @@
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E20" s="6"/>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>16</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>100</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>209</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -1940,21 +1944,21 @@
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>17</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>101</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>210</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -1964,7 +1968,7 @@
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>18</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -1973,14 +1977,14 @@
       <c r="H22" s="6">
         <v>32</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>102</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>211</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -1991,14 +1995,14 @@
       <c r="E23" s="6">
         <v>9</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>103</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -2007,7 +2011,7 @@
       <c r="K23" s="6">
         <v>62</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>212</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -2016,21 +2020,21 @@
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>104</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>98</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>213</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -2039,21 +2043,21 @@
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>21</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>105</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>99</v>
       </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>214</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2064,21 +2068,21 @@
       <c r="E26" s="6">
         <v>10</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>22</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>106</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>215</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2087,14 +2091,14 @@
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>23</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>107</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -2103,10 +2107,10 @@
       <c r="K27" s="6">
         <v>63</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="2">
         <v>216</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="16" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2114,71 +2118,71 @@
       <c r="E28" s="6">
         <v>11</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>24</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="6">
         <v>34</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>108</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <v>217</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E29" s="6"/>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>25</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>109</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K29" s="6"/>
-      <c r="L29" s="4">
+      <c r="L29" s="2">
         <v>218</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>26</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>110</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K30" s="6">
         <v>64</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>219</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -2187,21 +2191,21 @@
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>27</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="16" t="s">
         <v>82</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="4">
+      <c r="I31" s="2">
         <v>111</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="6"/>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>220</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -2210,21 +2214,21 @@
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>28</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="4">
+      <c r="I32" s="2">
         <v>112</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="K32" s="6"/>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>221</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -2235,7 +2239,7 @@
       <c r="E33" s="6">
         <v>12</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>29</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -2244,14 +2248,14 @@
       <c r="H33" s="6">
         <v>35</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>113</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <v>222</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -2260,21 +2264,21 @@
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>30</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>114</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>106</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <v>223</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2285,7 +2289,7 @@
       <c r="E35" s="6">
         <v>13</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>31</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2294,7 +2298,7 @@
       <c r="H35" s="6">
         <v>36</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="2">
         <v>115</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -2303,62 +2307,62 @@
       <c r="K35" s="6">
         <v>65</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="2">
         <v>224</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>32</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="4">
+      <c r="I36" s="2">
         <v>116</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>100</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="4">
+      <c r="L36" s="2">
         <v>225</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>33</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="4">
+      <c r="I37" s="2">
         <v>117</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="4">
+      <c r="L37" s="2">
         <v>226</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>34</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2367,16 +2371,16 @@
       <c r="H38" s="6">
         <v>37</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>118</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="16" t="s">
         <v>108</v>
       </c>
       <c r="K38" s="6">
         <v>66</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <v>227</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -2387,30 +2391,30 @@
       <c r="E39" s="6">
         <v>14</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>35</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>119</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="16" t="s">
         <v>109</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
         <v>228</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>36</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -2419,53 +2423,53 @@
       <c r="H40" s="6">
         <v>38</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="2">
         <v>120</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="4">
+      <c r="L40" s="3">
         <v>229</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>37</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="4">
+      <c r="I41" s="2">
         <v>121</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="4">
+      <c r="L41" s="3">
         <v>230</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>38</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="4">
+      <c r="I42" s="2">
         <v>122</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -2474,18 +2478,18 @@
       <c r="K42" s="6">
         <v>67</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="2">
         <v>231</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E43" s="6">
         <v>15</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="2">
         <v>39</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2494,53 +2498,53 @@
       <c r="H43" s="6">
         <v>39</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>123</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="4">
+      <c r="L43" s="2">
         <v>232</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>40</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>124</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>110</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="4">
+      <c r="L44" s="2">
         <v>233</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>41</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>125</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -2549,16 +2553,16 @@
       <c r="K45" s="6">
         <v>68</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="3">
         <v>234</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>42</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2567,48 +2571,48 @@
       <c r="H46" s="6">
         <v>40</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="2">
         <v>126</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>158</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="4">
+      <c r="L46" s="3">
         <v>235</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E47" s="6">
         <v>16</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>43</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="4">
+      <c r="I47" s="2">
         <v>127</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="4">
+      <c r="L47" s="3">
         <v>236</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E48" s="6"/>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>44</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -2617,39 +2621,39 @@
       <c r="H48" s="6">
         <v>41</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>128</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>128</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="4">
+      <c r="L48" s="3">
         <v>237</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E49" s="6"/>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>45</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>129</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K49" s="6">
         <v>69</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="2">
         <v>238</v>
       </c>
       <c r="M49" s="2" t="s">
@@ -2658,32 +2662,32 @@
     </row>
     <row r="50" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>46</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>130</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>129</v>
       </c>
       <c r="K50" s="6"/>
-      <c r="L50" s="4">
+      <c r="L50" s="2">
         <v>239</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E51" s="6">
         <v>17</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>47</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -2692,53 +2696,53 @@
       <c r="H51" s="6">
         <v>42</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="2">
         <v>131</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K51" s="6"/>
-      <c r="L51" s="4">
+      <c r="L51" s="2">
         <v>240</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <v>48</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="4">
+      <c r="I52" s="2">
         <v>132</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>112</v>
       </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="4">
+      <c r="L52" s="2">
         <v>241</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E53" s="6"/>
-      <c r="F53" s="4">
+      <c r="F53" s="2">
         <v>49</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="4">
+      <c r="I53" s="2">
         <v>133</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -2747,62 +2751,62 @@
       <c r="K53" s="6">
         <v>70</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="3">
         <v>242</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E54" s="6"/>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <v>50</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="4">
+      <c r="I54" s="2">
         <v>134</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K54" s="6"/>
-      <c r="L54" s="4">
+      <c r="L54" s="3">
         <v>243</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="4">
+      <c r="I55" s="2">
         <v>135</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K55" s="6"/>
-      <c r="L55" s="4">
+      <c r="L55" s="3">
         <v>244</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>52</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -2811,32 +2815,32 @@
       <c r="H56" s="6">
         <v>43</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="3">
         <v>136</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>113</v>
       </c>
       <c r="K56" s="6"/>
-      <c r="L56" s="4">
+      <c r="L56" s="3">
         <v>245</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <v>18</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>53</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="16" t="s">
         <v>51</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>137</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -2845,73 +2849,73 @@
       <c r="K57" s="6">
         <v>71</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="2">
         <v>246</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E58" s="6"/>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>54</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="4">
+      <c r="I58" s="3">
         <v>138</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>115</v>
       </c>
       <c r="K58" s="6"/>
-      <c r="L58" s="4">
+      <c r="L58" s="2">
         <v>247</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <v>19</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="2">
         <v>55</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="4">
+      <c r="I59" s="3">
         <v>139</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>116</v>
       </c>
       <c r="K59" s="6"/>
-      <c r="L59" s="4">
+      <c r="L59" s="2">
         <v>248</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
-      <c r="F60" s="4">
+      <c r="F60" s="2">
         <v>56</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="16" t="s">
         <v>45</v>
       </c>
       <c r="H60" s="6">
         <v>44</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="2">
         <v>140</v>
       </c>
       <c r="J60" s="2" t="s">
@@ -2920,105 +2924,105 @@
       <c r="K60" s="6">
         <v>72</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="3">
         <v>249</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
         <v>20</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <v>57</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H61" s="6"/>
-      <c r="I61" s="4">
+      <c r="I61" s="2">
         <v>141</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>118</v>
       </c>
       <c r="K61" s="6"/>
-      <c r="L61" s="4">
+      <c r="L61" s="3">
         <v>250</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>58</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="4">
+      <c r="I62" s="2">
         <v>142</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>114</v>
       </c>
       <c r="K62" s="6"/>
-      <c r="L62" s="4">
+      <c r="L62" s="3">
         <v>251</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <v>21</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="2">
         <v>59</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="16" t="s">
         <v>48</v>
       </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="4">
+      <c r="I63" s="2">
         <v>143</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>119</v>
       </c>
       <c r="K63" s="6"/>
-      <c r="L63" s="4">
+      <c r="L63" s="3">
         <v>252</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E64" s="6"/>
-      <c r="F64" s="4">
+      <c r="F64" s="2">
         <v>60</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="4">
+      <c r="I64" s="2">
         <v>144</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K64" s="6">
         <v>73</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="2">
         <v>253</v>
       </c>
       <c r="M64" s="2" t="s">
@@ -3027,16 +3031,16 @@
     </row>
     <row r="65" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
-      <c r="F65" s="4">
+      <c r="F65" s="2">
         <v>61</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H65" s="6">
         <v>45</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="3">
         <v>145</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -3045,85 +3049,85 @@
       <c r="K65" s="6">
         <v>74</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="3">
         <v>254</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
-      <c r="F66" s="4">
+      <c r="F66" s="2">
         <v>62</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="16" t="s">
         <v>86</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="4">
+      <c r="I66" s="3">
         <v>146</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>121</v>
       </c>
       <c r="K66" s="6"/>
-      <c r="L66" s="4">
+      <c r="L66" s="3">
         <v>255</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
-      <c r="F67" s="4">
+      <c r="F67" s="2">
         <v>63</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="4">
+      <c r="I67" s="3">
         <v>147</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>83</v>
       </c>
       <c r="K67" s="6"/>
-      <c r="L67" s="4">
+      <c r="L67" s="3">
         <v>256</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E68" s="6"/>
-      <c r="F68" s="4">
+      <c r="F68" s="2">
         <v>64</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="16" t="s">
         <v>55</v>
       </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="4">
+      <c r="I68" s="3">
         <v>148</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>122</v>
       </c>
       <c r="K68" s="6"/>
-      <c r="L68" s="4">
+      <c r="L68" s="3">
         <v>257</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E69" s="6"/>
-      <c r="F69" s="4">
+      <c r="F69" s="2">
         <v>65</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -3132,30 +3136,30 @@
       <c r="H69" s="6">
         <v>46</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="2">
         <v>149</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>123</v>
       </c>
       <c r="K69" s="6"/>
-      <c r="L69" s="4">
+      <c r="L69" s="3">
         <v>258</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
-      <c r="F70" s="4">
+      <c r="F70" s="2">
         <v>66</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="4">
+      <c r="I70" s="2">
         <v>150</v>
       </c>
       <c r="J70" s="2" t="s">
@@ -3164,123 +3168,123 @@
       <c r="K70" s="6">
         <v>75</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="2">
         <v>259</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E71" s="6">
         <v>22</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>67</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H71" s="6"/>
-      <c r="I71" s="4">
+      <c r="I71" s="2">
         <v>151</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K71" s="6"/>
-      <c r="L71" s="4">
+      <c r="L71" s="2">
         <v>260</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E72" s="6">
         <v>23</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="2">
         <v>68</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H72" s="6">
         <v>47</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="3">
         <v>152</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>125</v>
       </c>
       <c r="K72" s="6"/>
-      <c r="L72" s="4">
+      <c r="L72" s="2">
         <v>261</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E73" s="6"/>
-      <c r="F73" s="4">
+      <c r="F73" s="2">
         <v>69</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="4">
+      <c r="I73" s="3">
         <v>153</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K73" s="6"/>
-      <c r="L73" s="4">
+      <c r="L73" s="2">
         <v>262</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E74" s="6"/>
-      <c r="F74" s="4">
+      <c r="F74" s="2">
         <v>70</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="4">
+      <c r="I74" s="3">
         <v>154</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K74" s="6"/>
-      <c r="L74" s="4">
+      <c r="L74" s="2">
         <v>263</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
-      <c r="F75" s="4">
+      <c r="F75" s="2">
         <v>71</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H75" s="6">
         <v>48</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="2">
         <v>155</v>
       </c>
       <c r="J75" s="2" t="s">
@@ -3289,7 +3293,7 @@
       <c r="K75" s="6">
         <v>76</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="3">
         <v>264</v>
       </c>
       <c r="M75" s="3" t="s">
@@ -3298,62 +3302,62 @@
     </row>
     <row r="76" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
-      <c r="F76" s="4">
+      <c r="F76" s="2">
         <v>72</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="16" t="s">
         <v>61</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="4">
+      <c r="I76" s="2">
         <v>156</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K76" s="6"/>
-      <c r="L76" s="4">
+      <c r="L76" s="3">
         <v>265</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E77" s="6">
         <v>24</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <v>73</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="16" t="s">
         <v>89</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="4">
+      <c r="I77" s="2">
         <v>157</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>132</v>
       </c>
       <c r="K77" s="6"/>
-      <c r="L77" s="4">
+      <c r="L77" s="3">
         <v>266</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <v>74</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="16" t="s">
         <v>90</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="4">
+      <c r="I78" s="2">
         <v>158</v>
       </c>
       <c r="J78" s="2" t="s">
@@ -3362,219 +3366,219 @@
       <c r="K78" s="6">
         <v>77</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="2">
         <v>267</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E79" s="6"/>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <v>75</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H79" s="6"/>
-      <c r="I79" s="4">
+      <c r="I79" s="2">
         <v>159</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>134</v>
       </c>
       <c r="K79" s="6"/>
-      <c r="L79" s="4">
+      <c r="L79" s="2">
         <v>268</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
-      <c r="F80" s="4">
+      <c r="F80" s="3">
         <v>76</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H80" s="6">
         <v>49</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="3">
         <v>160</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="16" t="s">
         <v>138</v>
       </c>
       <c r="K80" s="6"/>
-      <c r="L80" s="4">
+      <c r="L80" s="2">
         <v>269</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>77</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="4">
+      <c r="I81" s="3">
         <v>161</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="16" t="s">
         <v>139</v>
       </c>
       <c r="K81" s="6">
         <v>78</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81" s="3">
         <v>270</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E82" s="6">
         <v>25</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="2">
         <v>78</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="16" t="s">
         <v>91</v>
       </c>
       <c r="H82" s="6">
         <v>50</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="2">
         <v>162</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="16" t="s">
         <v>140</v>
       </c>
       <c r="K82" s="6"/>
-      <c r="L82" s="4">
+      <c r="L82" s="3">
         <v>271</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E83" s="6"/>
-      <c r="F83" s="4">
+      <c r="F83" s="2">
         <v>79</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="16" t="s">
         <v>92</v>
       </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="4">
+      <c r="I83" s="2">
         <v>163</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="16" t="s">
         <v>55</v>
       </c>
       <c r="K83" s="6"/>
-      <c r="L83" s="4">
+      <c r="L83" s="3">
         <v>272</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E84" s="6"/>
-      <c r="F84" s="4">
+      <c r="F84" s="2">
         <v>80</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H84" s="6">
         <v>51</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I84" s="3">
         <v>164</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>141</v>
       </c>
       <c r="K84" s="6"/>
-      <c r="L84" s="4">
+      <c r="L84" s="3">
         <v>273</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
-      <c r="F85" s="4">
+      <c r="F85" s="2">
         <v>81</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="16" t="s">
         <v>86</v>
       </c>
       <c r="H85" s="6"/>
-      <c r="I85" s="4">
+      <c r="I85" s="3">
         <v>165</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>142</v>
       </c>
       <c r="K85" s="6"/>
-      <c r="L85" s="4">
+      <c r="L85" s="3">
         <v>274</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
-      <c r="F86" s="4">
+      <c r="F86" s="2">
         <v>82</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>180</v>
+      <c r="G86" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="H86" s="6">
         <v>52</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="2">
         <v>166</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>143</v>
       </c>
       <c r="K86" s="6"/>
-      <c r="L86" s="4">
+      <c r="L86" s="3">
         <v>275</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
-      <c r="F87" s="4">
+      <c r="F87" s="2">
         <v>83</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>181</v>
+      <c r="G87" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="H87" s="6"/>
-      <c r="I87" s="4">
+      <c r="I87" s="2">
         <v>167</v>
       </c>
       <c r="J87" s="2" t="s">
@@ -3583,66 +3587,66 @@
       <c r="K87" s="6">
         <v>79</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="2">
         <v>276</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H88" s="6">
         <v>53</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="3">
         <v>168</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K88" s="6"/>
-      <c r="L88" s="4">
+      <c r="L88" s="2">
         <v>277</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H89" s="6"/>
-      <c r="I89" s="4">
+      <c r="I89" s="3">
         <v>169</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K89" s="6"/>
-      <c r="L89" s="4">
+      <c r="L89" s="2">
         <v>278</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H90" s="6"/>
-      <c r="I90" s="4">
+      <c r="I90" s="3">
         <v>170</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>145</v>
       </c>
       <c r="K90" s="6"/>
-      <c r="L90" s="4">
+      <c r="L90" s="2">
         <v>279</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H91" s="6"/>
-      <c r="I91" s="4">
+      <c r="I91" s="3">
         <v>171</v>
       </c>
       <c r="J91" s="3" t="s">
@@ -3651,68 +3655,68 @@
       <c r="K91" s="6">
         <v>80</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="3">
         <v>280</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H92" s="6">
         <v>54</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I92" s="2">
         <v>172</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>147</v>
       </c>
       <c r="K92" s="6"/>
-      <c r="L92" s="4">
+      <c r="L92" s="3">
         <v>281</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H93" s="6"/>
-      <c r="I93" s="4">
+      <c r="I93" s="2">
         <v>173</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K93" s="6"/>
-      <c r="L93" s="4">
+      <c r="L93" s="3">
         <v>282</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H94" s="6"/>
-      <c r="I94" s="4">
+      <c r="I94" s="2">
         <v>174</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>148</v>
       </c>
       <c r="K94" s="6"/>
-      <c r="L94" s="4">
+      <c r="L94" s="3">
         <v>283</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H95" s="6">
         <v>55</v>
       </c>
-      <c r="I95" s="4">
+      <c r="I95" s="3">
         <v>175</v>
       </c>
       <c r="J95" s="3" t="s">
@@ -3721,207 +3725,207 @@
       <c r="K95" s="6">
         <v>81</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="2">
         <v>284</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H96" s="6"/>
-      <c r="I96" s="4">
+      <c r="I96" s="3">
         <v>176</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>82</v>
       </c>
       <c r="K96" s="6"/>
-      <c r="L96" s="4">
+      <c r="L96" s="2">
         <v>285</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H97" s="6"/>
-      <c r="I97" s="4">
+      <c r="I97" s="3">
         <v>177</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="16" t="s">
         <v>61</v>
       </c>
       <c r="K97" s="6"/>
-      <c r="L97" s="4">
+      <c r="L97" s="2">
         <v>286</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H98" s="6"/>
-      <c r="I98" s="4">
+      <c r="I98" s="3">
         <v>178</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="16" t="s">
         <v>55</v>
       </c>
       <c r="K98" s="6">
         <v>82</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="3">
         <v>287</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H99" s="6"/>
-      <c r="I99" s="4">
+      <c r="I99" s="3">
         <v>179</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K99" s="6"/>
-      <c r="L99" s="4">
+      <c r="L99" s="3">
         <v>288</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H100" s="6"/>
-      <c r="I100" s="4">
+      <c r="I100" s="3">
         <v>180</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K100" s="6"/>
-      <c r="L100" s="4">
+      <c r="L100" s="3">
         <v>289</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H101" s="6">
         <v>56</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="2">
         <v>181</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="16" t="s">
         <v>155</v>
       </c>
       <c r="K101" s="6">
         <v>83</v>
       </c>
-      <c r="L101" s="4">
+      <c r="L101" s="2">
         <v>290</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H102" s="6"/>
-      <c r="I102" s="4">
+      <c r="I102" s="2">
         <v>182</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J102" s="16" t="s">
         <v>55</v>
       </c>
       <c r="K102" s="6"/>
-      <c r="L102" s="4">
+      <c r="L102" s="2">
         <v>291</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H103" s="6"/>
-      <c r="I103" s="4">
+      <c r="I103" s="2">
         <v>183</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>156</v>
       </c>
       <c r="K103" s="6"/>
-      <c r="L103" s="4">
+      <c r="L103" s="2">
         <v>292</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H104" s="6"/>
-      <c r="I104" s="4">
+      <c r="I104" s="2">
         <v>184</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>157</v>
       </c>
       <c r="K104" s="6"/>
-      <c r="L104" s="4">
+      <c r="L104" s="2">
         <v>293</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H105" s="6">
         <v>57</v>
       </c>
-      <c r="I105" s="4">
+      <c r="I105" s="3">
         <v>185</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J105" s="16" t="s">
         <v>164</v>
       </c>
       <c r="K105" s="6"/>
-      <c r="L105" s="4">
+      <c r="L105" s="3">
         <v>294</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H106" s="6"/>
-      <c r="I106" s="4">
+      <c r="I106" s="3">
         <v>186</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="J106" s="16" t="s">
         <v>126</v>
       </c>
       <c r="K106" s="6"/>
-      <c r="L106" s="4">
+      <c r="L106" s="3">
         <v>295</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H107" s="6"/>
-      <c r="I107" s="4">
+      <c r="I107" s="3">
         <v>187</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="J107" s="16" t="s">
         <v>162</v>
       </c>
       <c r="K107" s="6"/>
-      <c r="L107" s="4">
+      <c r="L107" s="3">
         <v>296</v>
       </c>
       <c r="M107" s="1" t="s">
@@ -3930,66 +3934,66 @@
     </row>
     <row r="108" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H108" s="6"/>
-      <c r="I108" s="4">
+      <c r="I108" s="3">
         <v>188</v>
       </c>
-      <c r="J108" s="3" t="s">
-        <v>65</v>
+      <c r="J108" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="K108" s="6"/>
-      <c r="L108" s="4">
+      <c r="L108" s="2">
         <v>297</v>
       </c>
     </row>
     <row r="109" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H109" s="6"/>
-      <c r="I109" s="4">
+      <c r="I109" s="3">
         <v>189</v>
       </c>
-      <c r="J109" s="3" t="s">
-        <v>163</v>
+      <c r="J109" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="K109" s="6"/>
-      <c r="L109" s="4">
+      <c r="L109" s="2">
         <v>298</v>
       </c>
     </row>
     <row r="110" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H110" s="6"/>
-      <c r="I110" s="4">
+      <c r="I110" s="3">
         <v>190</v>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>165</v>
+      <c r="J110" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="K110" s="6"/>
-      <c r="L110" s="4">
+      <c r="L110" s="2">
         <v>299</v>
       </c>
     </row>
     <row r="111" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H111" s="6"/>
-      <c r="I111" s="4">
+      <c r="I111" s="3">
         <v>191</v>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>166</v>
+      <c r="J111" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="K111" s="6"/>
-      <c r="L111" s="4">
+      <c r="L111" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="112" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H112" s="6"/>
-      <c r="I112" s="4">
+      <c r="I112" s="3">
         <v>192</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="J112" s="16" t="s">
         <v>55</v>
       </c>
       <c r="K112" s="6"/>
-      <c r="L112" s="4">
+      <c r="L112" s="2">
         <v>301</v>
       </c>
     </row>
@@ -4015,7 +4019,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="12">
         <v>30</v>
@@ -4026,7 +4030,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="12">
         <v>50</v>
@@ -4037,7 +4041,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" s="12">
         <v>35</v>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F298CF30-FDDA-44D9-8A49-BF8BF6143F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="310">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -872,16 +871,100 @@
   </si>
   <si>
     <t>Irmã Telma</t>
+  </si>
+  <si>
+    <t>Rofeston</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Vando</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>Emili</t>
+  </si>
+  <si>
+    <t>Suellen</t>
+  </si>
+  <si>
+    <t>Jhony</t>
+  </si>
+  <si>
+    <t>Neyde</t>
+  </si>
+  <si>
+    <t>Giovany</t>
+  </si>
+  <si>
+    <t>Gilson</t>
+  </si>
+  <si>
+    <t>Yago</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Giovan</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Honorato</t>
+  </si>
+  <si>
+    <t>Conceição</t>
+  </si>
+  <si>
+    <t>Everton Rafael</t>
+  </si>
+  <si>
+    <t>Thiago Fazio</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Namorado</t>
+  </si>
+  <si>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>Andreia</t>
+  </si>
+  <si>
+    <t>Jorjão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Gorete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,14 +983,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -936,7 +1011,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,6 +1066,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1001,12 +1082,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1021,21 +1101,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,8 +1119,8 @@
   <colors>
     <mruColors>
       <color rgb="FFAFAFFF"/>
+      <color rgb="FFFFAFE6"/>
       <color rgb="FF3333FF"/>
-      <color rgb="FFFFAFE6"/>
       <color rgb="FFD60093"/>
       <color rgb="FF990099"/>
       <color rgb="FF0066FF"/>
@@ -1325,11 +1401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:S112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R93" sqref="R93"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1430,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>274</v>
       </c>
@@ -1362,44 +1438,53 @@
         <v>265</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>265</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>265</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="P3" s="3" t="s">
+      <c r="N3" s="6">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2">
+        <v>302</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="6">
@@ -1417,23 +1502,30 @@
       <c r="L4" s="3">
         <v>193</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="13" t="s">
         <v>167</v>
       </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="2">
+        <v>303</v>
+      </c>
       <c r="P4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="1" t="s">
@@ -1450,14 +1542,23 @@
       <c r="L5" s="3">
         <v>194</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="N5" s="6">
+        <v>87</v>
+      </c>
+      <c r="O5" s="3">
+        <v>304</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,27 +1582,34 @@
       <c r="L6" s="3">
         <v>195</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="N6" s="6"/>
+      <c r="O6" s="3">
+        <v>305</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>262</v>
       </c>
       <c r="E7" s="6"/>
@@ -1522,27 +1630,34 @@
       <c r="L7" s="3">
         <v>196</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="13" t="s">
         <v>169</v>
       </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="2">
+        <v>306</v>
+      </c>
       <c r="P7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="6"/>
@@ -1558,7 +1673,7 @@
       <c r="I8" s="2">
         <v>88</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K8" s="6">
@@ -1570,22 +1685,32 @@
       <c r="M8" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="2">
+        <v>307</v>
+      </c>
       <c r="P8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>276</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1593,14 +1718,14 @@
       <c r="F9" s="3">
         <v>5</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="2">
         <v>89</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="13" t="s">
         <v>68</v>
       </c>
       <c r="K9" s="6"/>
@@ -1610,15 +1735,24 @@
       <c r="M9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="N9" s="6">
+        <v>88</v>
+      </c>
+      <c r="O9" s="3">
+        <v>308</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>152</v>
       </c>
       <c r="E10" s="6">
@@ -1634,7 +1768,7 @@
       <c r="I10" s="2">
         <v>90</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="13" t="s">
         <v>69</v>
       </c>
       <c r="K10" s="6"/>
@@ -1644,15 +1778,22 @@
       <c r="M10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="3">
+        <v>309</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="E11" s="6"/>
@@ -1666,7 +1807,7 @@
       <c r="I11" s="2">
         <v>91</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="13" t="s">
         <v>70</v>
       </c>
       <c r="K11" s="6"/>
@@ -1676,15 +1817,24 @@
       <c r="M11" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="N11" s="6">
+        <v>89</v>
+      </c>
+      <c r="O11" s="2">
+        <v>310</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E12" s="6">
@@ -1693,7 +1843,7 @@
       <c r="F12" s="2">
         <v>8</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="6">
@@ -1712,15 +1862,22 @@
       <c r="M12" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="N12" s="6"/>
+      <c r="O12" s="2">
+        <v>311</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>153</v>
       </c>
       <c r="E13" s="6">
@@ -1729,7 +1886,7 @@
       <c r="F13" s="3">
         <v>9</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="6"/>
@@ -1745,22 +1902,31 @@
       <c r="L13" s="3">
         <v>202</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N13" s="6">
+        <v>90</v>
+      </c>
+      <c r="O13" s="3">
+        <v>312</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="3">
         <v>10</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="6"/>
@@ -1774,22 +1940,29 @@
       <c r="L14" s="3">
         <v>203</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N14" s="6"/>
+      <c r="O14" s="3">
+        <v>313</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>278</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="3">
         <v>11</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="6">
@@ -1798,29 +1971,36 @@
       <c r="I15" s="3">
         <v>95</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="13" t="s">
         <v>75</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="3">
         <v>204</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N15" s="6"/>
+      <c r="O15" s="3">
+        <v>314</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="3">
         <v>12</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="13" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="6">
@@ -1829,7 +2009,7 @@
       <c r="I16" s="3">
         <v>96</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="13" t="s">
         <v>260</v>
       </c>
       <c r="K16" s="6">
@@ -1841,22 +2021,31 @@
       <c r="M16" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="6">
+        <v>91</v>
+      </c>
+      <c r="O16" s="2">
+        <v>315</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E17" s="6">
         <v>7</v>
       </c>
       <c r="F17" s="2">
         <v>13</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="3">
         <v>97</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="13" t="s">
         <v>76</v>
       </c>
       <c r="K17" s="6"/>
@@ -1866,20 +2055,27 @@
       <c r="M17" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N17" s="6"/>
+      <c r="O17" s="2">
+        <v>316</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="2">
         <v>14</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="3">
         <v>98</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="13" t="s">
         <v>50</v>
       </c>
       <c r="K18" s="6"/>
@@ -1889,15 +2085,22 @@
       <c r="M18" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N18" s="6"/>
+      <c r="O18" s="2">
+        <v>317</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E19" s="6">
         <v>8</v>
       </c>
       <c r="F19" s="3">
         <v>15</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="6">
@@ -1916,13 +2119,25 @@
       <c r="M19" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N19" s="6">
+        <v>92</v>
+      </c>
+      <c r="O19" s="3">
+        <v>318</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="3">
         <v>16</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="6"/>
@@ -1939,15 +2154,20 @@
       <c r="M20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="6"/>
+      <c r="O20" s="3">
+        <v>319</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="3">
         <v>17</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="6"/>
@@ -1964,14 +2184,20 @@
       <c r="M21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N21" s="6"/>
+      <c r="O21" s="2">
+        <v>320</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
       <c r="F22" s="3">
         <v>18</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H22" s="6">
@@ -1990,8 +2216,15 @@
       <c r="M22" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N22" s="6"/>
+      <c r="O22" s="2">
+        <v>321</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>9</v>
       </c>
@@ -2014,11 +2247,18 @@
       <c r="L23" s="3">
         <v>212</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="6"/>
+      <c r="O23" s="2">
+        <v>322</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
       <c r="F24" s="2">
         <v>20</v>
@@ -2037,11 +2277,18 @@
       <c r="L24" s="3">
         <v>213</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N24" s="6"/>
+      <c r="O24" s="2">
+        <v>323</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
       <c r="F25" s="2">
         <v>21</v>
@@ -2060,18 +2307,25 @@
       <c r="L25" s="3">
         <v>214</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N25" s="6"/>
+      <c r="O25" s="3">
+        <v>324</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E26" s="6">
         <v>10</v>
       </c>
       <c r="F26" s="3">
         <v>22</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="6"/>
@@ -2085,16 +2339,23 @@
       <c r="L26" s="3">
         <v>215</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N26" s="6"/>
+      <c r="O26" s="3">
+        <v>325</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
       <c r="F27" s="3">
         <v>23</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="6"/>
@@ -2110,18 +2371,25 @@
       <c r="L27" s="2">
         <v>216</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N27" s="6"/>
+      <c r="O27" s="2">
+        <v>326</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
         <v>11</v>
       </c>
       <c r="F28" s="2">
         <v>24</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="6">
@@ -2137,16 +2405,23 @@
       <c r="L28" s="2">
         <v>217</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N28" s="6"/>
+      <c r="O28" s="2">
+        <v>327</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E29" s="6"/>
       <c r="F29" s="2">
         <v>25</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="6"/>
@@ -2160,16 +2435,23 @@
       <c r="L29" s="2">
         <v>218</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N29" s="6"/>
+      <c r="O29" s="2">
+        <v>328</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
       <c r="F30" s="2">
         <v>26</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H30" s="6"/>
@@ -2188,13 +2470,20 @@
       <c r="M30" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N30" s="6"/>
+      <c r="O30" s="2">
+        <v>329</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
       <c r="F31" s="2">
         <v>27</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H31" s="6"/>
@@ -2211,13 +2500,20 @@
       <c r="M31" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="6"/>
+      <c r="O31" s="3">
+        <v>330</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
       <c r="F32" s="2">
         <v>28</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="6"/>
@@ -2234,15 +2530,22 @@
       <c r="M32" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="6"/>
+      <c r="O32" s="2">
+        <v>331</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="6">
         <v>12</v>
       </c>
       <c r="F33" s="3">
         <v>29</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="6">
@@ -2261,13 +2564,20 @@
       <c r="M33" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="6"/>
+      <c r="O33" s="2">
+        <v>332</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
       <c r="F34" s="3">
         <v>30</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="6"/>
@@ -2284,15 +2594,22 @@
       <c r="M34" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="6"/>
+      <c r="O34" s="2">
+        <v>333</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E35" s="6">
         <v>13</v>
       </c>
       <c r="F35" s="2">
         <v>31</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="6">
@@ -2310,16 +2627,23 @@
       <c r="L35" s="2">
         <v>224</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="13" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="6"/>
+      <c r="O35" s="2">
+        <v>334</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" s="2">
         <v>32</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="6"/>
@@ -2333,16 +2657,23 @@
       <c r="L36" s="2">
         <v>225</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="6"/>
+      <c r="O36" s="2">
+        <v>335</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
       <c r="F37" s="2">
         <v>33</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="6"/>
@@ -2356,16 +2687,20 @@
       <c r="L37" s="2">
         <v>226</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="13" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="6"/>
+      <c r="O37" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
       <c r="F38" s="2">
         <v>34</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H38" s="6">
@@ -2374,7 +2709,7 @@
       <c r="I38" s="3">
         <v>118</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="13" t="s">
         <v>108</v>
       </c>
       <c r="K38" s="6">
@@ -2383,41 +2718,49 @@
       <c r="L38" s="3">
         <v>227</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="6"/>
+      <c r="O38" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E39" s="6">
         <v>14</v>
       </c>
       <c r="F39" s="3">
         <v>35</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="3">
         <v>119</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="13" t="s">
         <v>109</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="3">
         <v>228</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="13" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="6"/>
+      <c r="O39" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
       <c r="F40" s="3">
         <v>36</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H40" s="6">
@@ -2426,53 +2769,61 @@
       <c r="I40" s="2">
         <v>120</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="13" t="s">
         <v>166</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="3">
         <v>229</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="13" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="6"/>
+      <c r="O40" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="3">
         <v>37</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="13" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="2">
         <v>121</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="3">
         <v>230</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="13" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="6"/>
+      <c r="O41" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
       <c r="F42" s="3">
         <v>38</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="2">
         <v>122</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="13" t="s">
         <v>17</v>
       </c>
       <c r="K42" s="6">
@@ -2481,18 +2832,22 @@
       <c r="L42" s="2">
         <v>231</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="13" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="6"/>
+      <c r="O42" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E43" s="6">
         <v>15</v>
       </c>
       <c r="F43" s="2">
         <v>39</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="13" t="s">
         <v>31</v>
       </c>
       <c r="H43" s="6">
@@ -2508,16 +2863,20 @@
       <c r="L43" s="2">
         <v>232</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="13" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="6"/>
+      <c r="O43" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
       <c r="F44" s="2">
         <v>40</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H44" s="6"/>
@@ -2531,16 +2890,20 @@
       <c r="L44" s="2">
         <v>233</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="13" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="6"/>
+      <c r="O44" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
       <c r="F45" s="2">
         <v>41</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H45" s="6"/>
@@ -2556,16 +2919,20 @@
       <c r="L45" s="3">
         <v>234</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="13" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="6"/>
+      <c r="O45" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
       <c r="F46" s="2">
         <v>42</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="13" t="s">
         <v>84</v>
       </c>
       <c r="H46" s="6">
@@ -2581,11 +2948,15 @@
       <c r="L46" s="3">
         <v>235</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="13" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="6"/>
+      <c r="O46" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E47" s="6">
         <v>16</v>
       </c>
@@ -2606,11 +2977,15 @@
       <c r="L47" s="3">
         <v>236</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="13" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="6"/>
+      <c r="O47" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E48" s="6"/>
       <c r="F48" s="3">
         <v>44</v>
@@ -2624,18 +2999,22 @@
       <c r="I48" s="3">
         <v>128</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="3">
         <v>237</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="13" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="6"/>
+      <c r="O48" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E49" s="6"/>
       <c r="F49" s="3">
         <v>45</v>
@@ -2647,7 +3026,7 @@
       <c r="I49" s="3">
         <v>129</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="13" t="s">
         <v>187</v>
       </c>
       <c r="K49" s="6">
@@ -2656,11 +3035,15 @@
       <c r="L49" s="2">
         <v>238</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="6"/>
+      <c r="O49" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
       <c r="F50" s="3">
         <v>46</v>
@@ -2672,18 +3055,22 @@
       <c r="I50" s="3">
         <v>130</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="2">
         <v>239</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="13" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="6"/>
+      <c r="O50" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E51" s="6">
         <v>17</v>
       </c>
@@ -2699,18 +3086,22 @@
       <c r="I51" s="2">
         <v>131</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>111</v>
+      <c r="J51" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="2">
         <v>240</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="6"/>
+      <c r="O51" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
       <c r="F52" s="2">
         <v>48</v>
@@ -2722,18 +3113,22 @@
       <c r="I52" s="2">
         <v>132</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>112</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="2">
         <v>241</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="13" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="6"/>
+      <c r="O52" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E53" s="6"/>
       <c r="F53" s="2">
         <v>49</v>
@@ -2746,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="K53" s="6">
         <v>70</v>
@@ -2754,11 +3149,15 @@
       <c r="L53" s="3">
         <v>242</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="6"/>
+      <c r="O53" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E54" s="6"/>
       <c r="F54" s="2">
         <v>50</v>
@@ -2771,17 +3170,21 @@
         <v>134</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="3">
         <v>243</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="13" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="6"/>
+      <c r="O54" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
       <c r="F55" s="2">
         <v>51</v>
@@ -2794,17 +3197,21 @@
         <v>135</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="3">
         <v>244</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="13" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="6"/>
+      <c r="O55" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
       <c r="F56" s="2">
         <v>52</v>
@@ -2825,18 +3232,22 @@
       <c r="L56" s="3">
         <v>245</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="13" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="6"/>
+      <c r="O56" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <v>18</v>
       </c>
       <c r="F57" s="3">
         <v>53</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H57" s="6"/>
@@ -2852,16 +3263,20 @@
       <c r="L57" s="2">
         <v>246</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="13" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="6"/>
+      <c r="O57" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E58" s="6"/>
       <c r="F58" s="3">
         <v>54</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="6"/>
@@ -2875,18 +3290,22 @@
       <c r="L58" s="2">
         <v>247</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="13" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="6"/>
+      <c r="O58" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <v>19</v>
       </c>
       <c r="F59" s="2">
         <v>55</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H59" s="6"/>
@@ -2900,16 +3319,20 @@
       <c r="L59" s="2">
         <v>248</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="13" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="6"/>
+      <c r="O59" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
       <c r="F60" s="2">
         <v>56</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H60" s="6">
@@ -2927,18 +3350,22 @@
       <c r="L60" s="3">
         <v>249</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="M60" s="13" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="6"/>
+      <c r="O60" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
         <v>20</v>
       </c>
       <c r="F61" s="3">
         <v>57</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H61" s="6"/>
@@ -2952,16 +3379,20 @@
       <c r="L61" s="3">
         <v>250</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="M61" s="13" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="6"/>
+      <c r="O61" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
       <c r="F62" s="3">
         <v>58</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="13" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="6"/>
@@ -2975,18 +3406,22 @@
       <c r="L62" s="3">
         <v>251</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="M62" s="13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="63" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="6"/>
+      <c r="O62" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <v>21</v>
       </c>
       <c r="F63" s="2">
         <v>59</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="13" t="s">
         <v>48</v>
       </c>
       <c r="H63" s="6"/>
@@ -3000,16 +3435,20 @@
       <c r="L63" s="3">
         <v>252</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="M63" s="13" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="6"/>
+      <c r="O63" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E64" s="6"/>
       <c r="F64" s="2">
         <v>60</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H64" s="6"/>
@@ -3025,16 +3464,20 @@
       <c r="L64" s="2">
         <v>253</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="6"/>
+      <c r="O64" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
       <c r="F65" s="2">
         <v>61</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H65" s="6">
@@ -3052,16 +3495,20 @@
       <c r="L65" s="3">
         <v>254</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="M65" s="13" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="6"/>
+      <c r="O65" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
       <c r="F66" s="2">
         <v>62</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H66" s="6"/>
@@ -3075,16 +3522,20 @@
       <c r="L66" s="3">
         <v>255</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="M66" s="13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="6"/>
+      <c r="O66" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
       <c r="F67" s="2">
         <v>63</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H67" s="6"/>
@@ -3098,16 +3549,20 @@
       <c r="L67" s="3">
         <v>256</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="M67" s="13" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="6"/>
+      <c r="O67" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E68" s="6"/>
       <c r="F68" s="2">
         <v>64</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H68" s="6"/>
@@ -3121,16 +3576,20 @@
       <c r="L68" s="3">
         <v>257</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M68" s="13" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="6"/>
+      <c r="O68" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E69" s="6"/>
       <c r="F69" s="2">
         <v>65</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H69" s="6">
@@ -3146,16 +3605,20 @@
       <c r="L69" s="3">
         <v>258</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="M69" s="13" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="6"/>
+      <c r="O69" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
       <c r="F70" s="2">
         <v>66</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H70" s="6"/>
@@ -3171,11 +3634,15 @@
       <c r="L70" s="2">
         <v>259</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="13" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="6"/>
+      <c r="O70" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E71" s="6">
         <v>22</v>
       </c>
@@ -3196,18 +3663,22 @@
       <c r="L71" s="2">
         <v>260</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="13" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="6"/>
+      <c r="O71" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E72" s="6">
         <v>23</v>
       </c>
       <c r="F72" s="2">
         <v>68</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H72" s="6">
@@ -3223,16 +3694,20 @@
       <c r="L72" s="2">
         <v>261</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="6"/>
+      <c r="O72" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E73" s="6"/>
       <c r="F73" s="2">
         <v>69</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H73" s="6"/>
@@ -3246,16 +3721,20 @@
       <c r="L73" s="2">
         <v>262</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="13" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="6"/>
+      <c r="O73" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E74" s="6"/>
       <c r="F74" s="2">
         <v>70</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H74" s="6"/>
@@ -3269,16 +3748,20 @@
       <c r="L74" s="2">
         <v>263</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="13" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="6"/>
+      <c r="O74" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
       <c r="F75" s="2">
         <v>71</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H75" s="6">
@@ -3287,7 +3770,7 @@
       <c r="I75" s="2">
         <v>155</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="13" t="s">
         <v>130</v>
       </c>
       <c r="K75" s="6">
@@ -3296,71 +3779,83 @@
       <c r="L75" s="3">
         <v>264</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M75" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="6"/>
+      <c r="O75" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
       <c r="F76" s="2">
         <v>72</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="13" t="s">
         <v>61</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="2">
         <v>156</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="13" t="s">
         <v>131</v>
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="3">
         <v>265</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="M76" s="13" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="6"/>
+      <c r="O76" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E77" s="6">
         <v>24</v>
       </c>
       <c r="F77" s="3">
         <v>73</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="13" t="s">
         <v>89</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="2">
         <v>157</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="13" t="s">
         <v>132</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="3">
         <v>266</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="M77" s="13" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="6"/>
+      <c r="O77" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
       <c r="F78" s="3">
         <v>74</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="13" t="s">
         <v>90</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="2">
         <v>158</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K78" s="6">
@@ -3369,39 +3864,47 @@
       <c r="L78" s="2">
         <v>267</v>
       </c>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="6"/>
+      <c r="O78" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E79" s="6"/>
       <c r="F79" s="3">
         <v>75</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="2">
         <v>159</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="13" t="s">
         <v>134</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="2">
         <v>268</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="80" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="6"/>
+      <c r="O79" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
       <c r="F80" s="3">
         <v>76</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H80" s="6">
@@ -3410,30 +3913,34 @@
       <c r="I80" s="3">
         <v>160</v>
       </c>
-      <c r="J80" s="16" t="s">
+      <c r="J80" s="13" t="s">
         <v>138</v>
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="2">
         <v>269</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="6"/>
+      <c r="O80" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
       <c r="F81" s="3">
         <v>77</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="3">
         <v>161</v>
       </c>
-      <c r="J81" s="16" t="s">
+      <c r="J81" s="13" t="s">
         <v>139</v>
       </c>
       <c r="K81" s="6">
@@ -3442,18 +3949,22 @@
       <c r="L81" s="3">
         <v>270</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="M81" s="13" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="6"/>
+      <c r="O81" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E82" s="6">
         <v>25</v>
       </c>
       <c r="F82" s="2">
         <v>78</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="13" t="s">
         <v>91</v>
       </c>
       <c r="H82" s="6">
@@ -3462,46 +3973,54 @@
       <c r="I82" s="2">
         <v>162</v>
       </c>
-      <c r="J82" s="16" t="s">
+      <c r="J82" s="13" t="s">
         <v>140</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="3">
         <v>271</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="M82" s="13" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="6"/>
+      <c r="O82" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E83" s="6"/>
       <c r="F83" s="2">
         <v>79</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="2">
         <v>163</v>
       </c>
-      <c r="J83" s="16" t="s">
+      <c r="J83" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="3">
         <v>272</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="M83" s="13" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="6"/>
+      <c r="O83" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E84" s="6"/>
       <c r="F84" s="2">
         <v>80</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H84" s="6">
@@ -3510,46 +4029,54 @@
       <c r="I84" s="3">
         <v>164</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="14" t="s">
         <v>141</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="3">
         <v>273</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="M84" s="13" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="6"/>
+      <c r="O84" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
       <c r="F85" s="2">
         <v>81</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="3">
         <v>165</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="14" t="s">
         <v>142</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="3">
         <v>274</v>
       </c>
-      <c r="M85" s="3" t="s">
+      <c r="M85" s="13" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="6"/>
+      <c r="O85" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
       <c r="F86" s="2">
         <v>82</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" s="13" t="s">
         <v>179</v>
       </c>
       <c r="H86" s="6">
@@ -3558,30 +4085,34 @@
       <c r="I86" s="2">
         <v>166</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="14" t="s">
         <v>143</v>
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="3">
         <v>275</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="M86" s="13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="6"/>
+      <c r="O86" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
       <c r="F87" s="2">
         <v>83</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G87" s="13" t="s">
         <v>180</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="2">
         <v>167</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="14" t="s">
         <v>144</v>
       </c>
       <c r="K87" s="6">
@@ -3590,66 +4121,82 @@
       <c r="L87" s="2">
         <v>276</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="13" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="6"/>
+      <c r="O87" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H88" s="6">
         <v>53</v>
       </c>
       <c r="I88" s="3">
         <v>168</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="13" t="s">
         <v>182</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="2">
         <v>277</v>
       </c>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="13" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="6"/>
+      <c r="O88" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H89" s="6"/>
       <c r="I89" s="3">
         <v>169</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="13" t="s">
         <v>176</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="2">
         <v>278</v>
       </c>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="6"/>
+      <c r="O89" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H90" s="6"/>
       <c r="I90" s="3">
         <v>170</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="13" t="s">
         <v>145</v>
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="2">
         <v>279</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="13" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="6"/>
+      <c r="O90" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="91" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H91" s="6"/>
       <c r="I91" s="3">
         <v>171</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="13" t="s">
         <v>65</v>
       </c>
       <c r="K91" s="6">
@@ -3658,11 +4205,15 @@
       <c r="L91" s="3">
         <v>280</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="6"/>
+      <c r="O91" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H92" s="6">
         <v>54</v>
       </c>
@@ -3676,11 +4227,15 @@
       <c r="L92" s="3">
         <v>281</v>
       </c>
-      <c r="M92" s="3" t="s">
+      <c r="M92" s="13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="6"/>
+      <c r="O92" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H93" s="6"/>
       <c r="I93" s="2">
         <v>173</v>
@@ -3692,11 +4247,15 @@
       <c r="L93" s="3">
         <v>282</v>
       </c>
-      <c r="M93" s="3" t="s">
+      <c r="M93" s="13" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="6"/>
+      <c r="O93" s="2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H94" s="6"/>
       <c r="I94" s="2">
         <v>174</v>
@@ -3708,18 +4267,22 @@
       <c r="L94" s="3">
         <v>283</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="13" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="6"/>
+      <c r="O94" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H95" s="6">
         <v>55</v>
       </c>
       <c r="I95" s="3">
         <v>175</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="J95" s="13" t="s">
         <v>154</v>
       </c>
       <c r="K95" s="6">
@@ -3728,48 +4291,60 @@
       <c r="L95" s="2">
         <v>284</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="13" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="6"/>
+      <c r="O95" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H96" s="6"/>
       <c r="I96" s="3">
         <v>176</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J96" s="13" t="s">
         <v>82</v>
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="2">
         <v>285</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="13" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="97" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="6"/>
+      <c r="O96" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H97" s="6"/>
       <c r="I97" s="3">
         <v>177</v>
       </c>
-      <c r="J97" s="16" t="s">
+      <c r="J97" s="13" t="s">
         <v>61</v>
       </c>
       <c r="K97" s="6"/>
       <c r="L97" s="2">
         <v>286</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="13" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="98" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="6"/>
+      <c r="O97" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H98" s="6"/>
       <c r="I98" s="3">
         <v>178</v>
       </c>
-      <c r="J98" s="16" t="s">
+      <c r="J98" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K98" s="6">
@@ -3778,50 +4353,62 @@
       <c r="L98" s="3">
         <v>287</v>
       </c>
-      <c r="M98" s="3" t="s">
+      <c r="M98" s="13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="99" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="6"/>
+      <c r="O98" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H99" s="6"/>
       <c r="I99" s="3">
         <v>179</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K99" s="6"/>
       <c r="L99" s="3">
         <v>288</v>
       </c>
-      <c r="M99" s="3" t="s">
+      <c r="M99" s="13" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="100" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="6"/>
+      <c r="O99" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H100" s="6"/>
       <c r="I100" s="3">
         <v>180</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="13" t="s">
         <v>53</v>
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="3">
         <v>289</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="M100" s="13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="101" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="6"/>
+      <c r="O100" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H101" s="6">
         <v>56</v>
       </c>
       <c r="I101" s="2">
         <v>181</v>
       </c>
-      <c r="J101" s="16" t="s">
+      <c r="J101" s="13" t="s">
         <v>155</v>
       </c>
       <c r="K101" s="6">
@@ -3830,27 +4417,35 @@
       <c r="L101" s="2">
         <v>290</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="13" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="102" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="6"/>
+      <c r="O101" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H102" s="6"/>
       <c r="I102" s="2">
         <v>182</v>
       </c>
-      <c r="J102" s="16" t="s">
+      <c r="J102" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K102" s="6"/>
       <c r="L102" s="2">
         <v>291</v>
       </c>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="13" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="103" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="6"/>
+      <c r="O102" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H103" s="6"/>
       <c r="I103" s="2">
         <v>183</v>
@@ -3862,11 +4457,15 @@
       <c r="L103" s="2">
         <v>292</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="104" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="6"/>
+      <c r="O103" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H104" s="6"/>
       <c r="I104" s="2">
         <v>184</v>
@@ -3878,124 +4477,229 @@
       <c r="L104" s="2">
         <v>293</v>
       </c>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="13" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="105" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="6"/>
+      <c r="O104" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H105" s="6">
         <v>57</v>
       </c>
       <c r="I105" s="3">
         <v>185</v>
       </c>
-      <c r="J105" s="16" t="s">
+      <c r="J105" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K105" s="6"/>
+      <c r="K105" s="6">
+        <v>84</v>
+      </c>
       <c r="L105" s="3">
         <v>294</v>
       </c>
-      <c r="M105" s="1" t="s">
+      <c r="M105" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="106" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="6"/>
+      <c r="O105" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H106" s="6"/>
       <c r="I106" s="3">
         <v>186</v>
       </c>
-      <c r="J106" s="16" t="s">
+      <c r="J106" s="13" t="s">
         <v>126</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="3">
         <v>295</v>
       </c>
-      <c r="M106" s="1" t="s">
+      <c r="M106" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="107" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="6"/>
+      <c r="O106" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H107" s="6"/>
       <c r="I107" s="3">
         <v>187</v>
       </c>
-      <c r="J107" s="16" t="s">
+      <c r="J107" s="13" t="s">
         <v>162</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="3">
         <v>296</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="M107" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="108" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="6"/>
+      <c r="O107" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H108" s="6"/>
       <c r="I108" s="3">
         <v>188</v>
       </c>
-      <c r="J108" s="16" t="s">
+      <c r="J108" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="K108" s="6"/>
+      <c r="K108" s="6">
+        <v>85</v>
+      </c>
       <c r="L108" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="109" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M108" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N108" s="6"/>
+      <c r="O108" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H109" s="6"/>
       <c r="I109" s="3">
         <v>189</v>
       </c>
-      <c r="J109" s="16" t="s">
+      <c r="J109" s="13" t="s">
         <v>65</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="2">
         <v>298</v>
       </c>
-    </row>
-    <row r="110" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N109" s="6"/>
+      <c r="O109" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H110" s="6"/>
       <c r="I110" s="3">
         <v>190</v>
       </c>
-      <c r="J110" s="16" t="s">
+      <c r="J110" s="13" t="s">
         <v>163</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="2">
         <v>299</v>
       </c>
-    </row>
-    <row r="111" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M110" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="N110" s="6"/>
+      <c r="O110" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H111" s="6"/>
       <c r="I111" s="3">
         <v>191</v>
       </c>
-      <c r="J111" s="16" t="s">
+      <c r="J111" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K111" s="6"/>
-      <c r="L111" s="2">
+      <c r="K111" s="6">
+        <v>86</v>
+      </c>
+      <c r="L111" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="112" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M111" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N111" s="6"/>
+      <c r="O111" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H112" s="6"/>
       <c r="I112" s="3">
         <v>192</v>
       </c>
-      <c r="J112" s="16" t="s">
+      <c r="J112" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K112" s="6"/>
-      <c r="L112" s="2">
+      <c r="L112" s="3">
         <v>301</v>
       </c>
+      <c r="M112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N112" s="6"/>
+      <c r="O112" s="2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N113" s="7"/>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N114" s="7"/>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N115" s="7"/>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N116" s="7"/>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N117" s="7"/>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N118" s="7"/>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N119" s="7"/>
+    </row>
+    <row r="120" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N120" s="7"/>
+    </row>
+    <row r="121" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N121" s="7"/>
+    </row>
+    <row r="122" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N122" s="7"/>
+    </row>
+    <row r="123" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N123" s="7"/>
+    </row>
+    <row r="124" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N124" s="7"/>
+    </row>
+    <row r="125" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N125" s="7"/>
+    </row>
+    <row r="126" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N126" s="7"/>
+    </row>
+    <row r="127" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N127" s="7"/>
+    </row>
+    <row r="128" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N128" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4004,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4021,10 +4725,10 @@
       <c r="B3" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>30</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>35</v>
       </c>
     </row>
@@ -4032,10 +4736,10 @@
       <c r="B4" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>65</v>
       </c>
     </row>
@@ -4043,10 +4747,10 @@
       <c r="B5" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>35</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>50</v>
       </c>
     </row>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F8BAEC-B04F-45FF-B75D-33BB347E015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="311">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -834,9 +835,6 @@
     <t>Fabricio Campos</t>
   </si>
   <si>
-    <t>Kayque Silva</t>
-  </si>
-  <si>
     <t>1º</t>
   </si>
   <si>
@@ -955,12 +953,18 @@
   </si>
   <si>
     <t>Gorete</t>
+  </si>
+  <si>
+    <t>Daniel Araújo</t>
+  </si>
+  <si>
+    <t>Pedrinho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1401,11 +1405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,12 +1431,14 @@
     <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>265</v>
@@ -1459,7 +1465,7 @@
         <v>302</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>189</v>
@@ -1476,13 +1482,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>18</v>
@@ -1493,7 +1499,7 @@
       <c r="I4" s="3">
         <v>84</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="13" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="6">
@@ -1535,7 +1541,7 @@
       <c r="I5" s="3">
         <v>85</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="13" t="s">
         <v>64</v>
       </c>
       <c r="K5" s="6"/>
@@ -1552,7 +1558,7 @@
         <v>304</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>192</v>
@@ -1575,7 +1581,7 @@
       <c r="I6" s="3">
         <v>86</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="13" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="6"/>
@@ -1590,7 +1596,7 @@
         <v>305</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>146</v>
@@ -1623,7 +1629,7 @@
       <c r="I7" s="3">
         <v>87</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="13" t="s">
         <v>66</v>
       </c>
       <c r="K7" s="6"/>
@@ -1682,7 +1688,7 @@
       <c r="L8" s="2">
         <v>197</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="13" t="s">
         <v>170</v>
       </c>
       <c r="N8" s="6"/>
@@ -1690,7 +1696,7 @@
         <v>307</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>267</v>
@@ -1707,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1732,7 +1738,7 @@
       <c r="L9" s="2">
         <v>198</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="13" t="s">
         <v>171</v>
       </c>
       <c r="N9" s="6">
@@ -1742,7 +1748,7 @@
         <v>308</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>268</v>
@@ -1775,7 +1781,7 @@
       <c r="L10" s="2">
         <v>199</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="13" t="s">
         <v>172</v>
       </c>
       <c r="N10" s="6"/>
@@ -1783,10 +1789,10 @@
         <v>309</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1814,7 +1820,7 @@
       <c r="L11" s="2">
         <v>200</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="13" t="s">
         <v>173</v>
       </c>
       <c r="N11" s="6">
@@ -1824,10 +1830,10 @@
         <v>310</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1852,14 +1858,14 @@
       <c r="I12" s="2">
         <v>92</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="13" t="s">
         <v>183</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="2">
         <v>201</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="13" t="s">
         <v>174</v>
       </c>
       <c r="N12" s="6"/>
@@ -1870,7 +1876,7 @@
         <v>55</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1893,7 +1899,7 @@
       <c r="I13" s="2">
         <v>93</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="6">
@@ -1911,8 +1917,11 @@
       <c r="O13" s="3">
         <v>312</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>292</v>
+      <c r="P13" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1933,7 +1942,7 @@
       <c r="I14" s="2">
         <v>94</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="13" t="s">
         <v>74</v>
       </c>
       <c r="K14" s="6"/>
@@ -1947,8 +1956,8 @@
       <c r="O14" s="3">
         <v>313</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>294</v>
+      <c r="P14" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1956,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="3">
@@ -1985,8 +1994,8 @@
       <c r="O15" s="3">
         <v>314</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>293</v>
+      <c r="P15" s="13" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2018,7 +2027,7 @@
       <c r="L16" s="2">
         <v>205</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="13" t="s">
         <v>93</v>
       </c>
       <c r="N16" s="6">
@@ -2028,7 +2037,7 @@
         <v>315</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -2052,7 +2061,7 @@
       <c r="L17" s="2">
         <v>206</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="13" t="s">
         <v>100</v>
       </c>
       <c r="N17" s="6"/>
@@ -2082,7 +2091,7 @@
       <c r="L18" s="2">
         <v>207</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="13" t="s">
         <v>101</v>
       </c>
       <c r="N18" s="6"/>
@@ -2090,7 +2099,7 @@
         <v>317</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -2116,7 +2125,7 @@
       <c r="L19" s="2">
         <v>208</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="13" t="s">
         <v>102</v>
       </c>
       <c r="N19" s="6">
@@ -2126,12 +2135,12 @@
         <v>318</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="3">
@@ -2151,7 +2160,7 @@
       <c r="L20" s="2">
         <v>209</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="13" t="s">
         <v>103</v>
       </c>
       <c r="N20" s="6"/>
@@ -2159,7 +2168,7 @@
         <v>319</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -2181,14 +2190,14 @@
       <c r="L21" s="2">
         <v>210</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="13" t="s">
         <v>64</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="2">
         <v>320</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2206,21 +2215,21 @@
       <c r="I22" s="3">
         <v>102</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="13" t="s">
         <v>96</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="2">
         <v>211</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="13" t="s">
         <v>104</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="2">
         <v>321</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="13" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2231,14 +2240,14 @@
       <c r="F23" s="2">
         <v>19</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="3">
         <v>103</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="13" t="s">
         <v>97</v>
       </c>
       <c r="K23" s="6">
@@ -2254,8 +2263,8 @@
       <c r="O23" s="2">
         <v>322</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>301</v>
+      <c r="P23" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -2263,14 +2272,14 @@
       <c r="F24" s="2">
         <v>20</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="3">
         <v>104</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K24" s="6"/>
@@ -2284,8 +2293,8 @@
       <c r="O24" s="2">
         <v>323</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>302</v>
+      <c r="P24" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -2293,14 +2302,14 @@
       <c r="F25" s="2">
         <v>21</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="3">
         <v>105</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="13" t="s">
         <v>99</v>
       </c>
       <c r="K25" s="6"/>
@@ -2314,7 +2323,7 @@
       <c r="O25" s="3">
         <v>324</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2332,7 +2341,7 @@
       <c r="I26" s="3">
         <v>106</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="13" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="6"/>
@@ -2346,8 +2355,8 @@
       <c r="O26" s="3">
         <v>325</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>303</v>
+      <c r="P26" s="13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -2362,7 +2371,7 @@
       <c r="I27" s="3">
         <v>107</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="13" t="s">
         <v>85</v>
       </c>
       <c r="K27" s="6">
@@ -2398,7 +2407,7 @@
       <c r="I28" s="2">
         <v>108</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="13" t="s">
         <v>184</v>
       </c>
       <c r="K28" s="6"/>
@@ -2413,7 +2422,7 @@
         <v>327</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -2428,7 +2437,7 @@
       <c r="I29" s="2">
         <v>109</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="13" t="s">
         <v>185</v>
       </c>
       <c r="K29" s="6"/>
@@ -2443,7 +2452,7 @@
         <v>328</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -2458,7 +2467,7 @@
       <c r="I30" s="2">
         <v>110</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="13" t="s">
         <v>186</v>
       </c>
       <c r="K30" s="6">
@@ -2467,7 +2476,7 @@
       <c r="L30" s="3">
         <v>219</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="13" t="s">
         <v>159</v>
       </c>
       <c r="N30" s="6"/>
@@ -2475,7 +2484,7 @@
         <v>329</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -2490,22 +2499,22 @@
       <c r="I31" s="2">
         <v>111</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="13" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="3">
         <v>220</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="13" t="s">
         <v>160</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="3">
         <v>330</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>305</v>
+      <c r="P31" s="13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2520,14 +2529,14 @@
       <c r="I32" s="2">
         <v>112</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="3">
         <v>221</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="13" t="s">
         <v>37</v>
       </c>
       <c r="N32" s="6"/>
@@ -2535,7 +2544,7 @@
         <v>331</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
@@ -2554,14 +2563,14 @@
       <c r="I33" s="3">
         <v>113</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="13" t="s">
         <v>105</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="3">
         <v>222</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="13" t="s">
         <v>161</v>
       </c>
       <c r="N33" s="6"/>
@@ -2584,14 +2593,14 @@
       <c r="I34" s="3">
         <v>114</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="13" t="s">
         <v>106</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="3">
         <v>223</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="N34" s="6"/>
@@ -2618,7 +2627,7 @@
       <c r="I35" s="2">
         <v>115</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="13" t="s">
         <v>107</v>
       </c>
       <c r="K35" s="6">
@@ -2635,7 +2644,7 @@
         <v>334</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
@@ -2650,7 +2659,7 @@
       <c r="I36" s="2">
         <v>116</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="13" t="s">
         <v>100</v>
       </c>
       <c r="K36" s="6"/>
@@ -2665,7 +2674,7 @@
         <v>335</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
@@ -2680,7 +2689,7 @@
       <c r="I37" s="2">
         <v>117</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="13" t="s">
         <v>74</v>
       </c>
       <c r="K37" s="6"/>
@@ -2856,7 +2865,7 @@
       <c r="I43" s="3">
         <v>123</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="13" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="6"/>
@@ -2883,7 +2892,7 @@
       <c r="I44" s="3">
         <v>124</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="13" t="s">
         <v>110</v>
       </c>
       <c r="K44" s="6"/>
@@ -2910,7 +2919,7 @@
       <c r="I45" s="3">
         <v>125</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="13" t="s">
         <v>33</v>
       </c>
       <c r="K45" s="6">
@@ -2941,7 +2950,7 @@
       <c r="I46" s="2">
         <v>126</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="13" t="s">
         <v>158</v>
       </c>
       <c r="K46" s="6"/>
@@ -2970,7 +2979,7 @@
       <c r="I47" s="2">
         <v>127</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K47" s="6"/>
@@ -3086,8 +3095,8 @@
       <c r="I51" s="2">
         <v>131</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>299</v>
+      <c r="J51" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="2">
@@ -3113,7 +3122,7 @@
       <c r="I52" s="2">
         <v>132</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="13" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="6"/>
@@ -3140,8 +3149,8 @@
       <c r="I53" s="2">
         <v>133</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>300</v>
+      <c r="J53" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="K53" s="6">
         <v>70</v>
@@ -3169,8 +3178,8 @@
       <c r="I54" s="2">
         <v>134</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>301</v>
+      <c r="J54" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="3">
@@ -3196,7 +3205,7 @@
       <c r="I55" s="2">
         <v>135</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K55" s="6"/>
@@ -3225,7 +3234,7 @@
       <c r="I56" s="3">
         <v>136</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="13" t="s">
         <v>113</v>
       </c>
       <c r="K56" s="6"/>
@@ -3254,7 +3263,7 @@
       <c r="I57" s="3">
         <v>137</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="13" t="s">
         <v>114</v>
       </c>
       <c r="K57" s="6">
@@ -3283,7 +3292,7 @@
       <c r="I58" s="3">
         <v>138</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="13" t="s">
         <v>115</v>
       </c>
       <c r="K58" s="6"/>
@@ -3312,7 +3321,7 @@
       <c r="I59" s="3">
         <v>139</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="13" t="s">
         <v>116</v>
       </c>
       <c r="K59" s="6"/>
@@ -3341,7 +3350,7 @@
       <c r="I60" s="2">
         <v>140</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="13" t="s">
         <v>117</v>
       </c>
       <c r="K60" s="6">
@@ -3372,7 +3381,7 @@
       <c r="I61" s="2">
         <v>141</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="13" t="s">
         <v>118</v>
       </c>
       <c r="K61" s="6"/>
@@ -3399,7 +3408,7 @@
       <c r="I62" s="2">
         <v>142</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="13" t="s">
         <v>114</v>
       </c>
       <c r="K62" s="6"/>
@@ -3428,7 +3437,7 @@
       <c r="I63" s="2">
         <v>143</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="13" t="s">
         <v>119</v>
       </c>
       <c r="K63" s="6"/>
@@ -3455,7 +3464,7 @@
       <c r="I64" s="2">
         <v>144</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="13" t="s">
         <v>181</v>
       </c>
       <c r="K64" s="6">
@@ -4220,7 +4229,7 @@
       <c r="I92" s="2">
         <v>172</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="13" t="s">
         <v>147</v>
       </c>
       <c r="K92" s="6"/>
@@ -4240,7 +4249,7 @@
       <c r="I93" s="2">
         <v>173</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K93" s="6"/>
@@ -4260,7 +4269,7 @@
       <c r="I94" s="2">
         <v>174</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="13" t="s">
         <v>148</v>
       </c>
       <c r="K94" s="6"/>
@@ -4501,8 +4510,8 @@
       <c r="L105" s="3">
         <v>294</v>
       </c>
-      <c r="M105" s="3" t="s">
-        <v>280</v>
+      <c r="M105" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="N105" s="6"/>
       <c r="O105" s="2">
@@ -4521,8 +4530,8 @@
       <c r="L106" s="3">
         <v>295</v>
       </c>
-      <c r="M106" s="3" t="s">
-        <v>281</v>
+      <c r="M106" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="N106" s="6"/>
       <c r="O106" s="2">
@@ -4541,7 +4550,7 @@
       <c r="L107" s="3">
         <v>296</v>
       </c>
-      <c r="M107" s="3" t="s">
+      <c r="M107" s="13" t="s">
         <v>98</v>
       </c>
       <c r="N107" s="6"/>
@@ -4564,7 +4573,7 @@
         <v>297</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N108" s="6"/>
       <c r="O108" s="2">
@@ -4604,7 +4613,7 @@
         <v>299</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N110" s="6"/>
       <c r="O110" s="2">
@@ -4626,7 +4635,7 @@
         <v>300</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N111" s="6"/>
       <c r="O111" s="2">
@@ -4708,7 +4717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4723,7 +4732,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="10">
         <v>30</v>
@@ -4734,7 +4743,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="10">
         <v>50</v>
@@ -4745,7 +4754,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="10">
         <v>35</v>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F8BAEC-B04F-45FF-B75D-33BB347E015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="314">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -959,12 +958,21 @@
   </si>
   <si>
     <t>Pedrinho</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Andy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1405,11 +1413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1505,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>63</v>
@@ -1539,7 +1547,7 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="3">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>64</v>
@@ -1578,9 +1586,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="3">
-        <v>86</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="13" t="s">
         <v>65</v>
       </c>
@@ -1626,9 +1632,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="3">
-        <v>87</v>
-      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="13" t="s">
         <v>66</v>
       </c>
@@ -1643,7 +1647,7 @@
       <c r="O7" s="2">
         <v>306</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="13" t="s">
         <v>47</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -1670,14 +1674,14 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="6">
         <v>27</v>
       </c>
       <c r="I8" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>67</v>
@@ -1695,7 +1699,7 @@
       <c r="O8" s="2">
         <v>307</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="13" t="s">
         <v>287</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -1721,15 +1725,13 @@
       <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>68</v>
@@ -1764,16 +1766,14 @@
       <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="2">
-        <v>90</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="13" t="s">
         <v>69</v>
       </c>
@@ -1803,15 +1803,15 @@
         <v>263</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="3">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>70</v>
@@ -1846,8 +1846,8 @@
       <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
-        <v>8</v>
+      <c r="F12" s="3">
+        <v>7</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>9</v>
@@ -1856,7 +1856,7 @@
         <v>28</v>
       </c>
       <c r="I12" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>183</v>
@@ -1889,15 +1889,15 @@
       <c r="E13" s="6">
         <v>6</v>
       </c>
-      <c r="F13" s="3">
-        <v>9</v>
+      <c r="F13" s="2">
+        <v>8</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>55</v>
@@ -1932,15 +1932,15 @@
         <v>151</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="3">
-        <v>10</v>
+      <c r="F14" s="2">
+        <v>9</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>74</v>
@@ -1968,8 +1968,8 @@
         <v>277</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="3">
-        <v>11</v>
+      <c r="F15" s="2">
+        <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>12</v>
@@ -1977,8 +1977,8 @@
       <c r="H15" s="6">
         <v>29</v>
       </c>
-      <c r="I15" s="3">
-        <v>95</v>
+      <c r="I15" s="2">
+        <v>88</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>75</v>
@@ -2006,8 +2006,8 @@
         <v>264</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="3">
-        <v>12</v>
+      <c r="F16" s="2">
+        <v>11</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>77</v>
@@ -2015,8 +2015,8 @@
       <c r="H16" s="6">
         <v>30</v>
       </c>
-      <c r="I16" s="3">
-        <v>96</v>
+      <c r="I16" s="2">
+        <v>89</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>260</v>
@@ -2044,15 +2044,15 @@
       <c r="E17" s="6">
         <v>7</v>
       </c>
-      <c r="F17" s="2">
-        <v>13</v>
+      <c r="F17" s="3">
+        <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="3">
-        <v>97</v>
+      <c r="I17" s="2">
+        <v>90</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>76</v>
@@ -2074,15 +2074,15 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
-      <c r="F18" s="2">
-        <v>14</v>
+      <c r="F18" s="3">
+        <v>13</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="3">
-        <v>98</v>
+      <c r="I18" s="2">
+        <v>91</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>50</v>
@@ -2106,8 +2106,8 @@
       <c r="E19" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
-        <v>15</v>
+      <c r="F19" s="2">
+        <v>14</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>14</v>
@@ -2116,9 +2116,9 @@
         <v>31</v>
       </c>
       <c r="I19" s="2">
-        <v>99</v>
-      </c>
-      <c r="J19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>93</v>
       </c>
       <c r="K19" s="6"/>
@@ -2143,17 +2143,17 @@
         <v>306</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="3">
-        <v>16</v>
+      <c r="F20" s="2">
+        <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="2">
-        <v>100</v>
-      </c>
-      <c r="J20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>94</v>
       </c>
       <c r="K20" s="6"/>
@@ -2173,17 +2173,17 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
-      <c r="F21" s="3">
-        <v>17</v>
+      <c r="F21" s="2">
+        <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="2">
-        <v>101</v>
-      </c>
-      <c r="J21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>95</v>
       </c>
       <c r="K21" s="6"/>
@@ -2203,8 +2203,8 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
-      <c r="F22" s="3">
-        <v>18</v>
+      <c r="F22" s="2">
+        <v>17</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>80</v>
@@ -2212,8 +2212,8 @@
       <c r="H22" s="6">
         <v>32</v>
       </c>
-      <c r="I22" s="3">
-        <v>102</v>
+      <c r="I22" s="2">
+        <v>95</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>96</v>
@@ -2237,15 +2237,15 @@
       <c r="E23" s="6">
         <v>9</v>
       </c>
-      <c r="F23" s="2">
-        <v>19</v>
+      <c r="F23" s="3">
+        <v>18</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="3">
-        <v>103</v>
+      <c r="I23" s="2">
+        <v>96</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>97</v>
@@ -2269,15 +2269,15 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
-      <c r="F24" s="2">
-        <v>20</v>
+      <c r="F24" s="3">
+        <v>19</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="3">
-        <v>104</v>
+      <c r="I24" s="2">
+        <v>97</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>98</v>
@@ -2299,15 +2299,15 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
-      <c r="F25" s="2">
-        <v>21</v>
+      <c r="F25" s="3">
+        <v>20</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="3">
-        <v>105</v>
+      <c r="I25" s="2">
+        <v>98</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>99</v>
@@ -2331,15 +2331,15 @@
       <c r="E26" s="6">
         <v>10</v>
       </c>
-      <c r="F26" s="3">
-        <v>22</v>
+      <c r="F26" s="2">
+        <v>21</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="3">
-        <v>106</v>
+      <c r="I26" s="2">
+        <v>99</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>16</v>
@@ -2361,15 +2361,15 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
-      <c r="F27" s="3">
-        <v>23</v>
+      <c r="F27" s="2">
+        <v>22</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="3">
-        <v>107</v>
+      <c r="I27" s="2">
+        <v>100</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>85</v>
@@ -2387,7 +2387,7 @@
       <c r="O27" s="2">
         <v>326</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2395,8 +2395,8 @@
       <c r="E28" s="6">
         <v>11</v>
       </c>
-      <c r="F28" s="2">
-        <v>24</v>
+      <c r="F28" s="3">
+        <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>52</v>
@@ -2405,7 +2405,7 @@
         <v>34</v>
       </c>
       <c r="I28" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>184</v>
@@ -2421,21 +2421,21 @@
       <c r="O28" s="2">
         <v>327</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E29" s="6"/>
-      <c r="F29" s="2">
-        <v>25</v>
+      <c r="F29" s="3">
+        <v>24</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>185</v>
@@ -2451,21 +2451,21 @@
       <c r="O29" s="2">
         <v>328</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" s="13" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
-      <c r="F30" s="2">
-        <v>26</v>
+      <c r="F30" s="3">
+        <v>25</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>186</v>
@@ -2483,21 +2483,21 @@
       <c r="O30" s="2">
         <v>329</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="13" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
-      <c r="F31" s="2">
-        <v>27</v>
+      <c r="F31" s="3">
+        <v>26</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>33</v>
@@ -2519,15 +2519,15 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
-      <c r="F32" s="2">
-        <v>28</v>
+      <c r="F32" s="3">
+        <v>27</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>47</v>
@@ -2551,8 +2551,8 @@
       <c r="E33" s="6">
         <v>12</v>
       </c>
-      <c r="F33" s="3">
-        <v>29</v>
+      <c r="F33" s="2">
+        <v>28</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>23</v>
@@ -2560,8 +2560,8 @@
       <c r="H33" s="6">
         <v>35</v>
       </c>
-      <c r="I33" s="3">
-        <v>113</v>
+      <c r="I33" s="2">
+        <v>106</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>105</v>
@@ -2583,15 +2583,15 @@
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
-      <c r="F34" s="3">
-        <v>30</v>
+      <c r="F34" s="2">
+        <v>29</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="3">
-        <v>114</v>
+      <c r="I34" s="2">
+        <v>107</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>106</v>
@@ -2615,8 +2615,8 @@
       <c r="E35" s="6">
         <v>13</v>
       </c>
-      <c r="F35" s="2">
-        <v>31</v>
+      <c r="F35" s="3">
+        <v>30</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>25</v>
@@ -2625,7 +2625,7 @@
         <v>36</v>
       </c>
       <c r="I35" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>107</v>
@@ -2649,15 +2649,13 @@
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
-      <c r="F36" s="2">
-        <v>32</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>100</v>
@@ -2679,15 +2677,15 @@
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
-      <c r="F37" s="2">
-        <v>33</v>
+      <c r="F37" s="3">
+        <v>31</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>74</v>
@@ -2706,8 +2704,8 @@
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
-      <c r="F38" s="2">
-        <v>34</v>
+      <c r="F38" s="3">
+        <v>32</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>28</v>
@@ -2715,8 +2713,8 @@
       <c r="H38" s="6">
         <v>37</v>
       </c>
-      <c r="I38" s="3">
-        <v>118</v>
+      <c r="I38" s="2">
+        <v>111</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>108</v>
@@ -2739,15 +2737,15 @@
       <c r="E39" s="6">
         <v>14</v>
       </c>
-      <c r="F39" s="3">
-        <v>35</v>
+      <c r="F39" s="2">
+        <v>33</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="3">
-        <v>119</v>
+      <c r="I39" s="2">
+        <v>112</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>109</v>
@@ -2766,8 +2764,8 @@
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
-      <c r="F40" s="3">
-        <v>36</v>
+      <c r="F40" s="2">
+        <v>34</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>28</v>
@@ -2776,7 +2774,7 @@
         <v>38</v>
       </c>
       <c r="I40" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>166</v>
@@ -2795,15 +2793,15 @@
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
-      <c r="F41" s="3">
-        <v>37</v>
+      <c r="F41" s="2">
+        <v>35</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>55</v>
@@ -2822,15 +2820,15 @@
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
-      <c r="F42" s="3">
-        <v>38</v>
+      <c r="F42" s="2">
+        <v>36</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>17</v>
@@ -2853,8 +2851,8 @@
       <c r="E43" s="6">
         <v>15</v>
       </c>
-      <c r="F43" s="2">
-        <v>39</v>
+      <c r="F43" s="3">
+        <v>37</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>31</v>
@@ -2862,8 +2860,8 @@
       <c r="H43" s="6">
         <v>39</v>
       </c>
-      <c r="I43" s="3">
-        <v>123</v>
+      <c r="I43" s="2">
+        <v>116</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>45</v>
@@ -2882,15 +2880,15 @@
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
-      <c r="F44" s="2">
-        <v>40</v>
+      <c r="F44" s="3">
+        <v>38</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="3">
-        <v>124</v>
+      <c r="I44" s="2">
+        <v>117</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>110</v>
@@ -2909,15 +2907,15 @@
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
-      <c r="F45" s="2">
-        <v>41</v>
+      <c r="F45" s="3">
+        <v>39</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="3">
-        <v>125</v>
+      <c r="I45" s="2">
+        <v>118</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>33</v>
@@ -2938,8 +2936,8 @@
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
-      <c r="F46" s="2">
-        <v>42</v>
+      <c r="F46" s="3">
+        <v>40</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>84</v>
@@ -2948,7 +2946,7 @@
         <v>40</v>
       </c>
       <c r="I46" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>158</v>
@@ -2969,15 +2967,15 @@
       <c r="E47" s="6">
         <v>16</v>
       </c>
-      <c r="F47" s="3">
-        <v>43</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="2">
+        <v>41</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>55</v>
@@ -2996,17 +2994,17 @@
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E48" s="6"/>
-      <c r="F48" s="3">
-        <v>44</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="2">
+        <v>42</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H48" s="6">
         <v>41</v>
       </c>
-      <c r="I48" s="3">
-        <v>128</v>
+      <c r="I48" s="2">
+        <v>121</v>
       </c>
       <c r="J48" s="13" t="s">
         <v>128</v>
@@ -3025,15 +3023,15 @@
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E49" s="6"/>
-      <c r="F49" s="3">
-        <v>45</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="F49" s="2">
+        <v>43</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>36</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="3">
-        <v>129</v>
+      <c r="I49" s="2">
+        <v>122</v>
       </c>
       <c r="J49" s="13" t="s">
         <v>187</v>
@@ -3054,15 +3052,15 @@
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
-      <c r="F50" s="3">
-        <v>46</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="2">
+        <v>44</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="3">
-        <v>130</v>
+      <c r="I50" s="2">
+        <v>123</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>129</v>
@@ -3083,17 +3081,17 @@
       <c r="E51" s="6">
         <v>17</v>
       </c>
-      <c r="F51" s="2">
-        <v>47</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="F51" s="3">
+        <v>45</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H51" s="6">
         <v>42</v>
       </c>
       <c r="I51" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J51" s="13" t="s">
         <v>298</v>
@@ -3112,15 +3110,15 @@
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
-      <c r="F52" s="2">
-        <v>48</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="F52" s="3">
+        <v>46</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J52" s="13" t="s">
         <v>8</v>
@@ -3139,15 +3137,15 @@
     </row>
     <row r="53" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E53" s="6"/>
-      <c r="F53" s="2">
-        <v>49</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F53" s="3">
+        <v>47</v>
+      </c>
+      <c r="G53" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="2">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J53" s="13" t="s">
         <v>299</v>
@@ -3168,15 +3166,15 @@
     </row>
     <row r="54" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E54" s="6"/>
-      <c r="F54" s="2">
-        <v>50</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="3">
+        <v>48</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J54" s="13" t="s">
         <v>300</v>
@@ -3195,15 +3193,15 @@
     </row>
     <row r="55" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
-      <c r="F55" s="2">
-        <v>51</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="F55" s="3">
+        <v>49</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>55</v>
@@ -3222,17 +3220,17 @@
     </row>
     <row r="56" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
-      <c r="F56" s="2">
-        <v>52</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F56" s="3">
+        <v>50</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H56" s="6">
         <v>43</v>
       </c>
-      <c r="I56" s="3">
-        <v>136</v>
+      <c r="I56" s="2">
+        <v>129</v>
       </c>
       <c r="J56" s="13" t="s">
         <v>113</v>
@@ -3253,15 +3251,13 @@
       <c r="E57" s="6">
         <v>18</v>
       </c>
-      <c r="F57" s="3">
-        <v>53</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="3">
-        <v>137</v>
+      <c r="I57" s="2">
+        <v>130</v>
       </c>
       <c r="J57" s="13" t="s">
         <v>114</v>
@@ -3282,15 +3278,15 @@
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E58" s="6"/>
-      <c r="F58" s="3">
-        <v>54</v>
+      <c r="F58" s="2">
+        <v>51</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="3">
-        <v>138</v>
+      <c r="I58" s="2">
+        <v>131</v>
       </c>
       <c r="J58" s="13" t="s">
         <v>115</v>
@@ -3311,15 +3307,13 @@
       <c r="E59" s="6">
         <v>19</v>
       </c>
-      <c r="F59" s="2">
-        <v>55</v>
-      </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="3">
-        <v>139</v>
+      <c r="I59" s="2">
+        <v>132</v>
       </c>
       <c r="J59" s="13" t="s">
         <v>116</v>
@@ -3338,9 +3332,7 @@
     </row>
     <row r="60" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
-      <c r="F60" s="2">
-        <v>56</v>
-      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="13" t="s">
         <v>45</v>
       </c>
@@ -3348,7 +3340,7 @@
         <v>44</v>
       </c>
       <c r="I60" s="2">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>117</v>
@@ -3371,15 +3363,13 @@
       <c r="E61" s="6">
         <v>20</v>
       </c>
-      <c r="F61" s="3">
-        <v>57</v>
-      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J61" s="13" t="s">
         <v>118</v>
@@ -3398,15 +3388,13 @@
     </row>
     <row r="62" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
-      <c r="F62" s="3">
-        <v>58</v>
-      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="13" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J62" s="13" t="s">
         <v>114</v>
@@ -3427,15 +3415,13 @@
       <c r="E63" s="6">
         <v>21</v>
       </c>
-      <c r="F63" s="2">
-        <v>59</v>
-      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="13" t="s">
         <v>48</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J63" s="13" t="s">
         <v>119</v>
@@ -3454,15 +3440,13 @@
     </row>
     <row r="64" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E64" s="6"/>
-      <c r="F64" s="2">
-        <v>60</v>
-      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J64" s="13" t="s">
         <v>181</v>
@@ -3483,19 +3467,17 @@
     </row>
     <row r="65" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
-      <c r="F65" s="2">
-        <v>61</v>
-      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H65" s="6">
         <v>45</v>
       </c>
-      <c r="I65" s="3">
-        <v>145</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="I65" s="2">
+        <v>138</v>
+      </c>
+      <c r="J65" s="13" t="s">
         <v>120</v>
       </c>
       <c r="K65" s="6">
@@ -3514,17 +3496,15 @@
     </row>
     <row r="66" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
-      <c r="F66" s="2">
-        <v>62</v>
-      </c>
+      <c r="F66" s="3"/>
       <c r="G66" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="3">
-        <v>146</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="I66" s="2">
+        <v>139</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>121</v>
       </c>
       <c r="K66" s="6"/>
@@ -3542,16 +3522,16 @@
     <row r="67" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
       <c r="F67" s="2">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="3">
-        <v>147</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="I67" s="2">
+        <v>140</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>83</v>
       </c>
       <c r="K67" s="6"/>
@@ -3569,16 +3549,16 @@
     <row r="68" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E68" s="6"/>
       <c r="F68" s="2">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="3">
-        <v>148</v>
-      </c>
-      <c r="J68" s="3" t="s">
+      <c r="I68" s="2">
+        <v>141</v>
+      </c>
+      <c r="J68" s="13" t="s">
         <v>122</v>
       </c>
       <c r="K68" s="6"/>
@@ -3596,7 +3576,7 @@
     <row r="69" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E69" s="6"/>
       <c r="F69" s="2">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>87</v>
@@ -3605,9 +3585,9 @@
         <v>46</v>
       </c>
       <c r="I69" s="2">
-        <v>149</v>
-      </c>
-      <c r="J69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J69" s="13" t="s">
         <v>123</v>
       </c>
       <c r="K69" s="6"/>
@@ -3625,16 +3605,16 @@
     <row r="70" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
       <c r="F70" s="2">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="2">
-        <v>150</v>
-      </c>
-      <c r="J70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K70" s="6">
@@ -3656,16 +3636,16 @@
         <v>22</v>
       </c>
       <c r="F71" s="3">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="2">
-        <v>151</v>
-      </c>
-      <c r="J71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J71" s="13" t="s">
         <v>124</v>
       </c>
       <c r="K71" s="6"/>
@@ -3685,7 +3665,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="2">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>57</v>
@@ -3693,10 +3673,10 @@
       <c r="H72" s="6">
         <v>47</v>
       </c>
-      <c r="I72" s="3">
-        <v>152</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="2">
+        <v>145</v>
+      </c>
+      <c r="J72" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K72" s="6"/>
@@ -3714,16 +3694,16 @@
     <row r="73" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E73" s="6"/>
       <c r="F73" s="2">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="3">
-        <v>153</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="I73" s="2">
+        <v>146</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>188</v>
       </c>
       <c r="K73" s="6"/>
@@ -3741,16 +3721,16 @@
     <row r="74" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E74" s="6"/>
       <c r="F74" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="3">
-        <v>154</v>
-      </c>
-      <c r="J74" s="3" t="s">
+      <c r="I74" s="2">
+        <v>147</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K74" s="6"/>
@@ -3767,8 +3747,8 @@
     </row>
     <row r="75" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
-      <c r="F75" s="2">
-        <v>71</v>
+      <c r="F75" s="3">
+        <v>60</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>60</v>
@@ -3777,7 +3757,7 @@
         <v>48</v>
       </c>
       <c r="I75" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J75" s="13" t="s">
         <v>130</v>
@@ -3798,15 +3778,15 @@
     </row>
     <row r="76" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
-      <c r="F76" s="2">
-        <v>72</v>
+      <c r="F76" s="3">
+        <v>61</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>61</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J76" s="13" t="s">
         <v>131</v>
@@ -3827,15 +3807,15 @@
       <c r="E77" s="6">
         <v>24</v>
       </c>
-      <c r="F77" s="3">
-        <v>73</v>
+      <c r="F77" s="2">
+        <v>62</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>89</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J77" s="13" t="s">
         <v>132</v>
@@ -3854,15 +3834,15 @@
     </row>
     <row r="78" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
-      <c r="F78" s="3">
-        <v>74</v>
+      <c r="F78" s="2">
+        <v>63</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>90</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J78" s="13" t="s">
         <v>133</v>
@@ -3883,15 +3863,15 @@
     </row>
     <row r="79" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E79" s="6"/>
-      <c r="F79" s="3">
-        <v>75</v>
+      <c r="F79" s="2">
+        <v>64</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J79" s="13" t="s">
         <v>134</v>
@@ -3910,8 +3890,8 @@
     </row>
     <row r="80" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
-      <c r="F80" s="3">
-        <v>76</v>
+      <c r="F80" s="2">
+        <v>65</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>30</v>
@@ -3919,8 +3899,8 @@
       <c r="H80" s="6">
         <v>49</v>
       </c>
-      <c r="I80" s="3">
-        <v>160</v>
+      <c r="I80" s="2">
+        <v>153</v>
       </c>
       <c r="J80" s="13" t="s">
         <v>138</v>
@@ -3939,15 +3919,15 @@
     </row>
     <row r="81" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
-      <c r="F81" s="3">
-        <v>77</v>
+      <c r="F81" s="2">
+        <v>66</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="3">
-        <v>161</v>
+      <c r="I81" s="2">
+        <v>154</v>
       </c>
       <c r="J81" s="13" t="s">
         <v>139</v>
@@ -3970,8 +3950,8 @@
       <c r="E82" s="6">
         <v>25</v>
       </c>
-      <c r="F82" s="2">
-        <v>78</v>
+      <c r="F82" s="3">
+        <v>67</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>91</v>
@@ -3980,7 +3960,7 @@
         <v>50</v>
       </c>
       <c r="I82" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J82" s="13" t="s">
         <v>140</v>
@@ -3999,15 +3979,15 @@
     </row>
     <row r="83" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E83" s="6"/>
-      <c r="F83" s="2">
-        <v>79</v>
+      <c r="F83" s="3">
+        <v>68</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J83" s="13" t="s">
         <v>55</v>
@@ -4026,8 +4006,8 @@
     </row>
     <row r="84" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E84" s="6"/>
-      <c r="F84" s="2">
-        <v>80</v>
+      <c r="F84" s="3">
+        <v>69</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>50</v>
@@ -4035,8 +4015,8 @@
       <c r="H84" s="6">
         <v>51</v>
       </c>
-      <c r="I84" s="3">
-        <v>164</v>
+      <c r="I84" s="2">
+        <v>157</v>
       </c>
       <c r="J84" s="14" t="s">
         <v>141</v>
@@ -4055,15 +4035,15 @@
     </row>
     <row r="85" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
-      <c r="F85" s="2">
-        <v>81</v>
+      <c r="F85" s="3">
+        <v>70</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H85" s="6"/>
-      <c r="I85" s="3">
-        <v>165</v>
+      <c r="I85" s="2">
+        <v>158</v>
       </c>
       <c r="J85" s="14" t="s">
         <v>142</v>
@@ -4083,7 +4063,7 @@
     <row r="86" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
       <c r="F86" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>179</v>
@@ -4092,7 +4072,7 @@
         <v>52</v>
       </c>
       <c r="I86" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J86" s="14" t="s">
         <v>143</v>
@@ -4112,14 +4092,14 @@
     <row r="87" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
       <c r="F87" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>180</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>144</v>
@@ -4139,11 +4119,18 @@
       </c>
     </row>
     <row r="88" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E88" s="6"/>
+      <c r="F88" s="3">
+        <v>73</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="H88" s="6">
         <v>53</v>
       </c>
-      <c r="I88" s="3">
-        <v>168</v>
+      <c r="I88" s="2">
+        <v>161</v>
       </c>
       <c r="J88" s="13" t="s">
         <v>182</v>
@@ -4161,9 +4148,16 @@
       </c>
     </row>
     <row r="89" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E89" s="6"/>
+      <c r="F89" s="3">
+        <v>74</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="H89" s="6"/>
-      <c r="I89" s="3">
-        <v>169</v>
+      <c r="I89" s="2">
+        <v>162</v>
       </c>
       <c r="J89" s="13" t="s">
         <v>176</v>
@@ -4181,9 +4175,16 @@
       </c>
     </row>
     <row r="90" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E90" s="6"/>
+      <c r="F90" s="3">
+        <v>75</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>312</v>
+      </c>
       <c r="H90" s="6"/>
-      <c r="I90" s="3">
-        <v>170</v>
+      <c r="I90" s="2">
+        <v>163</v>
       </c>
       <c r="J90" s="13" t="s">
         <v>145</v>
@@ -4201,9 +4202,16 @@
       </c>
     </row>
     <row r="91" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E91" s="6"/>
+      <c r="F91" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="H91" s="6"/>
-      <c r="I91" s="3">
-        <v>171</v>
+      <c r="I91" s="2">
+        <v>164</v>
       </c>
       <c r="J91" s="13" t="s">
         <v>65</v>
@@ -4223,11 +4231,18 @@
       </c>
     </row>
     <row r="92" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E92" s="6"/>
+      <c r="F92" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="H92" s="6">
         <v>54</v>
       </c>
       <c r="I92" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J92" s="13" t="s">
         <v>147</v>
@@ -4245,9 +4260,16 @@
       </c>
     </row>
     <row r="93" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E93" s="6"/>
+      <c r="F93" s="3">
+        <v>78</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="H93" s="6"/>
       <c r="I93" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J93" s="13" t="s">
         <v>55</v>
@@ -4265,9 +4287,16 @@
       </c>
     </row>
     <row r="94" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E94" s="6"/>
+      <c r="F94" s="3">
+        <v>79</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="H94" s="6"/>
       <c r="I94" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="J94" s="13" t="s">
         <v>148</v>
@@ -4288,8 +4317,8 @@
       <c r="H95" s="6">
         <v>55</v>
       </c>
-      <c r="I95" s="3">
-        <v>175</v>
+      <c r="I95" s="2">
+        <v>168</v>
       </c>
       <c r="J95" s="13" t="s">
         <v>154</v>
@@ -4310,8 +4339,8 @@
     </row>
     <row r="96" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H96" s="6"/>
-      <c r="I96" s="3">
-        <v>176</v>
+      <c r="I96" s="2">
+        <v>169</v>
       </c>
       <c r="J96" s="13" t="s">
         <v>82</v>
@@ -4330,8 +4359,8 @@
     </row>
     <row r="97" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H97" s="6"/>
-      <c r="I97" s="3">
-        <v>177</v>
+      <c r="I97" s="2">
+        <v>170</v>
       </c>
       <c r="J97" s="13" t="s">
         <v>61</v>
@@ -4350,8 +4379,8 @@
     </row>
     <row r="98" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H98" s="6"/>
-      <c r="I98" s="3">
-        <v>178</v>
+      <c r="I98" s="2">
+        <v>171</v>
       </c>
       <c r="J98" s="13" t="s">
         <v>55</v>
@@ -4372,8 +4401,8 @@
     </row>
     <row r="99" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H99" s="6"/>
-      <c r="I99" s="3">
-        <v>179</v>
+      <c r="I99" s="2">
+        <v>172</v>
       </c>
       <c r="J99" s="13" t="s">
         <v>7</v>
@@ -4392,8 +4421,8 @@
     </row>
     <row r="100" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H100" s="6"/>
-      <c r="I100" s="3">
-        <v>180</v>
+      <c r="I100" s="2">
+        <v>173</v>
       </c>
       <c r="J100" s="13" t="s">
         <v>53</v>
@@ -4415,7 +4444,7 @@
         <v>56</v>
       </c>
       <c r="I101" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J101" s="13" t="s">
         <v>155</v>
@@ -4437,7 +4466,7 @@
     <row r="102" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H102" s="6"/>
       <c r="I102" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J102" s="13" t="s">
         <v>55</v>
@@ -4457,9 +4486,9 @@
     <row r="103" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H103" s="6"/>
       <c r="I103" s="2">
-        <v>183</v>
-      </c>
-      <c r="J103" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J103" s="13" t="s">
         <v>156</v>
       </c>
       <c r="K103" s="6"/>
@@ -4477,9 +4506,9 @@
     <row r="104" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H104" s="6"/>
       <c r="I104" s="2">
-        <v>184</v>
-      </c>
-      <c r="J104" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J104" s="13" t="s">
         <v>157</v>
       </c>
       <c r="K104" s="6"/>
@@ -4498,8 +4527,8 @@
       <c r="H105" s="6">
         <v>57</v>
       </c>
-      <c r="I105" s="3">
-        <v>185</v>
+      <c r="I105" s="2">
+        <v>178</v>
       </c>
       <c r="J105" s="13" t="s">
         <v>164</v>
@@ -4520,8 +4549,8 @@
     </row>
     <row r="106" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H106" s="6"/>
-      <c r="I106" s="3">
-        <v>186</v>
+      <c r="I106" s="2">
+        <v>179</v>
       </c>
       <c r="J106" s="13" t="s">
         <v>126</v>
@@ -4540,8 +4569,8 @@
     </row>
     <row r="107" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H107" s="6"/>
-      <c r="I107" s="3">
-        <v>187</v>
+      <c r="I107" s="2">
+        <v>180</v>
       </c>
       <c r="J107" s="13" t="s">
         <v>162</v>
@@ -4560,8 +4589,8 @@
     </row>
     <row r="108" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H108" s="6"/>
-      <c r="I108" s="3">
-        <v>188</v>
+      <c r="I108" s="2">
+        <v>181</v>
       </c>
       <c r="J108" s="13" t="s">
         <v>165</v>
@@ -4572,7 +4601,7 @@
       <c r="L108" s="2">
         <v>297</v>
       </c>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="13" t="s">
         <v>281</v>
       </c>
       <c r="N108" s="6"/>
@@ -4582,8 +4611,8 @@
     </row>
     <row r="109" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H109" s="6"/>
-      <c r="I109" s="3">
-        <v>189</v>
+      <c r="I109" s="2">
+        <v>182</v>
       </c>
       <c r="J109" s="13" t="s">
         <v>65</v>
@@ -4592,7 +4621,7 @@
       <c r="L109" s="2">
         <v>298</v>
       </c>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="13" t="s">
         <v>144</v>
       </c>
       <c r="N109" s="6"/>
@@ -4602,8 +4631,8 @@
     </row>
     <row r="110" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H110" s="6"/>
-      <c r="I110" s="3">
-        <v>190</v>
+      <c r="I110" s="2">
+        <v>183</v>
       </c>
       <c r="J110" s="13" t="s">
         <v>163</v>
@@ -4612,7 +4641,7 @@
       <c r="L110" s="2">
         <v>299</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="13" t="s">
         <v>282</v>
       </c>
       <c r="N110" s="6"/>
@@ -4622,8 +4651,8 @@
     </row>
     <row r="111" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H111" s="6"/>
-      <c r="I111" s="3">
-        <v>191</v>
+      <c r="I111" s="2">
+        <v>184</v>
       </c>
       <c r="J111" s="13" t="s">
         <v>32</v>
@@ -4644,8 +4673,8 @@
     </row>
     <row r="112" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H112" s="6"/>
-      <c r="I112" s="3">
-        <v>192</v>
+      <c r="I112" s="2">
+        <v>185</v>
       </c>
       <c r="J112" s="13" t="s">
         <v>55</v>
@@ -4717,7 +4746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F8BAEC-B04F-45FF-B75D-33BB347E015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1779049A-9139-4D01-8D1F-A981BADED5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="315">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -959,6 +959,18 @@
   </si>
   <si>
     <t>Pedrinho</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Nilton</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1421,7 @@
   <dimension ref="A3:U128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,15 +1470,8 @@
         <v>265</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="N3" s="6">
-        <v>86</v>
-      </c>
-      <c r="O3" s="2">
-        <v>302</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="4"/>
       <c r="R3" s="3" t="s">
         <v>189</v>
       </c>
@@ -1494,29 +1499,29 @@
         <v>18</v>
       </c>
       <c r="H4" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L4" s="3">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>167</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="2">
-        <v>303</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>55</v>
+      <c r="O4" s="3">
+        <v>288</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>96</v>
@@ -1539,26 +1544,26 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="3">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>64</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="3">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>168</v>
       </c>
       <c r="N5" s="6">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O5" s="3">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>192</v>
@@ -1578,25 +1583,23 @@
         <v>2</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="3">
-        <v>86</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="13" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="3">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>155</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="3">
-        <v>305</v>
+      <c r="O6" s="2">
+        <v>290</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>146</v>
@@ -1626,25 +1629,23 @@
         <v>3</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="3">
-        <v>87</v>
-      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="13" t="s">
         <v>66</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="3">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>169</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="2">
-        <v>306</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>47</v>
+        <v>291</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>266</v>
@@ -1670,33 +1671,31 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K8" s="6">
-        <v>59</v>
-      </c>
-      <c r="L8" s="2">
-        <v>197</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="13" t="s">
         <v>170</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="2">
-        <v>307</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>287</v>
+      <c r="O8" s="3">
+        <v>292</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>267</v>
@@ -1721,34 +1720,30 @@
       <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>68</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="2">
-        <v>198</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="13" t="s">
         <v>171</v>
       </c>
       <c r="N9" s="6">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O9" s="3">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>268</v>
@@ -1764,32 +1759,30 @@
       <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="2">
-        <v>90</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="13" t="s">
         <v>69</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>172</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="3">
-        <v>309</v>
+      <c r="O10" s="2">
+        <v>294</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>276</v>
@@ -1803,34 +1796,34 @@
         <v>263</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="3">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>70</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>173</v>
       </c>
       <c r="N11" s="6">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O11" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>278</v>
@@ -1846,34 +1839,32 @@
       <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
-        <v>8</v>
+      <c r="F12" s="3">
+        <v>7</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="6">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2">
-        <v>92</v>
+        <v>31</v>
+      </c>
+      <c r="I12" s="3">
+        <v>85</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>183</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="2">
-        <v>201</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="13" t="s">
         <v>174</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="2">
-        <v>311</v>
+      <c r="O12" s="3">
+        <v>296</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>309</v>
@@ -1889,36 +1880,36 @@
       <c r="E13" s="6">
         <v>6</v>
       </c>
-      <c r="F13" s="3">
-        <v>9</v>
+      <c r="F13" s="2">
+        <v>8</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="2">
-        <v>93</v>
+      <c r="I13" s="3">
+        <v>86</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="6">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L13" s="3">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>175</v>
       </c>
       <c r="N13" s="6">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O13" s="3">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>310</v>
@@ -1932,32 +1923,32 @@
         <v>151</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="3">
-        <v>10</v>
+      <c r="F14" s="2">
+        <v>9</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="2">
-        <v>94</v>
+      <c r="I14" s="3">
+        <v>87</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>74</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>55</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="3">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1968,34 +1959,34 @@
         <v>277</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="3">
-        <v>11</v>
+      <c r="F15" s="2">
+        <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="6">
-        <v>29</v>
-      </c>
-      <c r="I15" s="3">
-        <v>95</v>
+        <v>32</v>
+      </c>
+      <c r="I15" s="2">
+        <v>88</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="3">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>127</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="3">
-        <v>314</v>
+      <c r="O15" s="2">
+        <v>299</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2006,136 +1997,136 @@
         <v>264</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="3">
-        <v>12</v>
+      <c r="F16" s="2">
+        <v>11</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="6">
-        <v>30</v>
-      </c>
-      <c r="I16" s="3">
-        <v>96</v>
+        <v>33</v>
+      </c>
+      <c r="I16" s="2">
+        <v>89</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="K16" s="6">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L16" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>93</v>
       </c>
       <c r="N16" s="6">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O16" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>294</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E17" s="6">
         <v>7</v>
       </c>
-      <c r="F17" s="2">
-        <v>13</v>
+      <c r="F17" s="3">
+        <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="3">
-        <v>97</v>
+      <c r="I17" s="2">
+        <v>90</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>100</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
-      <c r="F18" s="2">
-        <v>14</v>
+      <c r="F18" s="3">
+        <v>13</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="3">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="2">
-        <v>317</v>
+      <c r="N18" s="6">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>302</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E19" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
-        <v>15</v>
+      <c r="F19" s="2">
+        <v>14</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="6">
-        <v>31</v>
-      </c>
-      <c r="I19" s="2">
-        <v>99</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
+      </c>
+      <c r="I19" s="3">
+        <v>92</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="6">
-        <v>92</v>
-      </c>
+      <c r="N19" s="6"/>
       <c r="O19" s="3">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -2143,1512 +2134,1503 @@
         <v>306</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="3">
-        <v>16</v>
+      <c r="F20" s="2">
+        <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="2">
-        <v>100</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>94</v>
+      <c r="I20" s="3">
+        <v>93</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="3">
-        <v>319</v>
+      <c r="N20" s="6">
+        <v>101</v>
+      </c>
+      <c r="O20" s="2">
+        <v>304</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
-      <c r="F21" s="3">
-        <v>17</v>
+      <c r="F21" s="2">
+        <v>16</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="2">
-        <v>101</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="2">
-        <v>210</v>
+        <v>94</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="6">
+        <v>68</v>
+      </c>
+      <c r="L21" s="3">
+        <v>196</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>64</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
-      <c r="F22" s="3">
-        <v>18</v>
+      <c r="F22" s="2">
+        <v>17</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H22" s="6">
-        <v>32</v>
-      </c>
-      <c r="I22" s="3">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="I22" s="2">
+        <v>95</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="2">
-        <v>211</v>
+      <c r="L22" s="3">
+        <v>197</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>104</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>112</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>9</v>
       </c>
-      <c r="F23" s="2">
-        <v>19</v>
+      <c r="F23" s="3">
+        <v>18</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="3">
-        <v>103</v>
+      <c r="I23" s="2">
+        <v>96</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K23" s="6">
-        <v>62</v>
-      </c>
-      <c r="L23" s="3">
-        <v>212</v>
+        <v>69</v>
+      </c>
+      <c r="L23" s="2">
+        <v>198</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>65</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
-      <c r="F24" s="2">
-        <v>20</v>
+      <c r="F24" s="3">
+        <v>19</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="3">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="3">
-        <v>213</v>
+      <c r="L24" s="2">
+        <v>199</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="2">
-        <v>323</v>
+      <c r="N24" s="6">
+        <v>102</v>
+      </c>
+      <c r="O24" s="3">
+        <v>308</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
-      <c r="F25" s="2">
-        <v>21</v>
+      <c r="F25" s="3">
+        <v>20</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="3">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="3">
-        <v>214</v>
+      <c r="L25" s="2">
+        <v>200</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>72</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="3">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E26" s="6">
         <v>10</v>
       </c>
-      <c r="F26" s="3">
-        <v>22</v>
+      <c r="F26" s="2">
+        <v>21</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="3">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="3">
-        <v>215</v>
+      <c r="L26" s="2">
+        <v>201</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="3">
-        <v>325</v>
+      <c r="N26" s="6">
+        <v>103</v>
+      </c>
+      <c r="O26" s="2">
+        <v>310</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>302</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
-      <c r="F27" s="3">
-        <v>23</v>
+      <c r="F27" s="2">
+        <v>22</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="3">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K27" s="6">
-        <v>63</v>
-      </c>
-      <c r="L27" s="2">
-        <v>216</v>
+        <v>70</v>
+      </c>
+      <c r="L27" s="3">
+        <v>202</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>135</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="2">
-        <v>326</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>15</v>
+        <v>311</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
         <v>11</v>
       </c>
-      <c r="F28" s="2">
-        <v>24</v>
+      <c r="F28" s="3">
+        <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="6">
-        <v>34</v>
-      </c>
-      <c r="I28" s="2">
-        <v>108</v>
+        <v>36</v>
+      </c>
+      <c r="I28" s="3">
+        <v>101</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="2">
-        <v>217</v>
+      <c r="L28" s="3">
+        <v>203</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>136</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="2">
-        <v>327</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E29" s="6"/>
-      <c r="F29" s="2">
-        <v>25</v>
+      <c r="F29" s="3">
+        <v>24</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="K29" s="6"/>
-      <c r="L29" s="2">
-        <v>218</v>
+      <c r="L29" s="3">
+        <v>204</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="2">
-        <v>328</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
-      <c r="F30" s="2">
-        <v>26</v>
+      <c r="F30" s="3">
+        <v>25</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="2">
-        <v>110</v>
+      <c r="I30" s="3">
+        <v>103</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K30" s="6">
-        <v>64</v>
-      </c>
-      <c r="L30" s="3">
-        <v>219</v>
+        <v>71</v>
+      </c>
+      <c r="L30" s="2">
+        <v>205</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="2">
-        <v>329</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>303</v>
+      <c r="N30" s="6">
+        <v>104</v>
+      </c>
+      <c r="O30" s="3">
+        <v>314</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
-      <c r="F31" s="2">
-        <v>27</v>
+      <c r="F31" s="3">
+        <v>26</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="K31" s="6"/>
-      <c r="L31" s="3">
-        <v>220</v>
+      <c r="L31" s="2">
+        <v>206</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="3">
-        <v>330</v>
+      <c r="N31" s="6">
+        <v>105</v>
+      </c>
+      <c r="O31" s="2">
+        <v>315</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
-      <c r="F32" s="2">
-        <v>28</v>
+      <c r="F32" s="3">
+        <v>27</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="2">
-        <v>112</v>
+      <c r="I32" s="3">
+        <v>105</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="K32" s="6"/>
-      <c r="L32" s="3">
-        <v>221</v>
+      <c r="L32" s="2">
+        <v>207</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>37</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="6">
         <v>12</v>
       </c>
-      <c r="F33" s="3">
-        <v>29</v>
+      <c r="F33" s="2">
+        <v>28</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="6">
-        <v>35</v>
-      </c>
-      <c r="I33" s="3">
-        <v>113</v>
+        <v>37</v>
+      </c>
+      <c r="I33" s="2">
+        <v>106</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="3">
-        <v>222</v>
+      <c r="L33" s="2">
+        <v>208</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="2">
-        <v>332</v>
+      <c r="N33" s="6">
+        <v>106</v>
+      </c>
+      <c r="O33" s="3">
+        <v>317</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
-      <c r="F34" s="3">
-        <v>30</v>
+      <c r="F34" s="2">
+        <v>29</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="3">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="3">
-        <v>223</v>
+      <c r="L34" s="2">
+        <v>209</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="2">
-        <v>333</v>
+      <c r="O34" s="3">
+        <v>318</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>162</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E35" s="6">
         <v>13</v>
       </c>
-      <c r="F35" s="2">
-        <v>31</v>
+      <c r="F35" s="3">
+        <v>30</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I35" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K35" s="6">
-        <v>65</v>
-      </c>
-      <c r="L35" s="2">
-        <v>224</v>
+        <v>72</v>
+      </c>
+      <c r="L35" s="3">
+        <v>210</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>195</v>
       </c>
       <c r="N35" s="6"/>
-      <c r="O35" s="2">
-        <v>334</v>
+      <c r="O35" s="3">
+        <v>319</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
-      <c r="F36" s="2">
-        <v>32</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="2">
-        <v>116</v>
+      <c r="I36" s="3">
+        <v>109</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="2">
-        <v>225</v>
+      <c r="L36" s="3">
+        <v>211</v>
       </c>
       <c r="M36" s="13" t="s">
         <v>196</v>
       </c>
       <c r="N36" s="6"/>
-      <c r="O36" s="2">
-        <v>335</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>308</v>
+      <c r="O36" s="3">
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
-      <c r="F37" s="2">
-        <v>33</v>
+      <c r="F37" s="3">
+        <v>31</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="2">
-        <v>226</v>
+      <c r="L37" s="3">
+        <v>212</v>
       </c>
       <c r="M37" s="13" t="s">
         <v>197</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
-      <c r="F38" s="2">
-        <v>34</v>
+      <c r="F38" s="3">
+        <v>32</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H38" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I38" s="3">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K38" s="6">
-        <v>66</v>
-      </c>
-      <c r="L38" s="3">
-        <v>227</v>
+        <v>73</v>
+      </c>
+      <c r="L38" s="2">
+        <v>213</v>
       </c>
       <c r="M38" s="13" t="s">
         <v>131</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E39" s="6">
         <v>14</v>
       </c>
-      <c r="F39" s="3">
-        <v>35</v>
+      <c r="F39" s="2">
+        <v>33</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="3">
-        <v>119</v>
+      <c r="I39" s="2">
+        <v>112</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="3">
-        <v>228</v>
+      <c r="L39" s="2">
+        <v>214</v>
       </c>
       <c r="M39" s="13" t="s">
         <v>198</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
-      <c r="F40" s="3">
-        <v>36</v>
+      <c r="F40" s="2">
+        <v>34</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H40" s="6">
-        <v>38</v>
-      </c>
-      <c r="I40" s="2">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="I40" s="3">
+        <v>113</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="3">
-        <v>229</v>
+      <c r="L40" s="2">
+        <v>215</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>199</v>
       </c>
       <c r="N40" s="6"/>
       <c r="O40" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
-      <c r="F41" s="3">
-        <v>37</v>
+      <c r="F41" s="2">
+        <v>35</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="3">
-        <v>230</v>
+      <c r="L41" s="2">
+        <v>216</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>200</v>
       </c>
       <c r="N41" s="6"/>
       <c r="O41" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
-      <c r="F42" s="3">
-        <v>38</v>
+      <c r="F42" s="2">
+        <v>36</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="2">
-        <v>122</v>
+      <c r="I42" s="3">
+        <v>115</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="K42" s="6">
-        <v>67</v>
-      </c>
-      <c r="L42" s="2">
-        <v>231</v>
+        <v>74</v>
+      </c>
+      <c r="L42" s="3">
+        <v>217</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>203</v>
       </c>
       <c r="N42" s="6"/>
       <c r="O42" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E43" s="6">
         <v>15</v>
       </c>
-      <c r="F43" s="2">
-        <v>39</v>
+      <c r="F43" s="3">
+        <v>37</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>31</v>
       </c>
       <c r="H43" s="6">
-        <v>39</v>
-      </c>
-      <c r="I43" s="3">
-        <v>123</v>
+        <v>41</v>
+      </c>
+      <c r="I43" s="2">
+        <v>116</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="2">
-        <v>232</v>
+      <c r="L43" s="3">
+        <v>218</v>
       </c>
       <c r="M43" s="13" t="s">
         <v>201</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
-      <c r="F44" s="2">
-        <v>40</v>
+      <c r="F44" s="3">
+        <v>38</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="3">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="2">
-        <v>233</v>
+      <c r="L44" s="3">
+        <v>219</v>
       </c>
       <c r="M44" s="13" t="s">
         <v>202</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
-      <c r="F45" s="2">
-        <v>41</v>
+      <c r="F45" s="3">
+        <v>39</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="3">
-        <v>125</v>
+      <c r="I45" s="2">
+        <v>118</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K45" s="6">
-        <v>68</v>
-      </c>
-      <c r="L45" s="3">
-        <v>234</v>
+        <v>75</v>
+      </c>
+      <c r="L45" s="2">
+        <v>220</v>
       </c>
       <c r="M45" s="13" t="s">
         <v>204</v>
       </c>
       <c r="N45" s="6"/>
       <c r="O45" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
-      <c r="F46" s="2">
-        <v>42</v>
+      <c r="F46" s="3">
+        <v>40</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>84</v>
       </c>
       <c r="H46" s="6">
-        <v>40</v>
-      </c>
-      <c r="I46" s="2">
-        <v>126</v>
+        <v>42</v>
+      </c>
+      <c r="I46" s="3">
+        <v>119</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="3">
-        <v>235</v>
+      <c r="L46" s="2">
+        <v>221</v>
       </c>
       <c r="M46" s="13" t="s">
         <v>205</v>
       </c>
       <c r="N46" s="6"/>
       <c r="O46" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E47" s="6">
         <v>16</v>
       </c>
-      <c r="F47" s="3">
-        <v>43</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="2">
+        <v>41</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="3">
-        <v>236</v>
+      <c r="L47" s="2">
+        <v>222</v>
       </c>
       <c r="M47" s="13" t="s">
         <v>206</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E48" s="6"/>
-      <c r="F48" s="3">
-        <v>44</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="2">
+        <v>42</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H48" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I48" s="3">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="3">
-        <v>237</v>
+      <c r="L48" s="2">
+        <v>223</v>
       </c>
       <c r="M48" s="13" t="s">
         <v>207</v>
       </c>
       <c r="N48" s="6"/>
       <c r="O48" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E49" s="6"/>
-      <c r="F49" s="3">
-        <v>45</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="F49" s="2">
+        <v>43</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>36</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="3">
-        <v>129</v>
+      <c r="I49" s="2">
+        <v>122</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="K49" s="6">
-        <v>69</v>
-      </c>
-      <c r="L49" s="2">
-        <v>238</v>
+        <v>76</v>
+      </c>
+      <c r="L49" s="3">
+        <v>224</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>135</v>
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
-      <c r="F50" s="3">
-        <v>46</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="2">
+        <v>44</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="3">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K50" s="6"/>
-      <c r="L50" s="2">
-        <v>239</v>
+      <c r="L50" s="3">
+        <v>225</v>
       </c>
       <c r="M50" s="13" t="s">
         <v>208</v>
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E51" s="6">
         <v>17</v>
       </c>
-      <c r="F51" s="2">
-        <v>47</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="F51" s="3">
+        <v>45</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H51" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I51" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="K51" s="6"/>
-      <c r="L51" s="2">
-        <v>240</v>
+      <c r="L51" s="3">
+        <v>226</v>
       </c>
       <c r="M51" s="13" t="s">
         <v>209</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
-      <c r="F52" s="2">
-        <v>48</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="F52" s="3">
+        <v>46</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="2">
-        <v>132</v>
+      <c r="I52" s="3">
+        <v>125</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="2">
-        <v>241</v>
+      <c r="L52" s="3">
+        <v>227</v>
       </c>
       <c r="M52" s="13" t="s">
         <v>210</v>
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E53" s="6"/>
-      <c r="F53" s="2">
-        <v>49</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F53" s="3">
+        <v>47</v>
+      </c>
+      <c r="G53" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="2">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K53" s="6">
-        <v>70</v>
-      </c>
-      <c r="L53" s="3">
-        <v>242</v>
+        <v>77</v>
+      </c>
+      <c r="L53" s="2">
+        <v>228</v>
       </c>
       <c r="M53" s="13" t="s">
         <v>211</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E54" s="6"/>
-      <c r="F54" s="2">
-        <v>50</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="3">
+        <v>48</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="2">
-        <v>134</v>
+      <c r="I54" s="3">
+        <v>127</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="K54" s="6"/>
-      <c r="L54" s="3">
-        <v>243</v>
+      <c r="L54" s="2">
+        <v>229</v>
       </c>
       <c r="M54" s="13" t="s">
         <v>212</v>
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
-      <c r="F55" s="2">
-        <v>51</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="F55" s="3">
+        <v>49</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="K55" s="6"/>
-      <c r="L55" s="3">
-        <v>244</v>
+      <c r="L55" s="2">
+        <v>230</v>
       </c>
       <c r="M55" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
-      <c r="F56" s="2">
-        <v>52</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F56" s="3">
+        <v>50</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H56" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I56" s="3">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="K56" s="6"/>
-      <c r="L56" s="3">
-        <v>245</v>
+      <c r="L56" s="2">
+        <v>231</v>
       </c>
       <c r="M56" s="13" t="s">
         <v>214</v>
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <v>18</v>
       </c>
-      <c r="F57" s="3">
-        <v>53</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="3">
-        <v>137</v>
+      <c r="I57" s="2">
+        <v>130</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="K57" s="6">
-        <v>71</v>
-      </c>
-      <c r="L57" s="2">
-        <v>246</v>
+        <v>78</v>
+      </c>
+      <c r="L57" s="3">
+        <v>232</v>
       </c>
       <c r="M57" s="13" t="s">
         <v>216</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E58" s="6"/>
-      <c r="F58" s="3">
-        <v>54</v>
+      <c r="F58" s="2">
+        <v>51</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="3">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K58" s="6"/>
-      <c r="L58" s="2">
-        <v>247</v>
+      <c r="L58" s="3">
+        <v>233</v>
       </c>
       <c r="M58" s="13" t="s">
         <v>215</v>
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <v>19</v>
       </c>
-      <c r="F59" s="2">
-        <v>55</v>
-      </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="3">
-        <v>139</v>
+      <c r="I59" s="2">
+        <v>132</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K59" s="6"/>
-      <c r="L59" s="2">
-        <v>248</v>
+      <c r="L59" s="3">
+        <v>234</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>217</v>
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
-      <c r="F60" s="2">
-        <v>56</v>
-      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H60" s="6">
-        <v>44</v>
-      </c>
-      <c r="I60" s="2">
-        <v>140</v>
+        <v>46</v>
+      </c>
+      <c r="I60" s="3">
+        <v>133</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K60" s="6">
-        <v>72</v>
-      </c>
-      <c r="L60" s="3">
-        <v>249</v>
+        <v>79</v>
+      </c>
+      <c r="L60" s="2">
+        <v>235</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>218</v>
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
         <v>20</v>
       </c>
-      <c r="F61" s="3">
-        <v>57</v>
-      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K61" s="6"/>
-      <c r="L61" s="3">
-        <v>250</v>
+      <c r="L61" s="2">
+        <v>236</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>219</v>
       </c>
       <c r="N61" s="6"/>
       <c r="O61" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
-      <c r="F62" s="3">
-        <v>58</v>
-      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="13" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="2">
-        <v>142</v>
+      <c r="I62" s="3">
+        <v>135</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K62" s="6"/>
-      <c r="L62" s="3">
-        <v>251</v>
+      <c r="L62" s="2">
+        <v>237</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>220</v>
       </c>
       <c r="N62" s="6"/>
       <c r="O62" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <v>21</v>
       </c>
-      <c r="F63" s="2">
-        <v>59</v>
-      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="13" t="s">
         <v>48</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K63" s="6"/>
-      <c r="L63" s="3">
-        <v>252</v>
+      <c r="L63" s="2">
+        <v>238</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>221</v>
       </c>
       <c r="N63" s="6"/>
       <c r="O63" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E64" s="6"/>
-      <c r="F64" s="2">
-        <v>60</v>
-      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="2">
-        <v>144</v>
+      <c r="I64" s="3">
+        <v>137</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="K64" s="6">
-        <v>73</v>
-      </c>
-      <c r="L64" s="2">
-        <v>253</v>
+        <v>80</v>
+      </c>
+      <c r="L64" s="3">
+        <v>239</v>
       </c>
       <c r="M64" s="13" t="s">
         <v>93</v>
       </c>
       <c r="N64" s="6"/>
       <c r="O64" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
-      <c r="F65" s="2">
-        <v>61</v>
-      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H65" s="6">
-        <v>45</v>
-      </c>
-      <c r="I65" s="3">
-        <v>145</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>120</v>
+        <v>47</v>
+      </c>
+      <c r="I65" s="2">
+        <v>138</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="K65" s="6">
-        <v>74</v>
-      </c>
-      <c r="L65" s="3">
-        <v>254</v>
+        <v>81</v>
+      </c>
+      <c r="L65" s="2">
+        <v>240</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>223</v>
       </c>
       <c r="N65" s="6"/>
       <c r="O65" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
-      <c r="F66" s="2">
-        <v>62</v>
-      </c>
+      <c r="F66" s="3"/>
       <c r="G66" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="3">
-        <v>146</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="K66" s="6"/>
-      <c r="L66" s="3">
-        <v>255</v>
+      <c r="L66" s="2">
+        <v>241</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>222</v>
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="2">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
       <c r="F67" s="2">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="3">
-        <v>147</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>83</v>
+      <c r="I67" s="2">
+        <v>140</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="K67" s="6"/>
-      <c r="L67" s="3">
-        <v>256</v>
+      <c r="L67" s="2">
+        <v>242</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>224</v>
       </c>
       <c r="N67" s="6"/>
       <c r="O67" s="2">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E68" s="6"/>
       <c r="F68" s="2">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="3">
-        <v>148</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>122</v>
+        <v>141</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="K68" s="6"/>
-      <c r="L68" s="3">
-        <v>257</v>
+      <c r="L68" s="2">
+        <v>243</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>225</v>
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E69" s="6"/>
       <c r="F69" s="2">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H69" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I69" s="2">
-        <v>149</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="K69" s="6"/>
-      <c r="L69" s="3">
-        <v>258</v>
+      <c r="L69" s="2">
+        <v>244</v>
       </c>
       <c r="M69" s="13" t="s">
         <v>226</v>
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
       <c r="F70" s="2">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="2">
-        <v>150</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>55</v>
+      <c r="I70" s="3">
+        <v>143</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="K70" s="6">
-        <v>75</v>
-      </c>
-      <c r="L70" s="2">
-        <v>259</v>
+        <v>82</v>
+      </c>
+      <c r="L70" s="3">
+        <v>245</v>
       </c>
       <c r="M70" s="13" t="s">
         <v>227</v>
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="5:15" x14ac:dyDescent="0.25">
@@ -3656,28 +3638,28 @@
         <v>22</v>
       </c>
       <c r="F71" s="3">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="2">
-        <v>151</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="K71" s="6"/>
-      <c r="L71" s="2">
-        <v>260</v>
+      <c r="L71" s="3">
+        <v>246</v>
       </c>
       <c r="M71" s="13" t="s">
         <v>228</v>
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="2">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="5:15" x14ac:dyDescent="0.25">
@@ -3685,1029 +3667,1112 @@
         <v>23</v>
       </c>
       <c r="F72" s="2">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H72" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I72" s="3">
-        <v>152</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="K72" s="6"/>
-      <c r="L72" s="2">
-        <v>261</v>
+      <c r="L72" s="3">
+        <v>247</v>
       </c>
       <c r="M72" s="13" t="s">
         <v>229</v>
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E73" s="6"/>
       <c r="F73" s="2">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="3">
-        <v>153</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>188</v>
+      <c r="I73" s="2">
+        <v>146</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="K73" s="6"/>
-      <c r="L73" s="2">
-        <v>262</v>
+      <c r="L73" s="3">
+        <v>248</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>230</v>
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E74" s="6"/>
       <c r="F74" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="3">
-        <v>154</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="K74" s="6"/>
-      <c r="L74" s="2">
-        <v>263</v>
+      <c r="L74" s="3">
+        <v>249</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>231</v>
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
-      <c r="F75" s="2">
-        <v>71</v>
+      <c r="F75" s="3">
+        <v>60</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H75" s="6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I75" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="K75" s="6">
-        <v>76</v>
-      </c>
-      <c r="L75" s="3">
-        <v>264</v>
+        <v>83</v>
+      </c>
+      <c r="L75" s="2">
+        <v>250</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>66</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
-      <c r="F76" s="2">
-        <v>72</v>
+      <c r="F76" s="3">
+        <v>61</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>61</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="2">
-        <v>156</v>
+      <c r="I76" s="3">
+        <v>149</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K76" s="6"/>
-      <c r="L76" s="3">
-        <v>265</v>
+      <c r="L76" s="2">
+        <v>251</v>
       </c>
       <c r="M76" s="13" t="s">
         <v>232</v>
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="2">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E77" s="6">
         <v>24</v>
       </c>
-      <c r="F77" s="3">
-        <v>73</v>
+      <c r="F77" s="2">
+        <v>62</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>89</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K77" s="6"/>
-      <c r="L77" s="3">
-        <v>266</v>
+      <c r="L77" s="2">
+        <v>252</v>
       </c>
       <c r="M77" s="13" t="s">
         <v>233</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
-      <c r="F78" s="3">
-        <v>74</v>
+      <c r="F78" s="2">
+        <v>63</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>90</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="2">
-        <v>158</v>
+      <c r="I78" s="3">
+        <v>151</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K78" s="6">
-        <v>77</v>
-      </c>
-      <c r="L78" s="2">
-        <v>267</v>
+        <v>84</v>
+      </c>
+      <c r="L78" s="3">
+        <v>253</v>
       </c>
       <c r="M78" s="13" t="s">
         <v>236</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="2">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E79" s="6"/>
-      <c r="F79" s="3">
-        <v>75</v>
+      <c r="F79" s="2">
+        <v>64</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K79" s="6"/>
-      <c r="L79" s="2">
-        <v>268</v>
+      <c r="L79" s="3">
+        <v>254</v>
       </c>
       <c r="M79" s="13" t="s">
         <v>234</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
-      <c r="F80" s="3">
-        <v>76</v>
+      <c r="F80" s="2">
+        <v>65</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H80" s="6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I80" s="3">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K80" s="6"/>
-      <c r="L80" s="2">
-        <v>269</v>
+      <c r="L80" s="3">
+        <v>255</v>
       </c>
       <c r="M80" s="13" t="s">
         <v>235</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
-      <c r="F81" s="3">
-        <v>77</v>
+      <c r="F81" s="2">
+        <v>66</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="3">
-        <v>161</v>
+      <c r="I81" s="2">
+        <v>154</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K81" s="6">
-        <v>78</v>
-      </c>
-      <c r="L81" s="3">
-        <v>270</v>
+        <v>85</v>
+      </c>
+      <c r="L81" s="2">
+        <v>256</v>
       </c>
       <c r="M81" s="13" t="s">
         <v>184</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E82" s="6">
         <v>25</v>
       </c>
-      <c r="F82" s="2">
-        <v>78</v>
+      <c r="F82" s="3">
+        <v>67</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>91</v>
       </c>
       <c r="H82" s="6">
-        <v>50</v>
-      </c>
-      <c r="I82" s="2">
-        <v>162</v>
+        <v>52</v>
+      </c>
+      <c r="I82" s="3">
+        <v>155</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K82" s="6"/>
-      <c r="L82" s="3">
-        <v>271</v>
+      <c r="L82" s="2">
+        <v>257</v>
       </c>
       <c r="M82" s="13" t="s">
         <v>237</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E83" s="6"/>
-      <c r="F83" s="2">
-        <v>79</v>
+      <c r="F83" s="3">
+        <v>68</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="K83" s="6"/>
-      <c r="L83" s="3">
-        <v>272</v>
+      <c r="L83" s="2">
+        <v>258</v>
       </c>
       <c r="M83" s="13" t="s">
         <v>238</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E84" s="6"/>
-      <c r="F84" s="2">
-        <v>80</v>
+      <c r="F84" s="3">
+        <v>69</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H84" s="6">
-        <v>51</v>
-      </c>
-      <c r="I84" s="3">
-        <v>164</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>141</v>
+        <v>53</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="K84" s="6"/>
-      <c r="L84" s="3">
-        <v>273</v>
+      <c r="L84" s="2">
+        <v>259</v>
       </c>
       <c r="M84" s="13" t="s">
         <v>239</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
-      <c r="F85" s="2">
-        <v>81</v>
+      <c r="F85" s="3">
+        <v>70</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H85" s="6"/>
-      <c r="I85" s="3">
-        <v>165</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>142</v>
+      <c r="I85" s="2"/>
+      <c r="J85" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="K85" s="6"/>
-      <c r="L85" s="3">
-        <v>274</v>
+      <c r="L85" s="2">
+        <v>260</v>
       </c>
       <c r="M85" s="13" t="s">
         <v>240</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
-      <c r="F86" s="2">
-        <v>82</v>
+      <c r="F86" s="3">
+        <v>71</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H86" s="6">
-        <v>52</v>
-      </c>
-      <c r="I86" s="2">
-        <v>166</v>
-      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="3"/>
       <c r="J86" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K86" s="6"/>
-      <c r="L86" s="3">
-        <v>275</v>
+      <c r="L86" s="2">
+        <v>261</v>
       </c>
       <c r="M86" s="13" t="s">
         <v>241</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
-      <c r="F87" s="2">
-        <v>83</v>
+      <c r="F87" s="3">
+        <v>72</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>180</v>
       </c>
       <c r="H87" s="6"/>
-      <c r="I87" s="2">
-        <v>167</v>
-      </c>
+      <c r="I87" s="3"/>
       <c r="J87" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K87" s="6">
-        <v>79</v>
-      </c>
-      <c r="L87" s="2">
-        <v>276</v>
+        <v>86</v>
+      </c>
+      <c r="L87" s="3">
+        <v>262</v>
       </c>
       <c r="M87" s="13" t="s">
         <v>242</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H88" s="6">
-        <v>53</v>
-      </c>
-      <c r="I88" s="3">
-        <v>168</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>182</v>
+      <c r="E88" s="6">
+        <v>26</v>
+      </c>
+      <c r="F88" s="2">
+        <v>73</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="K88" s="6"/>
-      <c r="L88" s="2">
-        <v>277</v>
+      <c r="L88" s="3">
+        <v>263</v>
       </c>
       <c r="M88" s="13" t="s">
         <v>243</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E89" s="6"/>
+      <c r="F89" s="2">
+        <v>74</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="H89" s="6"/>
-      <c r="I89" s="3">
-        <v>169</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>176</v>
+      <c r="I89" s="2"/>
+      <c r="J89" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="K89" s="6"/>
-      <c r="L89" s="2">
-        <v>278</v>
+      <c r="L89" s="3">
+        <v>264</v>
       </c>
       <c r="M89" s="13" t="s">
         <v>244</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="2">
+        <v>75</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" s="6">
+        <v>54</v>
+      </c>
       <c r="I90" s="3">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="K90" s="6"/>
-      <c r="L90" s="2">
-        <v>279</v>
+      <c r="L90" s="3">
+        <v>265</v>
       </c>
       <c r="M90" s="13" t="s">
         <v>245</v>
       </c>
       <c r="N90" s="6"/>
       <c r="O90" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E91" s="6">
+        <v>27</v>
+      </c>
+      <c r="F91" s="3">
+        <v>76</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="3">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="K91" s="6">
-        <v>80</v>
-      </c>
-      <c r="L91" s="3">
-        <v>280</v>
+        <v>87</v>
+      </c>
+      <c r="L91" s="2">
+        <v>266</v>
       </c>
       <c r="M91" s="13" t="s">
         <v>246</v>
       </c>
       <c r="N91" s="6"/>
       <c r="O91" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H92" s="6">
-        <v>54</v>
-      </c>
-      <c r="I92" s="2">
-        <v>172</v>
+      <c r="E92" s="6"/>
+      <c r="F92" s="3">
+        <v>77</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="3">
+        <v>159</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K92" s="6"/>
-      <c r="L92" s="3">
-        <v>281</v>
+      <c r="L92" s="2">
+        <v>267</v>
       </c>
       <c r="M92" s="13" t="s">
         <v>247</v>
       </c>
       <c r="N92" s="6"/>
       <c r="O92" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E93" s="6">
+        <v>28</v>
+      </c>
+      <c r="F93" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="H93" s="6"/>
-      <c r="I93" s="2">
-        <v>173</v>
+      <c r="I93" s="3">
+        <v>160</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K93" s="6"/>
-      <c r="L93" s="3">
-        <v>282</v>
+      <c r="L93" s="2">
+        <v>268</v>
       </c>
       <c r="M93" s="13" t="s">
         <v>248</v>
       </c>
       <c r="N93" s="6"/>
       <c r="O93" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94" s="6">
+        <v>55</v>
+      </c>
       <c r="I94" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K94" s="6"/>
-      <c r="L94" s="3">
-        <v>283</v>
+      <c r="L94" s="2">
+        <v>269</v>
       </c>
       <c r="M94" s="13" t="s">
         <v>249</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H95" s="6">
+      <c r="H95" s="6"/>
+      <c r="I95" s="2">
+        <v>162</v>
+      </c>
+      <c r="J95" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I95" s="3">
-        <v>175</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="K95" s="6">
-        <v>81</v>
-      </c>
-      <c r="L95" s="2">
-        <v>284</v>
+        <v>88</v>
+      </c>
+      <c r="L95" s="3">
+        <v>270</v>
       </c>
       <c r="M95" s="13" t="s">
         <v>251</v>
       </c>
       <c r="N95" s="6"/>
       <c r="O95" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H96" s="6"/>
-      <c r="I96" s="3">
-        <v>176</v>
+      <c r="I96" s="2">
+        <v>163</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="K96" s="6"/>
-      <c r="L96" s="2">
-        <v>285</v>
+      <c r="L96" s="3">
+        <v>271</v>
       </c>
       <c r="M96" s="13" t="s">
         <v>250</v>
       </c>
       <c r="N96" s="6"/>
       <c r="O96" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H97" s="6"/>
+      <c r="H97" s="6">
+        <v>56</v>
+      </c>
       <c r="I97" s="3">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="K97" s="6"/>
-      <c r="L97" s="2">
-        <v>286</v>
+      <c r="L97" s="3">
+        <v>272</v>
       </c>
       <c r="M97" s="13" t="s">
         <v>252</v>
       </c>
       <c r="N97" s="6"/>
       <c r="O97" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H98" s="6"/>
       <c r="I98" s="3">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="K98" s="6">
-        <v>82</v>
-      </c>
-      <c r="L98" s="3">
-        <v>287</v>
+        <v>89</v>
+      </c>
+      <c r="L98" s="2">
+        <v>273</v>
       </c>
       <c r="M98" s="13" t="s">
         <v>253</v>
       </c>
       <c r="N98" s="6"/>
       <c r="O98" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H99" s="6"/>
-      <c r="I99" s="3">
-        <v>179</v>
+      <c r="H99" s="6">
+        <v>57</v>
+      </c>
+      <c r="I99" s="2">
+        <v>166</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="K99" s="6"/>
-      <c r="L99" s="3">
-        <v>288</v>
+      <c r="L99" s="2">
+        <v>274</v>
       </c>
       <c r="M99" s="13" t="s">
         <v>254</v>
       </c>
       <c r="N99" s="6"/>
       <c r="O99" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H100" s="6"/>
-      <c r="I100" s="3">
-        <v>180</v>
+      <c r="I100" s="2">
+        <v>167</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K100" s="6"/>
-      <c r="L100" s="3">
-        <v>289</v>
+      <c r="L100" s="2">
+        <v>275</v>
       </c>
       <c r="M100" s="13" t="s">
         <v>255</v>
       </c>
       <c r="N100" s="6"/>
       <c r="O100" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H101" s="6">
-        <v>56</v>
-      </c>
-      <c r="I101" s="2">
-        <v>181</v>
+        <v>58</v>
+      </c>
+      <c r="I101" s="3">
+        <v>168</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="K101" s="6">
-        <v>83</v>
-      </c>
-      <c r="L101" s="2">
-        <v>290</v>
+        <v>90</v>
+      </c>
+      <c r="L101" s="3">
+        <v>276</v>
       </c>
       <c r="M101" s="13" t="s">
         <v>259</v>
       </c>
       <c r="N101" s="6"/>
       <c r="O101" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H102" s="6"/>
-      <c r="I102" s="2">
-        <v>182</v>
+      <c r="I102" s="3">
+        <v>169</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K102" s="6"/>
-      <c r="L102" s="2">
-        <v>291</v>
+      <c r="L102" s="3">
+        <v>277</v>
       </c>
       <c r="M102" s="13" t="s">
         <v>256</v>
       </c>
       <c r="N102" s="6"/>
       <c r="O102" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H103" s="6"/>
+      <c r="H103" s="6">
+        <v>59</v>
+      </c>
       <c r="I103" s="2">
-        <v>183</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="K103" s="6"/>
-      <c r="L103" s="2">
-        <v>292</v>
+      <c r="L103" s="3">
+        <v>278</v>
       </c>
       <c r="M103" s="13" t="s">
         <v>257</v>
       </c>
       <c r="N103" s="6"/>
       <c r="O103" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H104" s="6"/>
       <c r="I104" s="2">
-        <v>184</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="K104" s="6"/>
-      <c r="L104" s="2">
-        <v>293</v>
+      <c r="L104" s="3">
+        <v>279</v>
       </c>
       <c r="M104" s="13" t="s">
         <v>258</v>
       </c>
       <c r="N104" s="6"/>
       <c r="O104" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H105" s="6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I105" s="3">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K105" s="6">
-        <v>84</v>
-      </c>
-      <c r="L105" s="3">
-        <v>294</v>
+        <v>91</v>
+      </c>
+      <c r="L105" s="2">
+        <v>280</v>
       </c>
       <c r="M105" s="13" t="s">
         <v>279</v>
       </c>
       <c r="N105" s="6"/>
       <c r="O105" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H106" s="6"/>
       <c r="I106" s="3">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="K106" s="6"/>
-      <c r="L106" s="3">
-        <v>295</v>
+      <c r="L106" s="2">
+        <v>281</v>
       </c>
       <c r="M106" s="13" t="s">
         <v>280</v>
       </c>
       <c r="N106" s="6"/>
       <c r="O106" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H107" s="6"/>
-      <c r="I107" s="3">
-        <v>187</v>
+      <c r="H107" s="6">
+        <v>61</v>
+      </c>
+      <c r="I107" s="2">
+        <v>174</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K107" s="6"/>
-      <c r="L107" s="3">
-        <v>296</v>
+      <c r="L107" s="2">
+        <v>282</v>
       </c>
       <c r="M107" s="13" t="s">
         <v>98</v>
       </c>
       <c r="N107" s="6"/>
       <c r="O107" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H108" s="6"/>
-      <c r="I108" s="3">
-        <v>188</v>
+      <c r="I108" s="2">
+        <v>175</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="K108" s="6">
-        <v>85</v>
-      </c>
-      <c r="L108" s="2">
-        <v>297</v>
-      </c>
-      <c r="M108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L108" s="3">
+        <v>283</v>
+      </c>
+      <c r="M108" s="13" t="s">
         <v>281</v>
       </c>
       <c r="N108" s="6"/>
       <c r="O108" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H109" s="6"/>
-      <c r="I109" s="3">
-        <v>189</v>
+      <c r="I109" s="2">
+        <v>176</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="K109" s="6"/>
-      <c r="L109" s="2">
-        <v>298</v>
-      </c>
-      <c r="M109" s="2" t="s">
+      <c r="L109" s="3">
+        <v>284</v>
+      </c>
+      <c r="M109" s="13" t="s">
         <v>144</v>
       </c>
       <c r="N109" s="6"/>
       <c r="O109" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H110" s="6"/>
-      <c r="I110" s="3">
-        <v>190</v>
+      <c r="I110" s="2">
+        <v>177</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K110" s="6"/>
-      <c r="L110" s="2">
-        <v>299</v>
-      </c>
-      <c r="M110" s="2" t="s">
+      <c r="L110" s="3">
+        <v>285</v>
+      </c>
+      <c r="M110" s="13" t="s">
         <v>282</v>
       </c>
       <c r="N110" s="6"/>
       <c r="O110" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H111" s="6"/>
+      <c r="H111" s="6">
+        <v>62</v>
+      </c>
       <c r="I111" s="3">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K111" s="6">
-        <v>86</v>
-      </c>
-      <c r="L111" s="3">
-        <v>300</v>
-      </c>
-      <c r="M111" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2" t="s">
         <v>283</v>
       </c>
       <c r="N111" s="6"/>
       <c r="O111" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H112" s="6"/>
       <c r="I112" s="3">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="K112" s="6"/>
-      <c r="L112" s="3">
-        <v>301</v>
-      </c>
-      <c r="M112" s="3" t="s">
+      <c r="L112" s="2"/>
+      <c r="M112" s="2" t="s">
         <v>55</v>
       </c>
       <c r="N112" s="6"/>
       <c r="O112" s="2">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N113" s="7"/>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N114" s="7"/>
-    </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H113" s="6">
+        <v>63</v>
+      </c>
+      <c r="I113" s="2">
+        <v>180</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" s="6">
+        <v>94</v>
+      </c>
+      <c r="L113" s="3">
+        <v>286</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N113" s="6"/>
+      <c r="O113" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H114" s="6"/>
+      <c r="I114" s="2">
+        <v>181</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="3">
+        <v>287</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N114" s="6"/>
+      <c r="O114" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N115" s="7"/>
     </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N116" s="7"/>
     </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N117" s="7"/>
     </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N118" s="7"/>
     </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N119" s="7"/>
     </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N120" s="7"/>
     </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N121" s="7"/>
     </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N122" s="7"/>
     </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N123" s="7"/>
     </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N124" s="7"/>
     </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N125" s="7"/>
     </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N126" s="7"/>
     </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N127" s="7"/>
     </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N128" s="7"/>
     </row>
   </sheetData>

--- a/proj/ConvidadosCasamento.xlsx
+++ b/proj/ConvidadosCasamento.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1779049A-9139-4D01-8D1F-A981BADED5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="315">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -967,12 +968,15 @@
   </si>
   <si>
     <t>Andy</t>
+  </si>
+  <si>
+    <t>Nilton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1413,11 +1417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75:I79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,15 +1470,8 @@
         <v>265</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="N3" s="6">
-        <v>86</v>
-      </c>
-      <c r="O3" s="2">
-        <v>302</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="4"/>
       <c r="R3" s="3" t="s">
         <v>189</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3">
         <v>80</v>
@@ -1511,20 +1508,20 @@
         <v>63</v>
       </c>
       <c r="K4" s="6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L4" s="3">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>167</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="2">
-        <v>303</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>55</v>
+      <c r="O4" s="3">
+        <v>288</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>96</v>
@@ -1554,19 +1551,19 @@
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="3">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>168</v>
       </c>
       <c r="N5" s="6">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O5" s="3">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>192</v>
@@ -1592,17 +1589,17 @@
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="3">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>155</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="3">
-        <v>305</v>
+      <c r="O6" s="2">
+        <v>290</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>146</v>
@@ -1638,17 +1635,17 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="3">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>169</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>47</v>
+        <v>287</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>266</v>
@@ -1678,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2">
         <v>82</v>
@@ -1687,20 +1684,18 @@
         <v>67</v>
       </c>
       <c r="K8" s="6">
-        <v>59</v>
-      </c>
-      <c r="L8" s="2">
-        <v>197</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="13" t="s">
         <v>170</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="2">
-        <v>307</v>
+      <c r="O8" s="3">
+        <v>292</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>267</v>
@@ -1737,20 +1732,18 @@
         <v>68</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="2">
-        <v>198</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="13" t="s">
         <v>171</v>
       </c>
       <c r="N9" s="6">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O9" s="3">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>268</v>
@@ -1779,17 +1772,17 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>172</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="3">
-        <v>309</v>
+      <c r="O10" s="2">
+        <v>294</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>276</v>
@@ -1818,19 +1811,19 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>173</v>
       </c>
       <c r="N11" s="6">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O11" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>278</v>
@@ -1853,27 +1846,25 @@
         <v>9</v>
       </c>
       <c r="H12" s="6">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3">
         <v>85</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>183</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="2">
-        <v>201</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="13" t="s">
         <v>174</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="2">
-        <v>311</v>
+      <c r="O12" s="3">
+        <v>296</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>309</v>
@@ -1896,29 +1887,29 @@
         <v>10</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>86</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="6">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L13" s="3">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>175</v>
       </c>
       <c r="N13" s="6">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O13" s="3">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>310</v>
@@ -1939,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>87</v>
       </c>
       <c r="J14" s="13" t="s">
@@ -1947,17 +1938,17 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>55</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="3">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1975,27 +1966,27 @@
         <v>12</v>
       </c>
       <c r="H15" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2">
         <v>88</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="3">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>127</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="3">
-        <v>314</v>
+      <c r="O15" s="2">
+        <v>299</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2013,31 +2004,31 @@
         <v>77</v>
       </c>
       <c r="H16" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I16" s="2">
         <v>89</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="K16" s="6">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L16" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>93</v>
       </c>
       <c r="N16" s="6">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O16" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>294</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -2055,21 +2046,21 @@
         <v>90</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>100</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -2081,25 +2072,27 @@
         <v>78</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>91</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="2">
-        <v>317</v>
+      <c r="N18" s="6">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>302</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -2113,29 +2106,27 @@
         <v>14</v>
       </c>
       <c r="H19" s="6">
-        <v>31</v>
-      </c>
-      <c r="I19" s="2">
+        <v>34</v>
+      </c>
+      <c r="I19" s="3">
         <v>92</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="6">
-        <v>92</v>
-      </c>
+      <c r="N19" s="6"/>
       <c r="O19" s="3">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -2150,25 +2141,27 @@
         <v>15</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>93</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="3">
-        <v>319</v>
+      <c r="N20" s="6">
+        <v>101</v>
+      </c>
+      <c r="O20" s="2">
+        <v>304</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -2184,21 +2177,23 @@
         <v>94</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="2">
-        <v>210</v>
+        <v>93</v>
+      </c>
+      <c r="K21" s="6">
+        <v>68</v>
+      </c>
+      <c r="L21" s="3">
+        <v>196</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>64</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -2210,27 +2205,27 @@
         <v>80</v>
       </c>
       <c r="H22" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I22" s="2">
         <v>95</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="2">
-        <v>211</v>
+      <c r="L22" s="3">
+        <v>197</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>104</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>112</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -2248,23 +2243,23 @@
         <v>96</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K23" s="6">
-        <v>62</v>
-      </c>
-      <c r="L23" s="3">
-        <v>212</v>
+        <v>69</v>
+      </c>
+      <c r="L23" s="2">
+        <v>198</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>65</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -2276,25 +2271,27 @@
         <v>20</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>97</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="3">
-        <v>213</v>
+      <c r="L24" s="2">
+        <v>199</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="2">
-        <v>323</v>
+      <c r="N24" s="6">
+        <v>102</v>
+      </c>
+      <c r="O24" s="3">
+        <v>308</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -2306,25 +2303,25 @@
         <v>21</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>98</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="3">
-        <v>214</v>
+      <c r="L25" s="2">
+        <v>200</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>72</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="3">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -2338,25 +2335,27 @@
         <v>22</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="2">
+      <c r="I26" s="3">
         <v>99</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="3">
-        <v>215</v>
+      <c r="L26" s="2">
+        <v>201</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="3">
-        <v>325</v>
+      <c r="N26" s="6">
+        <v>103</v>
+      </c>
+      <c r="O26" s="2">
+        <v>310</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>302</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -2368,27 +2367,27 @@
         <v>20</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K27" s="6">
-        <v>63</v>
-      </c>
-      <c r="L27" s="2">
-        <v>216</v>
+        <v>70</v>
+      </c>
+      <c r="L27" s="3">
+        <v>202</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>135</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>15</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -2402,27 +2401,27 @@
         <v>52</v>
       </c>
       <c r="H28" s="6">
-        <v>34</v>
-      </c>
-      <c r="I28" s="2">
+        <v>36</v>
+      </c>
+      <c r="I28" s="3">
         <v>101</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="2">
-        <v>217</v>
+      <c r="L28" s="3">
+        <v>203</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>136</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -2438,21 +2437,21 @@
         <v>102</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="K29" s="6"/>
-      <c r="L29" s="2">
-        <v>218</v>
+      <c r="L29" s="3">
+        <v>204</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -2464,27 +2463,29 @@
         <v>79</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <v>103</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K30" s="6">
-        <v>64</v>
-      </c>
-      <c r="L30" s="3">
-        <v>219</v>
+        <v>71</v>
+      </c>
+      <c r="L30" s="2">
+        <v>205</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="2">
-        <v>329</v>
+      <c r="N30" s="6">
+        <v>104</v>
+      </c>
+      <c r="O30" s="3">
+        <v>314</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -2500,21 +2501,23 @@
         <v>104</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="K31" s="6"/>
-      <c r="L31" s="3">
-        <v>220</v>
+      <c r="L31" s="2">
+        <v>206</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="3">
-        <v>330</v>
+      <c r="N31" s="6">
+        <v>105</v>
+      </c>
+      <c r="O31" s="2">
+        <v>315</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2526,25 +2529,25 @@
         <v>41</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <v>105</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="K32" s="6"/>
-      <c r="L32" s="3">
-        <v>221</v>
+      <c r="L32" s="2">
+        <v>207</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>37</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
@@ -2558,27 +2561,29 @@
         <v>23</v>
       </c>
       <c r="H33" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I33" s="2">
         <v>106</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="3">
-        <v>222</v>
+      <c r="L33" s="2">
+        <v>208</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="2">
-        <v>332</v>
+      <c r="N33" s="6">
+        <v>106</v>
+      </c>
+      <c r="O33" s="3">
+        <v>317</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
@@ -2590,25 +2595,25 @@
         <v>24</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <v>107</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="3">
-        <v>223</v>
+      <c r="L34" s="2">
+        <v>209</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="2">
-        <v>333</v>
+      <c r="O34" s="3">
+        <v>318</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>162</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
@@ -2622,29 +2627,29 @@
         <v>25</v>
       </c>
       <c r="H35" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I35" s="2">
         <v>108</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K35" s="6">
-        <v>65</v>
-      </c>
-      <c r="L35" s="2">
-        <v>224</v>
+        <v>72</v>
+      </c>
+      <c r="L35" s="3">
+        <v>210</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>195</v>
       </c>
       <c r="N35" s="6"/>
-      <c r="O35" s="2">
-        <v>334</v>
+      <c r="O35" s="3">
+        <v>319</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
@@ -2654,25 +2659,22 @@
         <v>26</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="2">
+      <c r="I36" s="3">
         <v>109</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="2">
-        <v>225</v>
+      <c r="L36" s="3">
+        <v>211</v>
       </c>
       <c r="M36" s="13" t="s">
         <v>196</v>
       </c>
       <c r="N36" s="6"/>
-      <c r="O36" s="2">
-        <v>335</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>308</v>
+      <c r="O36" s="3">
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
@@ -2688,18 +2690,18 @@
         <v>110</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="2">
-        <v>226</v>
+      <c r="L37" s="3">
+        <v>212</v>
       </c>
       <c r="M37" s="13" t="s">
         <v>197</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
@@ -2711,26 +2713,26 @@
         <v>28</v>
       </c>
       <c r="H38" s="6">
-        <v>37</v>
-      </c>
-      <c r="I38" s="2">
+        <v>39</v>
+      </c>
+      <c r="I38" s="3">
         <v>111</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K38" s="6">
-        <v>66</v>
-      </c>
-      <c r="L38" s="3">
-        <v>227</v>
+        <v>73</v>
+      </c>
+      <c r="L38" s="2">
+        <v>213</v>
       </c>
       <c r="M38" s="13" t="s">
         <v>131</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
@@ -2748,18 +2750,18 @@
         <v>112</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="3">
-        <v>228</v>
+      <c r="L39" s="2">
+        <v>214</v>
       </c>
       <c r="M39" s="13" t="s">
         <v>198</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
@@ -2771,24 +2773,24 @@
         <v>28</v>
       </c>
       <c r="H40" s="6">
-        <v>38</v>
-      </c>
-      <c r="I40" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" s="3">
         <v>113</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="3">
-        <v>229</v>
+      <c r="L40" s="2">
+        <v>215</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>199</v>
       </c>
       <c r="N40" s="6"/>
       <c r="O40" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
@@ -2804,18 +2806,18 @@
         <v>114</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="3">
-        <v>230</v>
+      <c r="L41" s="2">
+        <v>216</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>200</v>
       </c>
       <c r="N41" s="6"/>
       <c r="O41" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
@@ -2827,24 +2829,24 @@
         <v>30</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
         <v>115</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="K42" s="6">
-        <v>67</v>
-      </c>
-      <c r="L42" s="2">
-        <v>231</v>
+        <v>74</v>
+      </c>
+      <c r="L42" s="3">
+        <v>217</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>203</v>
       </c>
       <c r="N42" s="6"/>
       <c r="O42" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
@@ -2858,24 +2860,24 @@
         <v>31</v>
       </c>
       <c r="H43" s="6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I43" s="2">
         <v>116</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="2">
-        <v>232</v>
+      <c r="L43" s="3">
+        <v>218</v>
       </c>
       <c r="M43" s="13" t="s">
         <v>201</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
@@ -2887,22 +2889,22 @@
         <v>32</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
         <v>117</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="2">
-        <v>233</v>
+      <c r="L44" s="3">
+        <v>219</v>
       </c>
       <c r="M44" s="13" t="s">
         <v>202</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
@@ -2918,20 +2920,20 @@
         <v>118</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K45" s="6">
-        <v>68</v>
-      </c>
-      <c r="L45" s="3">
-        <v>234</v>
+        <v>75</v>
+      </c>
+      <c r="L45" s="2">
+        <v>220</v>
       </c>
       <c r="M45" s="13" t="s">
         <v>204</v>
       </c>
       <c r="N45" s="6"/>
       <c r="O45" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
@@ -2943,24 +2945,24 @@
         <v>84</v>
       </c>
       <c r="H46" s="6">
-        <v>40</v>
-      </c>
-      <c r="I46" s="2">
+        <v>42</v>
+      </c>
+      <c r="I46" s="3">
         <v>119</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="3">
-        <v>235</v>
+      <c r="L46" s="2">
+        <v>221</v>
       </c>
       <c r="M46" s="13" t="s">
         <v>205</v>
       </c>
       <c r="N46" s="6"/>
       <c r="O46" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
@@ -2978,18 +2980,18 @@
         <v>120</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="3">
-        <v>236</v>
+      <c r="L47" s="2">
+        <v>222</v>
       </c>
       <c r="M47" s="13" t="s">
         <v>206</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
@@ -3001,24 +3003,24 @@
         <v>35</v>
       </c>
       <c r="H48" s="6">
-        <v>41</v>
-      </c>
-      <c r="I48" s="2">
+        <v>43</v>
+      </c>
+      <c r="I48" s="3">
         <v>121</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="3">
-        <v>237</v>
+      <c r="L48" s="2">
+        <v>223</v>
       </c>
       <c r="M48" s="13" t="s">
         <v>207</v>
       </c>
       <c r="N48" s="6"/>
       <c r="O48" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.25">
@@ -3034,20 +3036,20 @@
         <v>122</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="K49" s="6">
-        <v>69</v>
-      </c>
-      <c r="L49" s="2">
-        <v>238</v>
+        <v>76</v>
+      </c>
+      <c r="L49" s="3">
+        <v>224</v>
       </c>
       <c r="M49" s="13" t="s">
         <v>135</v>
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.25">
@@ -3059,22 +3061,22 @@
         <v>37</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="2">
+      <c r="I50" s="3">
         <v>123</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K50" s="6"/>
-      <c r="L50" s="2">
-        <v>239</v>
+      <c r="L50" s="3">
+        <v>225</v>
       </c>
       <c r="M50" s="13" t="s">
         <v>208</v>
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.25">
@@ -3088,24 +3090,24 @@
         <v>38</v>
       </c>
       <c r="H51" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I51" s="2">
         <v>124</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="K51" s="6"/>
-      <c r="L51" s="2">
-        <v>240</v>
+      <c r="L51" s="3">
+        <v>226</v>
       </c>
       <c r="M51" s="13" t="s">
         <v>209</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.25">
@@ -3117,22 +3119,22 @@
         <v>39</v>
       </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="2">
+      <c r="I52" s="3">
         <v>125</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="2">
-        <v>241</v>
+      <c r="L52" s="3">
+        <v>227</v>
       </c>
       <c r="M52" s="13" t="s">
         <v>210</v>
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="5:15" x14ac:dyDescent="0.25">
@@ -3148,20 +3150,20 @@
         <v>126</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K53" s="6">
-        <v>70</v>
-      </c>
-      <c r="L53" s="3">
-        <v>242</v>
+        <v>77</v>
+      </c>
+      <c r="L53" s="2">
+        <v>228</v>
       </c>
       <c r="M53" s="13" t="s">
         <v>211</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="5:15" x14ac:dyDescent="0.25">
@@ -3173,22 +3175,22 @@
         <v>85</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="2">
+      <c r="I54" s="3">
         <v>127</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="K54" s="6"/>
-      <c r="L54" s="3">
-        <v>243</v>
+      <c r="L54" s="2">
+        <v>229</v>
       </c>
       <c r="M54" s="13" t="s">
         <v>212</v>
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="5:15" x14ac:dyDescent="0.25">
@@ -3204,18 +3206,18 @@
         <v>128</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="K55" s="6"/>
-      <c r="L55" s="3">
-        <v>244</v>
+      <c r="L55" s="2">
+        <v>230</v>
       </c>
       <c r="M55" s="13" t="s">
         <v>213</v>
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="5:15" x14ac:dyDescent="0.25">
@@ -3227,24 +3229,24 @@
         <v>42</v>
       </c>
       <c r="H56" s="6">
-        <v>43</v>
-      </c>
-      <c r="I56" s="2">
+        <v>45</v>
+      </c>
+      <c r="I56" s="3">
         <v>129</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="K56" s="6"/>
-      <c r="L56" s="3">
-        <v>245</v>
+      <c r="L56" s="2">
+        <v>231</v>
       </c>
       <c r="M56" s="13" t="s">
         <v>214</v>
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="5:15" x14ac:dyDescent="0.25">
@@ -3260,20 +3262,20 @@
         <v>130</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="K57" s="6">
-        <v>71</v>
-      </c>
-      <c r="L57" s="2">
-        <v>246</v>
+        <v>78</v>
+      </c>
+      <c r="L57" s="3">
+        <v>232</v>
       </c>
       <c r="M57" s="13" t="s">
         <v>216</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.25">
@@ -3285,22 +3287,22 @@
         <v>43</v>
       </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="2">
+      <c r="I58" s="3">
         <v>131</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K58" s="6"/>
-      <c r="L58" s="2">
-        <v>247</v>
+      <c r="L58" s="3">
+        <v>233</v>
       </c>
       <c r="M58" s="13" t="s">
         <v>215</v>
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="5:15" x14ac:dyDescent="0.25">
@@ -3316,18 +3318,18 @@
         <v>132</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K59" s="6"/>
-      <c r="L59" s="2">
-        <v>248</v>
+      <c r="L59" s="3">
+        <v>234</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>217</v>
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="5:15" x14ac:dyDescent="0.25">
@@ -3337,26 +3339,26 @@
         <v>45</v>
       </c>
       <c r="H60" s="6">
-        <v>44</v>
-      </c>
-      <c r="I60" s="2">
+        <v>46</v>
+      </c>
+      <c r="I60" s="3">
         <v>133</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K60" s="6">
-        <v>72</v>
-      </c>
-      <c r="L60" s="3">
-        <v>249</v>
+        <v>79</v>
+      </c>
+      <c r="L60" s="2">
+        <v>235</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>218</v>
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="5:15" x14ac:dyDescent="0.25">
@@ -3372,18 +3374,18 @@
         <v>134</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K61" s="6"/>
-      <c r="L61" s="3">
-        <v>250</v>
+      <c r="L61" s="2">
+        <v>236</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>219</v>
       </c>
       <c r="N61" s="6"/>
       <c r="O61" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="5:15" x14ac:dyDescent="0.25">
@@ -3393,22 +3395,22 @@
         <v>47</v>
       </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="2">
+      <c r="I62" s="3">
         <v>135</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K62" s="6"/>
-      <c r="L62" s="3">
-        <v>251</v>
+      <c r="L62" s="2">
+        <v>237</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>220</v>
       </c>
       <c r="N62" s="6"/>
       <c r="O62" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="5:15" x14ac:dyDescent="0.25">
@@ -3424,18 +3426,18 @@
         <v>136</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K63" s="6"/>
-      <c r="L63" s="3">
-        <v>252</v>
+      <c r="L63" s="2">
+        <v>238</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>221</v>
       </c>
       <c r="N63" s="6"/>
       <c r="O63" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="5:15" x14ac:dyDescent="0.25">
@@ -3445,24 +3447,24 @@
         <v>49</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="2">
+      <c r="I64" s="3">
         <v>137</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="K64" s="6">
-        <v>73</v>
-      </c>
-      <c r="L64" s="2">
-        <v>253</v>
+        <v>80</v>
+      </c>
+      <c r="L64" s="3">
+        <v>239</v>
       </c>
       <c r="M64" s="13" t="s">
         <v>93</v>
       </c>
       <c r="N64" s="6"/>
       <c r="O64" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="5:15" x14ac:dyDescent="0.25">
@@ -3472,26 +3474,26 @@
         <v>50</v>
       </c>
       <c r="H65" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I65" s="2">
         <v>138</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K65" s="6">
-        <v>74</v>
-      </c>
-      <c r="L65" s="3">
-        <v>254</v>
+        <v>81</v>
+      </c>
+      <c r="L65" s="2">
+        <v>240</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>223</v>
       </c>
       <c r="N65" s="6"/>
       <c r="O65" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="5:15" x14ac:dyDescent="0.25">
@@ -3501,22 +3503,22 @@
         <v>86</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="2">
+      <c r="I66" s="3">
         <v>139</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="K66" s="6"/>
-      <c r="L66" s="3">
-        <v>255</v>
+      <c r="L66" s="2">
+        <v>241</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>222</v>
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="2">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="5:15" x14ac:dyDescent="0.25">
@@ -3532,18 +3534,18 @@
         <v>140</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="K67" s="6"/>
-      <c r="L67" s="3">
-        <v>256</v>
+      <c r="L67" s="2">
+        <v>242</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>224</v>
       </c>
       <c r="N67" s="6"/>
       <c r="O67" s="2">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="5:15" x14ac:dyDescent="0.25">
@@ -3555,22 +3557,22 @@
         <v>55</v>
       </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="2">
+      <c r="I68" s="3">
         <v>141</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K68" s="6"/>
-      <c r="L68" s="3">
-        <v>257</v>
+      <c r="L68" s="2">
+        <v>243</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>225</v>
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="5:15" x14ac:dyDescent="0.25">
@@ -3582,24 +3584,24 @@
         <v>87</v>
       </c>
       <c r="H69" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I69" s="2">
         <v>142</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="K69" s="6"/>
-      <c r="L69" s="3">
-        <v>258</v>
+      <c r="L69" s="2">
+        <v>244</v>
       </c>
       <c r="M69" s="13" t="s">
         <v>226</v>
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="5:15" x14ac:dyDescent="0.25">
@@ -3611,24 +3613,24 @@
         <v>88</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="2">
+      <c r="I70" s="3">
         <v>143</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="K70" s="6">
-        <v>75</v>
-      </c>
-      <c r="L70" s="2">
-        <v>259</v>
+        <v>82</v>
+      </c>
+      <c r="L70" s="3">
+        <v>245</v>
       </c>
       <c r="M70" s="13" t="s">
         <v>227</v>
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="5:15" x14ac:dyDescent="0.25">
@@ -3646,18 +3648,18 @@
         <v>144</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K71" s="6"/>
-      <c r="L71" s="2">
-        <v>260</v>
+      <c r="L71" s="3">
+        <v>246</v>
       </c>
       <c r="M71" s="13" t="s">
         <v>228</v>
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="2">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="5:15" x14ac:dyDescent="0.25">
@@ -3671,24 +3673,24 @@
         <v>57</v>
       </c>
       <c r="H72" s="6">
-        <v>47</v>
-      </c>
-      <c r="I72" s="2">
+        <v>49</v>
+      </c>
+      <c r="I72" s="3">
         <v>145</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="K72" s="6"/>
-      <c r="L72" s="2">
-        <v>261</v>
+      <c r="L72" s="3">
+        <v>247</v>
       </c>
       <c r="M72" s="13" t="s">
         <v>229</v>
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="5:15" x14ac:dyDescent="0.25">
@@ -3704,18 +3706,18 @@
         <v>146</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="K73" s="6"/>
-      <c r="L73" s="2">
-        <v>262</v>
+      <c r="L73" s="3">
+        <v>248</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>230</v>
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="5:15" x14ac:dyDescent="0.25">
@@ -3727,22 +3729,22 @@
         <v>58</v>
       </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="2">
+      <c r="I74" s="3">
         <v>147</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K74" s="6"/>
-      <c r="L74" s="2">
-        <v>263</v>
+      <c r="L74" s="3">
+        <v>249</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>231</v>
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="5:15" x14ac:dyDescent="0.25">
@@ -3754,26 +3756,26 @@
         <v>60</v>
       </c>
       <c r="H75" s="6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I75" s="2">
         <v>148</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="K75" s="6">
-        <v>76</v>
-      </c>
-      <c r="L75" s="3">
-        <v>264</v>
+        <v>83</v>
+      </c>
+      <c r="L75" s="2">
+        <v>250</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>66</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="5:15" x14ac:dyDescent="0.25">
@@ -3785,22 +3787,22 @@
         <v>61</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="2">
+      <c r="I76" s="3">
         <v>149</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K76" s="6"/>
-      <c r="L76" s="3">
-        <v>265</v>
+      <c r="L76" s="2">
+        <v>251</v>
       </c>
       <c r="M76" s="13" t="s">
         <v>232</v>
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="2">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="5:15" x14ac:dyDescent="0.25">
@@ -3818,18 +3820,18 @@
         <v>150</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K77" s="6"/>
-      <c r="L77" s="3">
-        <v>266</v>
+      <c r="L77" s="2">
+        <v>252</v>
       </c>
       <c r="M77" s="13" t="s">
         <v>233</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="5:15" x14ac:dyDescent="0.25">
@@ -3841,24 +3843,24 @@
         <v>90</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="2">
+      <c r="I78" s="3">
         <v>151</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K78" s="6">
-        <v>77</v>
-      </c>
-      <c r="L78" s="2">
-        <v>267</v>
+        <v>84</v>
+      </c>
+      <c r="L78" s="3">
+        <v>253</v>
       </c>
       <c r="M78" s="13" t="s">
         <v>236</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="2">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="5:15" x14ac:dyDescent="0.25">
@@ -3874,18 +3876,18 @@
         <v>152</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K79" s="6"/>
-      <c r="L79" s="2">
-        <v>268</v>
+      <c r="L79" s="3">
+        <v>254</v>
       </c>
       <c r="M79" s="13" t="s">
         <v>234</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="5:15" x14ac:dyDescent="0.25">
@@ -3897,24 +3899,24 @@
         <v>30</v>
       </c>
       <c r="H80" s="6">
-        <v>49</v>
-      </c>
-      <c r="I80" s="2">
+        <v>51</v>
+      </c>
+      <c r="I80" s="3">
         <v>153</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K80" s="6"/>
-      <c r="L80" s="2">
-        <v>269</v>
+      <c r="L80" s="3">
+        <v>255</v>
       </c>
       <c r="M80" s="13" t="s">
         <v>235</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="5:15" x14ac:dyDescent="0.25">
@@ -3930,20 +3932,20 @@
         <v>154</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K81" s="6">
-        <v>78</v>
-      </c>
-      <c r="L81" s="3">
-        <v>270</v>
+        <v>85</v>
+      </c>
+      <c r="L81" s="2">
+        <v>256</v>
       </c>
       <c r="M81" s="13" t="s">
         <v>184</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="5:15" x14ac:dyDescent="0.25">
@@ -3957,24 +3959,24 @@
         <v>91</v>
       </c>
       <c r="H82" s="6">
-        <v>50</v>
-      </c>
-      <c r="I82" s="2">
+        <v>52</v>
+      </c>
+      <c r="I82" s="3">
         <v>155</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K82" s="6"/>
-      <c r="L82" s="3">
-        <v>271</v>
+      <c r="L82" s="2">
+        <v>257</v>
       </c>
       <c r="M82" s="13" t="s">
         <v>237</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="5:15" x14ac:dyDescent="0.25">
@@ -3990,18 +3992,18 @@
         <v>156</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="K83" s="6"/>
-      <c r="L83" s="3">
-        <v>272</v>
+      <c r="L83" s="2">
+        <v>258</v>
       </c>
       <c r="M83" s="13" t="s">
         <v>238</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="5:15" x14ac:dyDescent="0.25">
@@ -4013,24 +4015,22 @@
         <v>50</v>
       </c>
       <c r="H84" s="6">
-        <v>51</v>
-      </c>
-      <c r="I84" s="2">
-        <v>157</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>141</v>
+        <v>53</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="K84" s="6"/>
-      <c r="L84" s="3">
-        <v>273</v>
+      <c r="L84" s="2">
+        <v>259</v>
       </c>
       <c r="M84" s="13" t="s">
         <v>239</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="5:15" x14ac:dyDescent="0.25">
@@ -4042,701 +4042,737 @@
         <v>86</v>
       </c>
       <c r="H85" s="6"/>
-      <c r="I85" s="2">
-        <v>158</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>142</v>
+      <c r="I85" s="2"/>
+      <c r="J85" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="K85" s="6"/>
-      <c r="L85" s="3">
-        <v>274</v>
+      <c r="L85" s="2">
+        <v>260</v>
       </c>
       <c r="M85" s="13" t="s">
         <v>240</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
-      <c r="F86" s="2">
+      <c r="F86" s="3">
         <v>71</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H86" s="6">
-        <v>52</v>
-      </c>
-      <c r="I86" s="2">
-        <v>159</v>
-      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="3"/>
       <c r="J86" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K86" s="6"/>
-      <c r="L86" s="3">
-        <v>275</v>
+      <c r="L86" s="2">
+        <v>261</v>
       </c>
       <c r="M86" s="13" t="s">
         <v>241</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
-      <c r="F87" s="2">
+      <c r="F87" s="3">
         <v>72</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>180</v>
       </c>
       <c r="H87" s="6"/>
-      <c r="I87" s="2">
-        <v>160</v>
-      </c>
+      <c r="I87" s="3"/>
       <c r="J87" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K87" s="6">
-        <v>79</v>
-      </c>
-      <c r="L87" s="2">
-        <v>276</v>
+        <v>86</v>
+      </c>
+      <c r="L87" s="3">
+        <v>262</v>
       </c>
       <c r="M87" s="13" t="s">
         <v>242</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E88" s="6"/>
-      <c r="F88" s="3">
+      <c r="E88" s="6">
+        <v>26</v>
+      </c>
+      <c r="F88" s="2">
         <v>73</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H88" s="6">
-        <v>53</v>
-      </c>
-      <c r="I88" s="2">
-        <v>161</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>182</v>
+      <c r="H88" s="6"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="K88" s="6"/>
-      <c r="L88" s="2">
-        <v>277</v>
+      <c r="L88" s="3">
+        <v>263</v>
       </c>
       <c r="M88" s="13" t="s">
         <v>243</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E89" s="6"/>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>74</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H89" s="6"/>
-      <c r="I89" s="2">
-        <v>162</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>176</v>
+      <c r="I89" s="2"/>
+      <c r="J89" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="K89" s="6"/>
-      <c r="L89" s="2">
-        <v>278</v>
+      <c r="L89" s="3">
+        <v>264</v>
       </c>
       <c r="M89" s="13" t="s">
         <v>244</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E90" s="6"/>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>75</v>
       </c>
       <c r="G90" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="2">
-        <v>163</v>
+      <c r="H90" s="6">
+        <v>54</v>
+      </c>
+      <c r="I90" s="3">
+        <v>157</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="K90" s="6"/>
-      <c r="L90" s="2">
-        <v>279</v>
+      <c r="L90" s="3">
+        <v>265</v>
       </c>
       <c r="M90" s="13" t="s">
         <v>245</v>
       </c>
       <c r="N90" s="6"/>
       <c r="O90" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E91" s="6"/>
-      <c r="F91" s="2">
+      <c r="E91" s="6">
+        <v>27</v>
+      </c>
+      <c r="F91" s="3">
         <v>76</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>313</v>
       </c>
       <c r="H91" s="6"/>
-      <c r="I91" s="2">
-        <v>164</v>
+      <c r="I91" s="3">
+        <v>158</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="K91" s="6">
-        <v>80</v>
-      </c>
-      <c r="L91" s="3">
-        <v>280</v>
+        <v>87</v>
+      </c>
+      <c r="L91" s="2">
+        <v>266</v>
       </c>
       <c r="M91" s="13" t="s">
         <v>246</v>
       </c>
       <c r="N91" s="6"/>
       <c r="O91" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E92" s="6"/>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>77</v>
       </c>
       <c r="G92" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H92" s="6">
-        <v>54</v>
-      </c>
-      <c r="I92" s="2">
-        <v>165</v>
+      <c r="H92" s="6"/>
+      <c r="I92" s="3">
+        <v>159</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K92" s="6"/>
-      <c r="L92" s="3">
-        <v>281</v>
+      <c r="L92" s="2">
+        <v>267</v>
       </c>
       <c r="M92" s="13" t="s">
         <v>247</v>
       </c>
       <c r="N92" s="6"/>
       <c r="O92" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E93" s="6"/>
-      <c r="F93" s="3">
+      <c r="E93" s="6">
+        <v>28</v>
+      </c>
+      <c r="F93" s="2">
         <v>78</v>
       </c>
       <c r="G93" s="13" t="s">
         <v>307</v>
       </c>
       <c r="H93" s="6"/>
-      <c r="I93" s="2">
-        <v>166</v>
+      <c r="I93" s="3">
+        <v>160</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K93" s="6"/>
-      <c r="L93" s="3">
-        <v>282</v>
+      <c r="L93" s="2">
+        <v>268</v>
       </c>
       <c r="M93" s="13" t="s">
         <v>248</v>
       </c>
       <c r="N93" s="6"/>
       <c r="O93" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E94" s="6"/>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>79</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H94" s="6"/>
+      <c r="H94" s="6">
+        <v>55</v>
+      </c>
       <c r="I94" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K94" s="6"/>
-      <c r="L94" s="3">
-        <v>283</v>
+      <c r="L94" s="2">
+        <v>269</v>
       </c>
       <c r="M94" s="13" t="s">
         <v>249</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H95" s="6">
+      <c r="H95" s="6"/>
+      <c r="I95" s="2">
+        <v>162</v>
+      </c>
+      <c r="J95" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I95" s="2">
-        <v>168</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="K95" s="6">
-        <v>81</v>
-      </c>
-      <c r="L95" s="2">
-        <v>284</v>
+        <v>88</v>
+      </c>
+      <c r="L95" s="3">
+        <v>270</v>
       </c>
       <c r="M95" s="13" t="s">
         <v>251</v>
       </c>
       <c r="N95" s="6"/>
       <c r="O95" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H96" s="6"/>
       <c r="I96" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="K96" s="6"/>
-      <c r="L96" s="2">
-        <v>285</v>
+      <c r="L96" s="3">
+        <v>271</v>
       </c>
       <c r="M96" s="13" t="s">
         <v>250</v>
       </c>
       <c r="N96" s="6"/>
       <c r="O96" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H97" s="6"/>
-      <c r="I97" s="2">
-        <v>170</v>
+      <c r="H97" s="6">
+        <v>56</v>
+      </c>
+      <c r="I97" s="3">
+        <v>164</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="K97" s="6"/>
-      <c r="L97" s="2">
-        <v>286</v>
+      <c r="L97" s="3">
+        <v>272</v>
       </c>
       <c r="M97" s="13" t="s">
         <v>252</v>
       </c>
       <c r="N97" s="6"/>
       <c r="O97" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H98" s="6"/>
-      <c r="I98" s="2">
-        <v>171</v>
+      <c r="I98" s="3">
+        <v>165</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="K98" s="6">
-        <v>82</v>
-      </c>
-      <c r="L98" s="3">
-        <v>287</v>
+        <v>89</v>
+      </c>
+      <c r="L98" s="2">
+        <v>273</v>
       </c>
       <c r="M98" s="13" t="s">
         <v>253</v>
       </c>
       <c r="N98" s="6"/>
       <c r="O98" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H99" s="6"/>
+      <c r="H99" s="6">
+        <v>57</v>
+      </c>
       <c r="I99" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="K99" s="6"/>
-      <c r="L99" s="3">
-        <v>288</v>
+      <c r="L99" s="2">
+        <v>274</v>
       </c>
       <c r="M99" s="13" t="s">
         <v>254</v>
       </c>
       <c r="N99" s="6"/>
       <c r="O99" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H100" s="6"/>
       <c r="I100" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K100" s="6"/>
-      <c r="L100" s="3">
-        <v>289</v>
+      <c r="L100" s="2">
+        <v>275</v>
       </c>
       <c r="M100" s="13" t="s">
         <v>255</v>
       </c>
       <c r="N100" s="6"/>
       <c r="O100" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H101" s="6">
-        <v>56</v>
-      </c>
-      <c r="I101" s="2">
-        <v>174</v>
+        <v>58</v>
+      </c>
+      <c r="I101" s="3">
+        <v>168</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="K101" s="6">
-        <v>83</v>
-      </c>
-      <c r="L101" s="2">
-        <v>290</v>
+        <v>90</v>
+      </c>
+      <c r="L101" s="3">
+        <v>276</v>
       </c>
       <c r="M101" s="13" t="s">
         <v>259</v>
       </c>
       <c r="N101" s="6"/>
       <c r="O101" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H102" s="6"/>
-      <c r="I102" s="2">
-        <v>175</v>
+      <c r="I102" s="3">
+        <v>169</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K102" s="6"/>
-      <c r="L102" s="2">
-        <v>291</v>
+      <c r="L102" s="3">
+        <v>277</v>
       </c>
       <c r="M102" s="13" t="s">
         <v>256</v>
       </c>
       <c r="N102" s="6"/>
       <c r="O102" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H103" s="6"/>
+      <c r="H103" s="6">
+        <v>59</v>
+      </c>
       <c r="I103" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K103" s="6"/>
-      <c r="L103" s="2">
-        <v>292</v>
+      <c r="L103" s="3">
+        <v>278</v>
       </c>
       <c r="M103" s="13" t="s">
         <v>257</v>
       </c>
       <c r="N103" s="6"/>
       <c r="O103" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H104" s="6"/>
       <c r="I104" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="K104" s="6"/>
-      <c r="L104" s="2">
-        <v>293</v>
+      <c r="L104" s="3">
+        <v>279</v>
       </c>
       <c r="M104" s="13" t="s">
         <v>258</v>
       </c>
       <c r="N104" s="6"/>
       <c r="O104" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H105" s="6">
-        <v>57</v>
-      </c>
-      <c r="I105" s="2">
-        <v>178</v>
+        <v>60</v>
+      </c>
+      <c r="I105" s="3">
+        <v>172</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K105" s="6">
-        <v>84</v>
-      </c>
-      <c r="L105" s="3">
-        <v>294</v>
+        <v>91</v>
+      </c>
+      <c r="L105" s="2">
+        <v>280</v>
       </c>
       <c r="M105" s="13" t="s">
         <v>279</v>
       </c>
       <c r="N105" s="6"/>
       <c r="O105" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H106" s="6"/>
-      <c r="I106" s="2">
-        <v>179</v>
+      <c r="I106" s="3">
+        <v>173</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="K106" s="6"/>
-      <c r="L106" s="3">
-        <v>295</v>
+      <c r="L106" s="2">
+        <v>281</v>
       </c>
       <c r="M106" s="13" t="s">
         <v>280</v>
       </c>
       <c r="N106" s="6"/>
       <c r="O106" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H107" s="6"/>
+      <c r="H107" s="6">
+        <v>61</v>
+      </c>
       <c r="I107" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K107" s="6"/>
-      <c r="L107" s="3">
-        <v>296</v>
+      <c r="L107" s="2">
+        <v>282</v>
       </c>
       <c r="M107" s="13" t="s">
         <v>98</v>
       </c>
       <c r="N107" s="6"/>
       <c r="O107" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H108" s="6"/>
       <c r="I108" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="K108" s="6">
-        <v>85</v>
-      </c>
-      <c r="L108" s="2">
-        <v>297</v>
+        <v>92</v>
+      </c>
+      <c r="L108" s="3">
+        <v>283</v>
       </c>
       <c r="M108" s="13" t="s">
         <v>281</v>
       </c>
       <c r="N108" s="6"/>
       <c r="O108" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H109" s="6"/>
       <c r="I109" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="K109" s="6"/>
-      <c r="L109" s="2">
-        <v>298</v>
+      <c r="L109" s="3">
+        <v>284</v>
       </c>
       <c r="M109" s="13" t="s">
         <v>144</v>
       </c>
       <c r="N109" s="6"/>
       <c r="O109" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H110" s="6"/>
       <c r="I110" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K110" s="6"/>
-      <c r="L110" s="2">
-        <v>299</v>
+      <c r="L110" s="3">
+        <v>285</v>
       </c>
       <c r="M110" s="13" t="s">
         <v>282</v>
       </c>
       <c r="N110" s="6"/>
       <c r="O110" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H111" s="6"/>
-      <c r="I111" s="2">
-        <v>184</v>
+      <c r="H111" s="6">
+        <v>62</v>
+      </c>
+      <c r="I111" s="3">
+        <v>178</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K111" s="6">
-        <v>86</v>
-      </c>
-      <c r="L111" s="3">
-        <v>300</v>
-      </c>
-      <c r="M111" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2" t="s">
         <v>283</v>
       </c>
       <c r="N111" s="6"/>
       <c r="O111" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H112" s="6"/>
-      <c r="I112" s="2">
-        <v>185</v>
+      <c r="I112" s="3">
+        <v>179</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="K112" s="6"/>
-      <c r="L112" s="3">
-        <v>301</v>
-      </c>
-      <c r="M112" s="3" t="s">
+      <c r="L112" s="2"/>
+      <c r="M112" s="2" t="s">
         <v>55</v>
       </c>
       <c r="N112" s="6"/>
       <c r="O112" s="2">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N113" s="7"/>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N114" s="7"/>
-    </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H113" s="6">
+        <v>63</v>
+      </c>
+      <c r="I113" s="2">
+        <v>180</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" s="6">
+        <v>94</v>
+      </c>
+      <c r="L113" s="3">
+        <v>286</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N113" s="6"/>
+      <c r="O113" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H114" s="6"/>
+      <c r="I114" s="2">
+        <v>181</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="3">
+        <v>287</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N114" s="6"/>
+      <c r="O114" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N115" s="7"/>
     </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N116" s="7"/>
     </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N117" s="7"/>
     </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N118" s="7"/>
     </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N119" s="7"/>
     </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N120" s="7"/>
     </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N121" s="7"/>
     </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N122" s="7"/>
     </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N123" s="7"/>
     </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N124" s="7"/>
     </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N125" s="7"/>
     </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N126" s="7"/>
     </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N127" s="7"/>
     </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:15" x14ac:dyDescent="0.25">
       <c r="N128" s="7"/>
     </row>
   </sheetData>
@@ -4746,7 +4782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
